--- a/mobi_client/mobi_client/mobi_config/excel/998_文本宏.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/998_文本宏.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12420" tabRatio="703" firstSheet="10" activeTab="12"/>
+    <workbookView windowWidth="19530" windowHeight="9615" tabRatio="703" firstSheet="7" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="DialogMacro|系统文本宏" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2485" uniqueCount="2162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2485" uniqueCount="2159">
   <si>
     <t>说明</t>
   </si>
@@ -4142,7 +4142,7 @@
     <t>周易思考3表情</t>
   </si>
   <si>
-    <t>{角色表情,zhouyi,周易_思考_上脸_开始_03;周易_思考_下嘴_开始_01,0.25}</t>
+    <t>{角色表情,zhouyi,周易_思考_上脸_开始_02;周易_思考_下嘴_开始_02,0.25}</t>
   </si>
   <si>
     <t>周易思考3表情恢复</t>
@@ -4151,9 +4151,6 @@
     <t>周易思考4表情</t>
   </si>
   <si>
-    <t>{角色表情,zhouyi,周易_思考_上脸_开始_02;周易_思考_下嘴_开始_02,0.25}</t>
-  </si>
-  <si>
     <t>周易思考4表情恢复</t>
   </si>
   <si>
@@ -5789,7 +5786,7 @@
     <t>冰酒出棋动作</t>
   </si>
   <si>
-    <t>{角色动作,bingjiu,冰酒_出棋_动作_开始_01}</t>
+    <t>{角色动作,bingjiu,冰酒_出棋_动作_结束_01}</t>
   </si>
   <si>
     <t>冰酒推算动作</t>
@@ -5861,9 +5858,6 @@
     <t>冰酒出棋动作恢复</t>
   </si>
   <si>
-    <t>{角色动作,bingjiu,冰酒_出棋_动作_结束_01}</t>
-  </si>
-  <si>
     <t>冰酒推算动作恢复</t>
   </si>
   <si>
@@ -5895,9 +5889,6 @@
   </si>
   <si>
     <t>冰酒待机2动作恢复</t>
-  </si>
-  <si>
-    <t>{角色动作,bingjiu,冰酒_待机_动作_结束_02}</t>
   </si>
   <si>
     <t>冰酒待机表情</t>
@@ -14178,10 +14169,10 @@
         <v>10001</v>
       </c>
       <c r="B5" t="s">
+        <v>1822</v>
+      </c>
+      <c r="C5" t="s">
         <v>1823</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1824</v>
       </c>
       <c r="D5" t="str">
         <f>$C$1&amp;B5&amp;$D$1</f>
@@ -14194,10 +14185,10 @@
         <v>10002</v>
       </c>
       <c r="B6" t="s">
+        <v>1824</v>
+      </c>
+      <c r="C6" t="s">
         <v>1825</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1826</v>
       </c>
       <c r="D6" t="str">
         <f>$C$1&amp;B6&amp;$D$1</f>
@@ -14210,10 +14201,10 @@
         <v>10003</v>
       </c>
       <c r="B7" s="14" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C7" t="s">
         <v>1827</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1828</v>
       </c>
       <c r="D7" t="str">
         <f>$C$1&amp;B7&amp;$D$1</f>
@@ -14226,10 +14217,10 @@
         <v>10004</v>
       </c>
       <c r="B8" s="14" t="s">
+        <v>1828</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>1829</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>1830</v>
       </c>
       <c r="D8" s="14" t="str">
         <f>$C$1&amp;B8&amp;$D$1</f>
@@ -14243,10 +14234,10 @@
         <v>10005</v>
       </c>
       <c r="B9" s="14" t="s">
+        <v>1830</v>
+      </c>
+      <c r="C9" s="14" t="s">
         <v>1831</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>1832</v>
       </c>
       <c r="D9" s="14" t="str">
         <f>$C$1&amp;B9&amp;$D$1</f>
@@ -14259,10 +14250,10 @@
         <v>10006</v>
       </c>
       <c r="B10" s="14" t="s">
+        <v>1832</v>
+      </c>
+      <c r="C10" s="14" t="s">
         <v>1833</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>1834</v>
       </c>
       <c r="D10" s="14" t="str">
         <f>$C$1&amp;B10&amp;$D$1</f>
@@ -14275,10 +14266,10 @@
         <v>10007</v>
       </c>
       <c r="B11" s="14" t="s">
+        <v>1834</v>
+      </c>
+      <c r="C11" s="14" t="s">
         <v>1835</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>1836</v>
       </c>
       <c r="D11" s="14" t="str">
         <f>$C$1&amp;B11&amp;$D$1</f>
@@ -14291,10 +14282,10 @@
         <v>10008</v>
       </c>
       <c r="B12" s="14" t="s">
+        <v>1836</v>
+      </c>
+      <c r="C12" s="14" t="s">
         <v>1837</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>1838</v>
       </c>
       <c r="D12" s="14" t="str">
         <f>$C$1&amp;B12&amp;$D$1</f>
@@ -14307,10 +14298,10 @@
         <v>10009</v>
       </c>
       <c r="B13" s="14" t="s">
+        <v>1838</v>
+      </c>
+      <c r="C13" s="14" t="s">
         <v>1839</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>1840</v>
       </c>
       <c r="D13" s="14" t="str">
         <f>$C$1&amp;B13&amp;$D$1</f>
@@ -14335,10 +14326,10 @@
         <v>10012</v>
       </c>
       <c r="B16" s="14" t="s">
+        <v>1840</v>
+      </c>
+      <c r="C16" s="14" t="s">
         <v>1841</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>1842</v>
       </c>
       <c r="D16" s="14" t="str">
         <f>$C$1&amp;B16&amp;$D$1</f>
@@ -14351,10 +14342,10 @@
         <v>10013</v>
       </c>
       <c r="B17" s="14" t="s">
+        <v>1842</v>
+      </c>
+      <c r="C17" s="14" t="s">
         <v>1843</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>1844</v>
       </c>
       <c r="D17" s="14" t="str">
         <f>$C$1&amp;B17&amp;$D$1</f>
@@ -14367,10 +14358,10 @@
         <v>10014</v>
       </c>
       <c r="B18" s="14" t="s">
+        <v>1844</v>
+      </c>
+      <c r="C18" s="14" t="s">
         <v>1845</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>1846</v>
       </c>
       <c r="D18" s="14" t="str">
         <f>$C$1&amp;B18&amp;$D$1</f>
@@ -14383,10 +14374,10 @@
         <v>10015</v>
       </c>
       <c r="B19" s="14" t="s">
+        <v>1846</v>
+      </c>
+      <c r="C19" s="14" t="s">
         <v>1847</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>1848</v>
       </c>
       <c r="D19" s="14" t="str">
         <f>$C$1&amp;B19&amp;$D$1</f>
@@ -14399,10 +14390,10 @@
         <v>10016</v>
       </c>
       <c r="B20" s="14" t="s">
+        <v>1848</v>
+      </c>
+      <c r="C20" s="14" t="s">
         <v>1849</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>1850</v>
       </c>
       <c r="D20" s="14" t="str">
         <f>$C$1&amp;B20&amp;$D$1</f>
@@ -14415,10 +14406,10 @@
         <v>10017</v>
       </c>
       <c r="B21" s="14" t="s">
+        <v>1850</v>
+      </c>
+      <c r="C21" s="14" t="s">
         <v>1851</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>1852</v>
       </c>
       <c r="D21" s="14" t="str">
         <f>$C$1&amp;B21&amp;$D$1</f>
@@ -14431,10 +14422,10 @@
         <v>10018</v>
       </c>
       <c r="B22" s="14" t="s">
+        <v>1852</v>
+      </c>
+      <c r="C22" s="14" t="s">
         <v>1853</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>1854</v>
       </c>
       <c r="D22" s="14" t="str">
         <f>$C$1&amp;B22&amp;$D$1</f>
@@ -14447,10 +14438,10 @@
         <v>10019</v>
       </c>
       <c r="B23" s="14" t="s">
+        <v>1854</v>
+      </c>
+      <c r="C23" s="14" t="s">
         <v>1855</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>1856</v>
       </c>
       <c r="D23" s="14" t="str">
         <f>$C$1&amp;B23&amp;$D$1</f>
@@ -14475,10 +14466,10 @@
         <v>10022</v>
       </c>
       <c r="B26" s="14" t="s">
+        <v>1856</v>
+      </c>
+      <c r="C26" s="14" t="s">
         <v>1857</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>1858</v>
       </c>
       <c r="D26" t="str">
         <f>$C$1&amp;B26&amp;$D$1</f>
@@ -14492,10 +14483,10 @@
         <v>10023</v>
       </c>
       <c r="B27" t="s">
+        <v>1858</v>
+      </c>
+      <c r="C27" t="s">
         <v>1859</v>
-      </c>
-      <c r="C27" t="s">
-        <v>1860</v>
       </c>
       <c r="D27" t="str">
         <f>$C$1&amp;B27&amp;$D$1</f>
@@ -14509,10 +14500,10 @@
         <v>10024</v>
       </c>
       <c r="B28" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="C28" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="D28" t="str">
         <f>$C$1&amp;B28&amp;$D$1</f>
@@ -14526,10 +14517,10 @@
         <v>10025</v>
       </c>
       <c r="B29" s="14" t="s">
+        <v>1861</v>
+      </c>
+      <c r="C29" s="14" t="s">
         <v>1862</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>1863</v>
       </c>
       <c r="D29" s="14" t="str">
         <f>$C$1&amp;B29&amp;$D$1</f>
@@ -14542,10 +14533,10 @@
         <v>10026</v>
       </c>
       <c r="B30" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="C30" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="D30" t="str">
         <f>$C$1&amp;B30&amp;$D$1</f>
@@ -14558,10 +14549,10 @@
         <v>10027</v>
       </c>
       <c r="B31" s="14" t="s">
+        <v>1864</v>
+      </c>
+      <c r="C31" s="14" t="s">
         <v>1865</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>1866</v>
       </c>
       <c r="D31" s="14" t="str">
         <f>$C$1&amp;B31&amp;$D$1</f>
@@ -14575,10 +14566,10 @@
         <v>10028</v>
       </c>
       <c r="B32" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="C32" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="D32" t="str">
         <f>$C$1&amp;B32&amp;$D$1</f>
@@ -14592,10 +14583,10 @@
         <v>10029</v>
       </c>
       <c r="B33" t="s">
+        <v>1867</v>
+      </c>
+      <c r="C33" t="s">
         <v>1868</v>
-      </c>
-      <c r="C33" t="s">
-        <v>1869</v>
       </c>
       <c r="D33" t="str">
         <f>$C$1&amp;B33&amp;$D$1</f>
@@ -14610,10 +14601,10 @@
         <v>10030</v>
       </c>
       <c r="B34" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="C34" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="D34" t="str">
         <f>$C$1&amp;B34&amp;$D$1</f>
@@ -14627,10 +14618,10 @@
         <v>10031</v>
       </c>
       <c r="B35" t="s">
+        <v>1870</v>
+      </c>
+      <c r="C35" s="14" t="s">
         <v>1871</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>1872</v>
       </c>
       <c r="D35" t="str">
         <f>$C$1&amp;B35&amp;$D$1</f>
@@ -14645,10 +14636,10 @@
         <v>10032</v>
       </c>
       <c r="B36" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="C36" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="D36" t="str">
         <f>$C$1&amp;B36&amp;$D$1</f>
@@ -14662,10 +14653,10 @@
         <v>10033</v>
       </c>
       <c r="B37" t="s">
+        <v>1873</v>
+      </c>
+      <c r="C37" t="s">
         <v>1874</v>
-      </c>
-      <c r="C37" t="s">
-        <v>1875</v>
       </c>
       <c r="D37" t="str">
         <f>$C$1&amp;B37&amp;$D$1</f>
@@ -14679,10 +14670,10 @@
         <v>10034</v>
       </c>
       <c r="B38" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="C38" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="D38" t="str">
         <f>$C$1&amp;B38&amp;$D$1</f>
@@ -14695,10 +14686,10 @@
         <v>10035</v>
       </c>
       <c r="B39" t="s">
+        <v>1876</v>
+      </c>
+      <c r="C39" t="s">
         <v>1877</v>
-      </c>
-      <c r="C39" t="s">
-        <v>1878</v>
       </c>
       <c r="D39" t="str">
         <f>$C$1&amp;B39&amp;$D$1</f>
@@ -14711,10 +14702,10 @@
         <v>10036</v>
       </c>
       <c r="B40" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="C40" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="D40" t="str">
         <f>$C$1&amp;B40&amp;$D$1</f>
@@ -14727,10 +14718,10 @@
         <v>10037</v>
       </c>
       <c r="B41" t="s">
+        <v>1879</v>
+      </c>
+      <c r="C41" t="s">
         <v>1880</v>
-      </c>
-      <c r="C41" t="s">
-        <v>1881</v>
       </c>
       <c r="D41" t="str">
         <f>$C$1&amp;B41&amp;$D$1</f>
@@ -14744,10 +14735,10 @@
         <v>10038</v>
       </c>
       <c r="B42" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="C42" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="D42" t="str">
         <f>$C$1&amp;B42&amp;$D$1</f>
@@ -14773,13 +14764,13 @@
         <v>10041</v>
       </c>
       <c r="B45" s="11" t="s">
+        <v>1882</v>
+      </c>
+      <c r="C45" s="11" t="s">
         <v>1883</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="D45" s="11" t="s">
         <v>1884</v>
-      </c>
-      <c r="D45" s="11" t="s">
-        <v>1885</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -14788,13 +14779,13 @@
         <v>10042</v>
       </c>
       <c r="B46" s="11" t="s">
+        <v>1885</v>
+      </c>
+      <c r="C46" s="11" t="s">
         <v>1886</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="D46" s="11" t="s">
         <v>1887</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>1888</v>
       </c>
     </row>
     <row r="47" s="14" customFormat="1" spans="1:4">
@@ -14803,13 +14794,13 @@
         <v>10043</v>
       </c>
       <c r="B47" s="11" t="s">
+        <v>1888</v>
+      </c>
+      <c r="C47" s="11" t="s">
         <v>1889</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="D47" s="11" t="s">
         <v>1890</v>
-      </c>
-      <c r="D47" s="11" t="s">
-        <v>1891</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -14818,13 +14809,13 @@
         <v>10044</v>
       </c>
       <c r="B48" s="11" t="s">
+        <v>1891</v>
+      </c>
+      <c r="C48" s="11" t="s">
         <v>1892</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="D48" s="11" t="s">
         <v>1893</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>1894</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -14833,13 +14824,13 @@
         <v>10045</v>
       </c>
       <c r="B49" s="11" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C49" s="11" t="s">
         <v>1895</v>
       </c>
-      <c r="C49" s="11" t="s">
+      <c r="D49" s="11" t="s">
         <v>1896</v>
-      </c>
-      <c r="D49" s="11" t="s">
-        <v>1897</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -14848,13 +14839,13 @@
         <v>10046</v>
       </c>
       <c r="B50" s="11" t="s">
+        <v>1897</v>
+      </c>
+      <c r="C50" s="11" t="s">
         <v>1898</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="D50" s="11" t="s">
         <v>1899</v>
-      </c>
-      <c r="D50" s="11" t="s">
-        <v>1900</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -14863,13 +14854,13 @@
         <v>10047</v>
       </c>
       <c r="B51" s="11" t="s">
+        <v>1900</v>
+      </c>
+      <c r="C51" s="11" t="s">
         <v>1901</v>
       </c>
-      <c r="C51" s="11" t="s">
+      <c r="D51" s="11" t="s">
         <v>1902</v>
-      </c>
-      <c r="D51" s="11" t="s">
-        <v>1903</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -14878,13 +14869,13 @@
         <v>10048</v>
       </c>
       <c r="B52" s="11" t="s">
+        <v>1903</v>
+      </c>
+      <c r="C52" s="11" t="s">
         <v>1904</v>
       </c>
-      <c r="C52" s="11" t="s">
+      <c r="D52" s="11" t="s">
         <v>1905</v>
-      </c>
-      <c r="D52" s="11" t="s">
-        <v>1906</v>
       </c>
     </row>
     <row r="53" spans="1:1">
@@ -14912,7 +14903,7 @@
   <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -14985,10 +14976,10 @@
         <v>11001</v>
       </c>
       <c r="B5" t="s">
+        <v>1906</v>
+      </c>
+      <c r="C5" t="s">
         <v>1907</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1908</v>
       </c>
       <c r="D5" t="str">
         <f>$C$1&amp;B5&amp;$D$1</f>
@@ -15001,10 +14992,10 @@
         <v>11002</v>
       </c>
       <c r="B6" t="s">
+        <v>1908</v>
+      </c>
+      <c r="C6" t="s">
         <v>1909</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1910</v>
       </c>
       <c r="D6" t="str">
         <f>$C$1&amp;B6&amp;$D$1</f>
@@ -15017,10 +15008,10 @@
         <v>11003</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="D7" s="12" t="str">
         <f>$C$1&amp;B7&amp;$D$1</f>
@@ -15033,10 +15024,10 @@
         <v>11004</v>
       </c>
       <c r="B8" s="14" t="s">
+        <v>1911</v>
+      </c>
+      <c r="C8" t="s">
         <v>1912</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1913</v>
       </c>
       <c r="D8" t="str">
         <f>$C$1&amp;B8&amp;$D$1</f>
@@ -15049,10 +15040,10 @@
         <v>11005</v>
       </c>
       <c r="B9" s="14" t="s">
+        <v>1913</v>
+      </c>
+      <c r="C9" s="14" t="s">
         <v>1914</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>1915</v>
       </c>
       <c r="D9" s="14" t="str">
         <f>$C$1&amp;B9&amp;$D$1</f>
@@ -15066,10 +15057,10 @@
         <v>11006</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="D10" s="12" t="str">
         <f>$C$1&amp;B10&amp;$D$1</f>
@@ -15082,10 +15073,10 @@
         <v>11007</v>
       </c>
       <c r="B11" s="14" t="s">
+        <v>1916</v>
+      </c>
+      <c r="C11" s="14" t="s">
         <v>1917</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>1918</v>
       </c>
       <c r="D11" s="14" t="str">
         <f>$C$1&amp;B11&amp;$D$1</f>
@@ -15110,10 +15101,10 @@
         <v>11010</v>
       </c>
       <c r="B14" s="14" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C14" s="14" t="s">
         <v>1919</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>1920</v>
       </c>
       <c r="D14" s="14" t="str">
         <f>$C$1&amp;B14&amp;$D$1</f>
@@ -15126,10 +15117,10 @@
         <v>11011</v>
       </c>
       <c r="B15" s="14" t="s">
+        <v>1920</v>
+      </c>
+      <c r="C15" s="14" t="s">
         <v>1921</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>1922</v>
       </c>
       <c r="D15" s="14" t="str">
         <f t="shared" ref="D15:D20" si="0">$C$1&amp;B15&amp;$D$1</f>
@@ -15142,10 +15133,10 @@
         <v>11012</v>
       </c>
       <c r="B16" s="14" t="s">
+        <v>1922</v>
+      </c>
+      <c r="C16" s="14" t="s">
         <v>1923</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>1924</v>
       </c>
       <c r="D16" s="14" t="str">
         <f t="shared" si="0"/>
@@ -15158,10 +15149,10 @@
         <v>11013</v>
       </c>
       <c r="B17" s="14" t="s">
+        <v>1924</v>
+      </c>
+      <c r="C17" s="14" t="s">
         <v>1925</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>1926</v>
       </c>
       <c r="D17" s="14" t="str">
         <f t="shared" si="0"/>
@@ -15174,10 +15165,10 @@
         <v>11014</v>
       </c>
       <c r="B18" s="14" t="s">
+        <v>1926</v>
+      </c>
+      <c r="C18" s="14" t="s">
         <v>1927</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>1928</v>
       </c>
       <c r="D18" s="14" t="str">
         <f t="shared" si="0"/>
@@ -15190,10 +15181,10 @@
         <v>11015</v>
       </c>
       <c r="B19" s="14" t="s">
+        <v>1928</v>
+      </c>
+      <c r="C19" s="14" t="s">
         <v>1929</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>1930</v>
       </c>
       <c r="D19" s="14" t="str">
         <f t="shared" si="0"/>
@@ -15206,10 +15197,10 @@
         <v>11016</v>
       </c>
       <c r="B20" s="14" t="s">
+        <v>1930</v>
+      </c>
+      <c r="C20" s="14" t="s">
         <v>1931</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>1932</v>
       </c>
       <c r="D20" s="14" t="str">
         <f t="shared" si="0"/>
@@ -15234,10 +15225,10 @@
         <v>11019</v>
       </c>
       <c r="B23" s="14" t="s">
+        <v>1932</v>
+      </c>
+      <c r="C23" s="14" t="s">
         <v>1933</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>1934</v>
       </c>
       <c r="D23" s="14" t="str">
         <f>$C$1&amp;B23&amp;$D$1</f>
@@ -15250,10 +15241,10 @@
         <v>11020</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="D24" s="12" t="str">
         <f>$C$1&amp;B24&amp;$D$1</f>
@@ -15266,10 +15257,10 @@
         <v>11021</v>
       </c>
       <c r="B25" s="14" t="s">
+        <v>1935</v>
+      </c>
+      <c r="C25" s="14" t="s">
         <v>1936</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>1937</v>
       </c>
       <c r="D25" s="14" t="str">
         <f>$C$1&amp;B25&amp;$D$1</f>
@@ -15282,10 +15273,10 @@
         <v>11022</v>
       </c>
       <c r="B26" s="14" t="s">
+        <v>1937</v>
+      </c>
+      <c r="C26" s="14" t="s">
         <v>1938</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>1939</v>
       </c>
       <c r="D26" s="14" t="str">
         <f>$C$1&amp;B26&amp;$D$1</f>
@@ -15298,10 +15289,10 @@
         <v>11023</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="D27" s="12" t="str">
         <f>$C$1&amp;B27&amp;$D$1</f>
@@ -15314,10 +15305,10 @@
         <v>11024</v>
       </c>
       <c r="B28" s="14" t="s">
+        <v>1940</v>
+      </c>
+      <c r="C28" s="14" t="s">
         <v>1941</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>1942</v>
       </c>
       <c r="D28" s="14" t="str">
         <f>$C$1&amp;B28&amp;$D$1</f>
@@ -15342,10 +15333,10 @@
         <v>11027</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>1944</v>
+        <v>1919</v>
       </c>
       <c r="D31" s="14" t="str">
         <f>$C$1&amp;B31&amp;$D$1</f>
@@ -15358,10 +15349,10 @@
         <v>11028</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>1945</v>
+        <v>1943</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>1946</v>
+        <v>1944</v>
       </c>
       <c r="D32" s="14" t="str">
         <f t="shared" ref="D32:D37" si="2">$C$1&amp;B32&amp;$D$1</f>
@@ -15374,10 +15365,10 @@
         <v>11029</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>1947</v>
+        <v>1945</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>1948</v>
+        <v>1946</v>
       </c>
       <c r="D33" s="14" t="str">
         <f t="shared" si="2"/>
@@ -15390,10 +15381,10 @@
         <v>11030</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>1949</v>
+        <v>1947</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>1950</v>
+        <v>1948</v>
       </c>
       <c r="D34" s="14" t="str">
         <f t="shared" si="2"/>
@@ -15406,10 +15397,10 @@
         <v>11031</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>1952</v>
+        <v>1950</v>
       </c>
       <c r="D35" s="14" t="str">
         <f t="shared" si="2"/>
@@ -15422,10 +15413,10 @@
         <v>11032</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>1953</v>
+        <v>1951</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>1954</v>
+        <v>1952</v>
       </c>
       <c r="D36" s="14" t="str">
         <f t="shared" si="2"/>
@@ -15438,10 +15429,10 @@
         <v>11033</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>1955</v>
+        <v>1953</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>1956</v>
+        <v>1907</v>
       </c>
       <c r="D37" s="14" t="str">
         <f t="shared" si="2"/>
@@ -15466,10 +15457,10 @@
         <v>11036</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>1957</v>
+        <v>1954</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>1958</v>
+        <v>1955</v>
       </c>
       <c r="D40" t="str">
         <f>$C$1&amp;B40&amp;$D$1</f>
@@ -15483,10 +15474,10 @@
         <v>11037</v>
       </c>
       <c r="B41" t="s">
-        <v>1959</v>
+        <v>1956</v>
       </c>
       <c r="C41" t="s">
-        <v>1960</v>
+        <v>1957</v>
       </c>
       <c r="D41" t="str">
         <f>$C$1&amp;B41&amp;$D$1</f>
@@ -15500,10 +15491,10 @@
         <v>11038</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>1961</v>
+        <v>1958</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>1958</v>
+        <v>1955</v>
       </c>
       <c r="D42" s="12" t="str">
         <f>$C$1&amp;B42&amp;$D$1</f>
@@ -15516,10 +15507,10 @@
         <v>11039</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>1962</v>
+        <v>1959</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>1963</v>
+        <v>1960</v>
       </c>
       <c r="D43" s="14" t="str">
         <f>$C$1&amp;B43&amp;$D$1</f>
@@ -15532,10 +15523,10 @@
         <v>11040</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>1964</v>
+        <v>1961</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>1965</v>
+        <v>1962</v>
       </c>
       <c r="D44" s="14" t="str">
         <f>$C$1&amp;B44&amp;$D$1</f>
@@ -15549,10 +15540,10 @@
         <v>11041</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>1966</v>
+        <v>1963</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>1958</v>
+        <v>1955</v>
       </c>
       <c r="D45" s="12" t="str">
         <f>$C$1&amp;B45&amp;$D$1</f>
@@ -15565,10 +15556,10 @@
         <v>11042</v>
       </c>
       <c r="B46" t="s">
-        <v>1967</v>
+        <v>1964</v>
       </c>
       <c r="C46" t="s">
-        <v>1968</v>
+        <v>1965</v>
       </c>
       <c r="D46" t="str">
         <f>$C$1&amp;B46&amp;$D$1</f>
@@ -15583,10 +15574,10 @@
         <v>11043</v>
       </c>
       <c r="B47" t="s">
-        <v>1969</v>
+        <v>1966</v>
       </c>
       <c r="C47" t="s">
-        <v>1958</v>
+        <v>1955</v>
       </c>
       <c r="D47" t="str">
         <f>$C$1&amp;B47&amp;$D$1</f>
@@ -15721,10 +15712,10 @@
         <v>12001</v>
       </c>
       <c r="B5" t="s">
-        <v>1970</v>
+        <v>1967</v>
       </c>
       <c r="C5" t="s">
-        <v>1971</v>
+        <v>1968</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" ref="D5:D16" si="0">$C$1&amp;B5&amp;$D$1</f>
@@ -15736,10 +15727,10 @@
         <v>12002</v>
       </c>
       <c r="B6" t="s">
-        <v>1972</v>
+        <v>1969</v>
       </c>
       <c r="C6" t="s">
-        <v>1973</v>
+        <v>1970</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
@@ -15751,10 +15742,10 @@
         <v>12003</v>
       </c>
       <c r="B7" t="s">
-        <v>1974</v>
+        <v>1971</v>
       </c>
       <c r="C7" t="s">
-        <v>1975</v>
+        <v>1972</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
@@ -15766,10 +15757,10 @@
         <v>12004</v>
       </c>
       <c r="B8" t="s">
-        <v>1976</v>
+        <v>1973</v>
       </c>
       <c r="C8" t="s">
-        <v>1977</v>
+        <v>1974</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
@@ -15782,10 +15773,10 @@
         <v>12005</v>
       </c>
       <c r="B9" t="s">
-        <v>1978</v>
+        <v>1975</v>
       </c>
       <c r="C9" t="s">
-        <v>1979</v>
+        <v>1976</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="0"/>
@@ -15798,10 +15789,10 @@
         <v>12006</v>
       </c>
       <c r="B10" t="s">
-        <v>1980</v>
+        <v>1977</v>
       </c>
       <c r="C10" t="s">
-        <v>1981</v>
+        <v>1978</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
@@ -15813,10 +15804,10 @@
         <v>12007</v>
       </c>
       <c r="B11" t="s">
-        <v>1982</v>
+        <v>1979</v>
       </c>
       <c r="C11" t="s">
-        <v>1983</v>
+        <v>1980</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="0"/>
@@ -15828,10 +15819,10 @@
         <v>12008</v>
       </c>
       <c r="B12" t="s">
-        <v>1984</v>
+        <v>1981</v>
       </c>
       <c r="C12" t="s">
-        <v>1985</v>
+        <v>1982</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
@@ -15843,10 +15834,10 @@
         <v>12009</v>
       </c>
       <c r="B13" t="s">
-        <v>1986</v>
+        <v>1983</v>
       </c>
       <c r="C13" t="s">
-        <v>1987</v>
+        <v>1984</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="0"/>
@@ -15858,10 +15849,10 @@
         <v>12010</v>
       </c>
       <c r="B14" t="s">
-        <v>1988</v>
+        <v>1985</v>
       </c>
       <c r="C14" t="s">
-        <v>1989</v>
+        <v>1986</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
@@ -15873,10 +15864,10 @@
         <v>12011</v>
       </c>
       <c r="B15" t="s">
-        <v>1990</v>
+        <v>1987</v>
       </c>
       <c r="C15" t="s">
-        <v>1991</v>
+        <v>1988</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="0"/>
@@ -15888,10 +15879,10 @@
         <v>12012</v>
       </c>
       <c r="B16" t="s">
-        <v>1992</v>
+        <v>1989</v>
       </c>
       <c r="C16" t="s">
-        <v>1993</v>
+        <v>1990</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="0"/>
@@ -15903,10 +15894,10 @@
         <v>12013</v>
       </c>
       <c r="B17" t="s">
-        <v>1994</v>
+        <v>1991</v>
       </c>
       <c r="C17" t="s">
-        <v>1995</v>
+        <v>1992</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" ref="D17:D26" si="1">$C$1&amp;B17&amp;$D$1</f>
@@ -15918,10 +15909,10 @@
         <v>12014</v>
       </c>
       <c r="B18" t="s">
-        <v>1996</v>
+        <v>1993</v>
       </c>
       <c r="C18" t="s">
-        <v>1997</v>
+        <v>1994</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="1"/>
@@ -15934,10 +15925,10 @@
         <v>12015</v>
       </c>
       <c r="B19" t="s">
-        <v>1998</v>
+        <v>1995</v>
       </c>
       <c r="C19" t="s">
-        <v>1999</v>
+        <v>1996</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="1"/>
@@ -15950,10 +15941,10 @@
         <v>12016</v>
       </c>
       <c r="B20" t="s">
-        <v>2000</v>
+        <v>1997</v>
       </c>
       <c r="C20" t="s">
-        <v>2001</v>
+        <v>1998</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" si="1"/>
@@ -15966,10 +15957,10 @@
         <v>12017</v>
       </c>
       <c r="B21" t="s">
-        <v>2002</v>
+        <v>1999</v>
       </c>
       <c r="C21" t="s">
-        <v>2003</v>
+        <v>2000</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" si="1"/>
@@ -15982,10 +15973,10 @@
         <v>12018</v>
       </c>
       <c r="B22" t="s">
-        <v>2004</v>
+        <v>2001</v>
       </c>
       <c r="C22" t="s">
-        <v>2005</v>
+        <v>2002</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" si="1"/>
@@ -15998,10 +15989,10 @@
         <v>12019</v>
       </c>
       <c r="B23" t="s">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="C23" t="s">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" si="1"/>
@@ -16014,10 +16005,10 @@
         <v>12020</v>
       </c>
       <c r="B24" t="s">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="C24" t="s">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="D24" t="str">
         <f t="shared" si="1"/>
@@ -16030,10 +16021,10 @@
         <v>12021</v>
       </c>
       <c r="B25" t="s">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="C25" t="s">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="D25" t="str">
         <f t="shared" si="1"/>
@@ -16046,10 +16037,10 @@
         <v>12022</v>
       </c>
       <c r="B26" t="s">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="C26" t="s">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="D26" t="str">
         <f t="shared" si="1"/>
@@ -16068,10 +16059,10 @@
         <v>12024</v>
       </c>
       <c r="B28" t="s">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="C28" t="s">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="D28" t="str">
         <f t="shared" ref="D28:D44" si="2">$C$1&amp;B28&amp;$D$1</f>
@@ -16083,10 +16074,10 @@
         <v>12025</v>
       </c>
       <c r="B29" t="s">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="C29" t="s">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="D29" t="str">
         <f t="shared" si="2"/>
@@ -16098,10 +16089,10 @@
         <v>12026</v>
       </c>
       <c r="B30" t="s">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="C30" t="s">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="D30" t="str">
         <f t="shared" si="2"/>
@@ -16113,10 +16104,10 @@
         <v>12027</v>
       </c>
       <c r="B31" t="s">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="C31" t="s">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="D31" t="str">
         <f t="shared" si="2"/>
@@ -16128,10 +16119,10 @@
         <v>12028</v>
       </c>
       <c r="B32" t="s">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="C32" t="s">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="D32" t="str">
         <f t="shared" si="2"/>
@@ -16143,10 +16134,10 @@
         <v>12029</v>
       </c>
       <c r="B33" t="s">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="C33" t="s">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="D33" t="str">
         <f t="shared" si="2"/>
@@ -16158,10 +16149,10 @@
         <v>12030</v>
       </c>
       <c r="B34" t="s">
-        <v>2025</v>
+        <v>2022</v>
       </c>
       <c r="C34" t="s">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="D34" t="str">
         <f t="shared" si="2"/>
@@ -16173,10 +16164,10 @@
         <v>12031</v>
       </c>
       <c r="B35" t="s">
-        <v>2026</v>
+        <v>2023</v>
       </c>
       <c r="C35" t="s">
-        <v>2027</v>
+        <v>2024</v>
       </c>
       <c r="D35" t="str">
         <f t="shared" si="2"/>
@@ -16188,10 +16179,10 @@
         <v>12032</v>
       </c>
       <c r="B36" t="s">
-        <v>2028</v>
+        <v>2025</v>
       </c>
       <c r="C36" t="s">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="D36" t="str">
         <f t="shared" si="2"/>
@@ -16203,10 +16194,10 @@
         <v>12033</v>
       </c>
       <c r="B37" t="s">
-        <v>2029</v>
+        <v>2026</v>
       </c>
       <c r="C37" t="s">
-        <v>2030</v>
+        <v>2027</v>
       </c>
       <c r="D37" t="str">
         <f t="shared" si="2"/>
@@ -16218,10 +16209,10 @@
         <v>12034</v>
       </c>
       <c r="B38" t="s">
-        <v>2031</v>
+        <v>2028</v>
       </c>
       <c r="C38" t="s">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="D38" t="str">
         <f t="shared" si="2"/>
@@ -16233,10 +16224,10 @@
         <v>12035</v>
       </c>
       <c r="B39" t="s">
-        <v>2032</v>
+        <v>2029</v>
       </c>
       <c r="C39" t="s">
-        <v>2033</v>
+        <v>2030</v>
       </c>
       <c r="D39" t="str">
         <f t="shared" si="2"/>
@@ -16248,10 +16239,10 @@
         <v>12036</v>
       </c>
       <c r="B40" t="s">
-        <v>2034</v>
+        <v>2031</v>
       </c>
       <c r="C40" t="s">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="D40" t="str">
         <f t="shared" si="2"/>
@@ -16263,10 +16254,10 @@
         <v>12037</v>
       </c>
       <c r="B41" t="s">
-        <v>2035</v>
+        <v>2032</v>
       </c>
       <c r="C41" t="s">
-        <v>2036</v>
+        <v>2033</v>
       </c>
       <c r="D41" t="str">
         <f t="shared" si="2"/>
@@ -16278,10 +16269,10 @@
         <v>12038</v>
       </c>
       <c r="B42" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
       <c r="C42" t="s">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="D42" t="str">
         <f t="shared" si="2"/>
@@ -16293,10 +16284,10 @@
         <v>12039</v>
       </c>
       <c r="B43" t="s">
-        <v>2038</v>
+        <v>2035</v>
       </c>
       <c r="C43" t="s">
-        <v>2039</v>
+        <v>2036</v>
       </c>
       <c r="D43" t="str">
         <f t="shared" si="2"/>
@@ -16308,10 +16299,10 @@
         <v>12040</v>
       </c>
       <c r="B44" t="s">
-        <v>2040</v>
+        <v>2037</v>
       </c>
       <c r="C44" t="s">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="D44" t="str">
         <f t="shared" si="2"/>
@@ -16328,10 +16319,10 @@
         <v>12042</v>
       </c>
       <c r="B46" t="s">
-        <v>2041</v>
+        <v>2038</v>
       </c>
       <c r="C46" t="s">
-        <v>2042</v>
+        <v>2039</v>
       </c>
       <c r="D46" t="str">
         <f>$C$1&amp;B46&amp;$D$1</f>
@@ -16343,10 +16334,10 @@
         <v>12043</v>
       </c>
       <c r="B47" t="s">
-        <v>2043</v>
+        <v>2040</v>
       </c>
       <c r="C47" t="s">
-        <v>2044</v>
+        <v>2041</v>
       </c>
       <c r="D47" t="str">
         <f>$C$1&amp;B47&amp;$D$1</f>
@@ -16363,13 +16354,13 @@
         <v>12045</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>2045</v>
+        <v>2042</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>2046</v>
+        <v>2043</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>2047</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -16377,13 +16368,13 @@
         <v>12046</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>2048</v>
+        <v>2045</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>2049</v>
+        <v>2046</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>2050</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -16391,13 +16382,13 @@
         <v>12047</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>2051</v>
+        <v>2048</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>2052</v>
+        <v>2049</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>2053</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -16405,13 +16396,13 @@
         <v>12048</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>2054</v>
+        <v>2051</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>2055</v>
+        <v>2052</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>2056</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -16419,13 +16410,13 @@
         <v>12049</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>2057</v>
+        <v>2054</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>2058</v>
+        <v>2055</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>2059</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -16433,13 +16424,13 @@
         <v>12050</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>2060</v>
+        <v>2057</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>2061</v>
+        <v>2058</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>2062</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -16447,13 +16438,13 @@
         <v>12051</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>2063</v>
+        <v>2060</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>2064</v>
+        <v>2061</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>2065</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -16461,13 +16452,13 @@
         <v>12052</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>2066</v>
+        <v>2063</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>2067</v>
+        <v>2064</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>2068</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="57" spans="1:1">
@@ -16487,7 +16478,7 @@
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -16561,10 +16552,10 @@
         <v>13001</v>
       </c>
       <c r="B5" t="s">
-        <v>2069</v>
+        <v>2066</v>
       </c>
       <c r="C5" t="s">
-        <v>2070</v>
+        <v>2067</v>
       </c>
       <c r="D5" t="str">
         <f>$C$1&amp;B5&amp;$D$1</f>
@@ -16577,10 +16568,10 @@
         <v>13002</v>
       </c>
       <c r="B6" t="s">
-        <v>2071</v>
+        <v>2068</v>
       </c>
       <c r="C6" t="s">
-        <v>2072</v>
+        <v>2069</v>
       </c>
       <c r="D6" t="str">
         <f>$C$1&amp;B6&amp;$D$1</f>
@@ -16593,10 +16584,10 @@
         <v>13003</v>
       </c>
       <c r="B7" t="s">
-        <v>2073</v>
+        <v>2070</v>
       </c>
       <c r="C7" t="s">
-        <v>2074</v>
+        <v>2071</v>
       </c>
       <c r="D7" t="str">
         <f>$C$1&amp;B7&amp;$D$1</f>
@@ -16609,10 +16600,10 @@
         <v>13004</v>
       </c>
       <c r="B8" t="s">
-        <v>2075</v>
+        <v>2072</v>
       </c>
       <c r="C8" t="s">
-        <v>2076</v>
+        <v>2073</v>
       </c>
       <c r="D8" t="str">
         <f>$C$1&amp;B8&amp;$D$1</f>
@@ -16626,10 +16617,10 @@
         <v>13005</v>
       </c>
       <c r="B9" t="s">
-        <v>2077</v>
+        <v>2074</v>
       </c>
       <c r="C9" t="s">
-        <v>2078</v>
+        <v>2075</v>
       </c>
       <c r="D9" t="str">
         <f>$C$1&amp;B9&amp;$D$1</f>
@@ -16643,10 +16634,10 @@
         <v>13006</v>
       </c>
       <c r="B10" t="s">
-        <v>2079</v>
+        <v>2076</v>
       </c>
       <c r="C10" t="s">
-        <v>2080</v>
+        <v>2077</v>
       </c>
       <c r="D10" t="str">
         <f>$C$1&amp;B10&amp;$D$1</f>
@@ -16659,10 +16650,10 @@
         <v>13007</v>
       </c>
       <c r="B11" t="s">
-        <v>2081</v>
+        <v>2078</v>
       </c>
       <c r="C11" t="s">
-        <v>2082</v>
+        <v>2079</v>
       </c>
       <c r="D11" t="str">
         <f>$C$1&amp;B11&amp;$D$1</f>
@@ -16675,10 +16666,10 @@
         <v>13008</v>
       </c>
       <c r="B12" t="s">
-        <v>2083</v>
+        <v>2080</v>
       </c>
       <c r="C12" t="s">
-        <v>2084</v>
+        <v>2081</v>
       </c>
       <c r="D12" t="str">
         <f>$C$1&amp;B12&amp;$D$1</f>
@@ -16691,10 +16682,10 @@
         <v>13009</v>
       </c>
       <c r="B13" t="s">
-        <v>2085</v>
+        <v>2082</v>
       </c>
       <c r="C13" t="s">
-        <v>2086</v>
+        <v>2083</v>
       </c>
       <c r="D13" t="str">
         <f>$C$1&amp;B13&amp;$D$1</f>
@@ -16707,10 +16698,10 @@
         <v>13010</v>
       </c>
       <c r="B14" t="s">
-        <v>2087</v>
+        <v>2084</v>
       </c>
       <c r="C14" t="s">
-        <v>2088</v>
+        <v>2085</v>
       </c>
       <c r="D14" t="str">
         <f>$C$1&amp;B14&amp;$D$1</f>
@@ -16723,10 +16714,10 @@
         <v>13011</v>
       </c>
       <c r="B15" t="s">
-        <v>2089</v>
+        <v>2086</v>
       </c>
       <c r="C15" t="s">
-        <v>2090</v>
+        <v>2087</v>
       </c>
       <c r="D15" t="str">
         <f>$C$1&amp;B15&amp;$D$1</f>
@@ -16739,10 +16730,10 @@
         <v>13012</v>
       </c>
       <c r="B16" t="s">
-        <v>2091</v>
+        <v>2088</v>
       </c>
       <c r="C16" t="s">
-        <v>2092</v>
+        <v>2089</v>
       </c>
       <c r="D16" t="str">
         <f>$C$1&amp;B16&amp;$D$1</f>
@@ -16755,10 +16746,10 @@
         <v>13013</v>
       </c>
       <c r="B17" t="s">
-        <v>2093</v>
+        <v>2090</v>
       </c>
       <c r="C17" t="s">
-        <v>2094</v>
+        <v>2091</v>
       </c>
       <c r="D17" t="str">
         <f>$C$1&amp;B17&amp;$D$1</f>
@@ -16771,10 +16762,10 @@
         <v>13014</v>
       </c>
       <c r="B18" t="s">
-        <v>2095</v>
+        <v>2092</v>
       </c>
       <c r="C18" t="s">
-        <v>2096</v>
+        <v>2093</v>
       </c>
       <c r="D18" t="str">
         <f>$C$1&amp;B18&amp;$D$1</f>
@@ -16788,10 +16779,10 @@
         <v>13015</v>
       </c>
       <c r="B19" t="s">
-        <v>2097</v>
+        <v>2094</v>
       </c>
       <c r="C19" t="s">
-        <v>2098</v>
+        <v>2095</v>
       </c>
       <c r="D19" t="str">
         <f>$C$1&amp;B19&amp;$D$1</f>
@@ -16805,10 +16796,10 @@
         <v>13016</v>
       </c>
       <c r="B20" t="s">
-        <v>2099</v>
+        <v>2096</v>
       </c>
       <c r="C20" t="s">
-        <v>2100</v>
+        <v>2097</v>
       </c>
       <c r="D20" t="str">
         <f>$C$1&amp;B20&amp;$D$1</f>
@@ -16822,10 +16813,10 @@
         <v>13017</v>
       </c>
       <c r="B21" t="s">
-        <v>2101</v>
+        <v>2098</v>
       </c>
       <c r="C21" t="s">
-        <v>2102</v>
+        <v>2099</v>
       </c>
       <c r="D21" t="str">
         <f>$C$1&amp;B21&amp;$D$1</f>
@@ -16839,10 +16830,10 @@
         <v>13018</v>
       </c>
       <c r="B22" t="s">
-        <v>2103</v>
+        <v>2100</v>
       </c>
       <c r="C22" t="s">
-        <v>2104</v>
+        <v>2101</v>
       </c>
       <c r="D22" t="str">
         <f>$C$1&amp;B22&amp;$D$1</f>
@@ -16856,10 +16847,10 @@
         <v>13019</v>
       </c>
       <c r="B23" t="s">
-        <v>2105</v>
+        <v>2102</v>
       </c>
       <c r="C23" t="s">
-        <v>2106</v>
+        <v>2103</v>
       </c>
       <c r="D23" t="str">
         <f>$C$1&amp;B23&amp;$D$1</f>
@@ -16873,10 +16864,10 @@
         <v>13020</v>
       </c>
       <c r="B24" t="s">
-        <v>2107</v>
+        <v>2104</v>
       </c>
       <c r="C24" t="s">
-        <v>2108</v>
+        <v>2105</v>
       </c>
       <c r="D24" t="str">
         <f>$C$1&amp;B24&amp;$D$1</f>
@@ -16890,10 +16881,10 @@
         <v>13021</v>
       </c>
       <c r="B25" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
       <c r="C25" t="s">
-        <v>2110</v>
+        <v>2107</v>
       </c>
       <c r="D25" t="str">
         <f>$C$1&amp;B25&amp;$D$1</f>
@@ -16907,10 +16898,10 @@
         <v>13022</v>
       </c>
       <c r="B26" t="s">
-        <v>2111</v>
+        <v>2108</v>
       </c>
       <c r="C26" t="s">
-        <v>2112</v>
+        <v>2109</v>
       </c>
       <c r="D26" t="str">
         <f>$C$1&amp;B26&amp;$D$1</f>
@@ -16931,10 +16922,10 @@
         <v>13024</v>
       </c>
       <c r="B28" t="s">
-        <v>2113</v>
+        <v>2110</v>
       </c>
       <c r="C28" t="s">
-        <v>2114</v>
+        <v>2111</v>
       </c>
       <c r="D28" t="str">
         <f>$C$1&amp;B28&amp;$D$1</f>
@@ -16947,10 +16938,10 @@
         <v>13025</v>
       </c>
       <c r="B29" t="s">
-        <v>2115</v>
+        <v>2112</v>
       </c>
       <c r="C29" t="s">
-        <v>2116</v>
+        <v>2113</v>
       </c>
       <c r="D29" t="str">
         <f>$C$1&amp;B29&amp;$D$1</f>
@@ -16963,10 +16954,10 @@
         <v>13026</v>
       </c>
       <c r="B30" t="s">
-        <v>2117</v>
+        <v>2114</v>
       </c>
       <c r="C30" t="s">
-        <v>2118</v>
+        <v>2115</v>
       </c>
       <c r="D30" t="str">
         <f>$C$1&amp;B30&amp;$D$1</f>
@@ -16979,10 +16970,10 @@
         <v>13027</v>
       </c>
       <c r="B31" t="s">
-        <v>2119</v>
+        <v>2116</v>
       </c>
       <c r="C31" t="s">
-        <v>2120</v>
+        <v>2117</v>
       </c>
       <c r="D31" t="str">
         <f>$C$1&amp;B31&amp;$D$1</f>
@@ -16995,10 +16986,10 @@
         <v>13028</v>
       </c>
       <c r="B32" t="s">
-        <v>2121</v>
+        <v>2118</v>
       </c>
       <c r="C32" t="s">
-        <v>2118</v>
+        <v>2115</v>
       </c>
       <c r="D32" t="str">
         <f>$C$1&amp;B32&amp;$D$1</f>
@@ -17011,10 +17002,10 @@
         <v>13029</v>
       </c>
       <c r="B33" t="s">
-        <v>2122</v>
+        <v>2119</v>
       </c>
       <c r="C33" t="s">
-        <v>2123</v>
+        <v>2120</v>
       </c>
       <c r="D33" t="str">
         <f>$C$1&amp;B33&amp;$D$1</f>
@@ -17027,10 +17018,10 @@
         <v>13030</v>
       </c>
       <c r="B34" t="s">
-        <v>2124</v>
+        <v>2121</v>
       </c>
       <c r="C34" t="s">
-        <v>2118</v>
+        <v>2115</v>
       </c>
       <c r="D34" t="str">
         <f>$C$1&amp;B34&amp;$D$1</f>
@@ -17043,10 +17034,10 @@
         <v>13031</v>
       </c>
       <c r="B35" t="s">
-        <v>2125</v>
+        <v>2122</v>
       </c>
       <c r="C35" t="s">
-        <v>2126</v>
+        <v>2123</v>
       </c>
       <c r="D35" t="str">
         <f>$C$1&amp;B35&amp;$D$1</f>
@@ -17059,10 +17050,10 @@
         <v>13032</v>
       </c>
       <c r="B36" t="s">
-        <v>2127</v>
+        <v>2124</v>
       </c>
       <c r="C36" t="s">
-        <v>2118</v>
+        <v>2115</v>
       </c>
       <c r="D36" t="str">
         <f>$C$1&amp;B36&amp;$D$1</f>
@@ -17075,10 +17066,10 @@
         <v>13033</v>
       </c>
       <c r="B37" t="s">
-        <v>2128</v>
+        <v>2125</v>
       </c>
       <c r="C37" t="s">
-        <v>2129</v>
+        <v>2126</v>
       </c>
       <c r="D37" t="str">
         <f>$C$1&amp;B37&amp;$D$1</f>
@@ -17091,10 +17082,10 @@
         <v>13034</v>
       </c>
       <c r="B38" t="s">
-        <v>2130</v>
+        <v>2127</v>
       </c>
       <c r="C38" t="s">
-        <v>2118</v>
+        <v>2115</v>
       </c>
       <c r="D38" t="str">
         <f>$C$1&amp;B38&amp;$D$1</f>
@@ -17107,10 +17098,10 @@
         <v>13035</v>
       </c>
       <c r="B39" t="s">
-        <v>2131</v>
+        <v>2128</v>
       </c>
       <c r="C39" t="s">
-        <v>2132</v>
+        <v>2129</v>
       </c>
       <c r="D39" t="str">
         <f>$C$1&amp;B39&amp;$D$1</f>
@@ -17123,10 +17114,10 @@
         <v>13036</v>
       </c>
       <c r="B40" t="s">
-        <v>2133</v>
+        <v>2130</v>
       </c>
       <c r="C40" t="s">
-        <v>2118</v>
+        <v>2115</v>
       </c>
       <c r="D40" t="str">
         <f>$C$1&amp;B40&amp;$D$1</f>
@@ -17139,10 +17130,10 @@
         <v>13037</v>
       </c>
       <c r="B41" t="s">
-        <v>2134</v>
+        <v>2131</v>
       </c>
       <c r="C41" t="s">
-        <v>2135</v>
+        <v>2132</v>
       </c>
       <c r="D41" t="str">
         <f>$C$1&amp;B41&amp;$D$1</f>
@@ -17155,10 +17146,10 @@
         <v>13038</v>
       </c>
       <c r="B42" t="s">
-        <v>2136</v>
+        <v>2133</v>
       </c>
       <c r="C42" t="s">
-        <v>2118</v>
+        <v>2115</v>
       </c>
       <c r="D42" t="str">
         <f>$C$1&amp;B42&amp;$D$1</f>
@@ -17171,10 +17162,10 @@
         <v>13039</v>
       </c>
       <c r="B43" t="s">
-        <v>2137</v>
+        <v>2134</v>
       </c>
       <c r="C43" t="s">
-        <v>2138</v>
+        <v>2135</v>
       </c>
       <c r="D43" t="str">
         <f>$C$1&amp;B43&amp;$D$1</f>
@@ -17187,10 +17178,10 @@
         <v>13040</v>
       </c>
       <c r="B44" t="s">
-        <v>2139</v>
+        <v>2136</v>
       </c>
       <c r="C44" t="s">
-        <v>2118</v>
+        <v>2115</v>
       </c>
       <c r="D44" t="str">
         <f>$C$1&amp;B44&amp;$D$1</f>
@@ -17209,10 +17200,10 @@
         <v>13042</v>
       </c>
       <c r="B46" t="s">
-        <v>2140</v>
+        <v>2137</v>
       </c>
       <c r="C46" t="s">
-        <v>2141</v>
+        <v>2138</v>
       </c>
       <c r="D46" t="str">
         <f>$C$1&amp;B46&amp;$D$1</f>
@@ -17225,10 +17216,10 @@
         <v>13043</v>
       </c>
       <c r="B47" t="s">
-        <v>2142</v>
+        <v>2139</v>
       </c>
       <c r="C47" t="s">
-        <v>2143</v>
+        <v>2140</v>
       </c>
       <c r="D47" t="str">
         <f>$C$1&amp;B47&amp;$D$1</f>
@@ -17247,13 +17238,13 @@
         <v>13045</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>2144</v>
+        <v>2141</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>2046</v>
+        <v>2043</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>2145</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -17262,13 +17253,13 @@
         <v>13046</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>2146</v>
+        <v>2143</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>2049</v>
+        <v>2046</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>2147</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -17277,13 +17268,13 @@
         <v>13047</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>2148</v>
+        <v>2145</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>2052</v>
+        <v>2049</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>2149</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -17292,13 +17283,13 @@
         <v>13048</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>2150</v>
+        <v>2147</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>2055</v>
+        <v>2052</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>2151</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -17307,13 +17298,13 @@
         <v>13049</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>2152</v>
+        <v>2149</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>2058</v>
+        <v>2055</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>2153</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -17322,13 +17313,13 @@
         <v>13050</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>2154</v>
+        <v>2151</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>2061</v>
+        <v>2058</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>2155</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -17337,13 +17328,13 @@
         <v>13051</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>2156</v>
+        <v>2153</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>2064</v>
+        <v>2061</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>2157</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -17352,13 +17343,13 @@
         <v>13052</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>2158</v>
+        <v>2155</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>2067</v>
+        <v>2064</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>2159</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="57" spans="1:1">
@@ -17453,10 +17444,10 @@
         <v>99001</v>
       </c>
       <c r="B5" t="s">
-        <v>2160</v>
+        <v>2157</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>2161</v>
+        <v>2158</v>
       </c>
       <c r="D5" t="str">
         <f>$C$1&amp;B5&amp;$D$1</f>
@@ -23684,8 +23675,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:F93"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B43" sqref="$A43:$XFD43"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -24400,7 +24391,7 @@
         <v>1373</v>
       </c>
       <c r="C45" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="D45" t="str">
         <f>$C$1&amp;B45&amp;$D$1</f>
@@ -24413,7 +24404,7 @@
         <v>5042</v>
       </c>
       <c r="B46" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="C46" t="s">
         <v>1356</v>
@@ -24429,10 +24420,10 @@
         <v>5043</v>
       </c>
       <c r="B47" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C47" t="s">
         <v>1376</v>
-      </c>
-      <c r="C47" t="s">
-        <v>1377</v>
       </c>
       <c r="D47" t="str">
         <f t="shared" ref="D47:D71" si="6">$C$1&amp;B47&amp;$D$1</f>
@@ -24445,10 +24436,10 @@
         <v>5044</v>
       </c>
       <c r="B48" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C48" t="s">
         <v>1378</v>
-      </c>
-      <c r="C48" t="s">
-        <v>1379</v>
       </c>
       <c r="D48" t="str">
         <f t="shared" si="6"/>
@@ -24461,7 +24452,7 @@
         <v>5045</v>
       </c>
       <c r="B49" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="C49" t="s">
         <v>1356</v>
@@ -24477,10 +24468,10 @@
         <v>5046</v>
       </c>
       <c r="B50" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C50" s="19" t="s">
         <v>1381</v>
-      </c>
-      <c r="C50" s="19" t="s">
-        <v>1382</v>
       </c>
       <c r="D50" t="str">
         <f t="shared" si="6"/>
@@ -24493,7 +24484,7 @@
         <v>5047</v>
       </c>
       <c r="B51" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="C51" t="s">
         <v>1356</v>
@@ -24509,10 +24500,10 @@
         <v>5048</v>
       </c>
       <c r="B52" t="s">
+        <v>1383</v>
+      </c>
+      <c r="C52" s="19" t="s">
         <v>1384</v>
-      </c>
-      <c r="C52" s="19" t="s">
-        <v>1385</v>
       </c>
       <c r="D52" t="str">
         <f t="shared" si="6"/>
@@ -24525,7 +24516,7 @@
         <v>5049</v>
       </c>
       <c r="B53" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="C53" t="s">
         <v>1356</v>
@@ -24541,10 +24532,10 @@
         <v>5050</v>
       </c>
       <c r="B54" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C54" t="s">
         <v>1387</v>
-      </c>
-      <c r="C54" t="s">
-        <v>1388</v>
       </c>
       <c r="D54" t="str">
         <f t="shared" si="6"/>
@@ -24557,7 +24548,7 @@
         <v>5051</v>
       </c>
       <c r="B55" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="C55" t="s">
         <v>1356</v>
@@ -24573,10 +24564,10 @@
         <v>5052</v>
       </c>
       <c r="B56" t="s">
+        <v>1389</v>
+      </c>
+      <c r="C56" s="19" t="s">
         <v>1390</v>
-      </c>
-      <c r="C56" s="19" t="s">
-        <v>1391</v>
       </c>
       <c r="D56" t="str">
         <f t="shared" si="6"/>
@@ -24589,7 +24580,7 @@
         <v>5053</v>
       </c>
       <c r="B57" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="C57" t="s">
         <v>1356</v>
@@ -24605,10 +24596,10 @@
         <v>5054</v>
       </c>
       <c r="B58" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C58" t="s">
         <v>1393</v>
-      </c>
-      <c r="C58" t="s">
-        <v>1394</v>
       </c>
       <c r="D58" t="str">
         <f t="shared" si="6"/>
@@ -24621,7 +24612,7 @@
         <v>5055</v>
       </c>
       <c r="B59" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="C59" t="s">
         <v>1356</v>
@@ -24637,10 +24628,10 @@
         <v>5056</v>
       </c>
       <c r="B60" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C60" t="s">
         <v>1396</v>
-      </c>
-      <c r="C60" t="s">
-        <v>1397</v>
       </c>
       <c r="D60" t="str">
         <f t="shared" si="6"/>
@@ -24653,7 +24644,7 @@
         <v>5057</v>
       </c>
       <c r="B61" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="C61" t="s">
         <v>1356</v>
@@ -24669,10 +24660,10 @@
         <v>5058</v>
       </c>
       <c r="B62" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C62" t="s">
         <v>1399</v>
-      </c>
-      <c r="C62" t="s">
-        <v>1400</v>
       </c>
       <c r="D62" t="str">
         <f t="shared" si="6"/>
@@ -24685,7 +24676,7 @@
         <v>5059</v>
       </c>
       <c r="B63" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="C63" t="s">
         <v>1356</v>
@@ -24701,10 +24692,10 @@
         <v>5060</v>
       </c>
       <c r="B64" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C64" t="s">
         <v>1402</v>
-      </c>
-      <c r="C64" t="s">
-        <v>1403</v>
       </c>
       <c r="D64" t="str">
         <f t="shared" si="6"/>
@@ -24717,7 +24708,7 @@
         <v>5061</v>
       </c>
       <c r="B65" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="C65" t="s">
         <v>1356</v>
@@ -24733,10 +24724,10 @@
         <v>5062</v>
       </c>
       <c r="B66" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C66" t="s">
         <v>1405</v>
-      </c>
-      <c r="C66" t="s">
-        <v>1406</v>
       </c>
       <c r="D66" t="str">
         <f t="shared" si="6"/>
@@ -24749,7 +24740,7 @@
         <v>5063</v>
       </c>
       <c r="B67" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="C67" t="s">
         <v>1356</v>
@@ -24765,10 +24756,10 @@
         <v>5064</v>
       </c>
       <c r="B68" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C68" t="s">
         <v>1408</v>
-      </c>
-      <c r="C68" t="s">
-        <v>1409</v>
       </c>
       <c r="D68" t="str">
         <f t="shared" si="6"/>
@@ -24781,10 +24772,10 @@
         <v>5065</v>
       </c>
       <c r="B69" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C69" t="s">
         <v>1410</v>
-      </c>
-      <c r="C69" t="s">
-        <v>1411</v>
       </c>
       <c r="D69" t="str">
         <f t="shared" si="6"/>
@@ -24797,10 +24788,10 @@
         <v>5066</v>
       </c>
       <c r="B70" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C70" t="s">
         <v>1412</v>
-      </c>
-      <c r="C70" t="s">
-        <v>1413</v>
       </c>
       <c r="D70" t="str">
         <f t="shared" si="6"/>
@@ -24813,10 +24804,10 @@
         <v>5067</v>
       </c>
       <c r="B71" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="C71" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="D71" t="str">
         <f t="shared" si="6"/>
@@ -24829,10 +24820,10 @@
         <v>5068</v>
       </c>
       <c r="B72" t="s">
+        <v>1414</v>
+      </c>
+      <c r="C72" t="s">
         <v>1415</v>
-      </c>
-      <c r="C72" t="s">
-        <v>1416</v>
       </c>
       <c r="D72" t="str">
         <f t="shared" ref="D72:D79" si="10">$C$1&amp;B72&amp;$D$1</f>
@@ -24845,7 +24836,7 @@
         <v>5069</v>
       </c>
       <c r="B73" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="C73" t="s">
         <v>1356</v>
@@ -24861,10 +24852,10 @@
         <v>5070</v>
       </c>
       <c r="B74" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C74" t="s">
         <v>1418</v>
-      </c>
-      <c r="C74" t="s">
-        <v>1419</v>
       </c>
       <c r="D74" t="str">
         <f t="shared" si="10"/>
@@ -24877,7 +24868,7 @@
         <v>5071</v>
       </c>
       <c r="B75" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="C75" t="s">
         <v>1356</v>
@@ -24893,10 +24884,10 @@
         <v>5072</v>
       </c>
       <c r="B76" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C76" t="s">
         <v>1421</v>
-      </c>
-      <c r="C76" t="s">
-        <v>1422</v>
       </c>
       <c r="D76" t="str">
         <f t="shared" si="10"/>
@@ -24909,10 +24900,10 @@
         <v>5073</v>
       </c>
       <c r="B77" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C77" t="s">
         <v>1423</v>
-      </c>
-      <c r="C77" t="s">
-        <v>1424</v>
       </c>
       <c r="D77" t="str">
         <f t="shared" si="10"/>
@@ -24925,7 +24916,7 @@
         <v>5074</v>
       </c>
       <c r="B78" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="C78" t="s">
         <v>1356</v>
@@ -24941,7 +24932,7 @@
         <v>5075</v>
       </c>
       <c r="B79" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="C79" t="s">
         <v>1356</v>
@@ -24957,10 +24948,10 @@
         <v>5076</v>
       </c>
       <c r="B80" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C80" t="s">
         <v>1427</v>
-      </c>
-      <c r="C80" t="s">
-        <v>1428</v>
       </c>
       <c r="D80" t="str">
         <f>$C$1&amp;B80&amp;$D$1</f>
@@ -24973,10 +24964,10 @@
         <v>5077</v>
       </c>
       <c r="B81" t="s">
+        <v>1428</v>
+      </c>
+      <c r="C81" t="s">
         <v>1429</v>
-      </c>
-      <c r="C81" t="s">
-        <v>1430</v>
       </c>
       <c r="D81" t="str">
         <f>$C$1&amp;B81&amp;$D$1</f>
@@ -24989,13 +24980,13 @@
         <v>5078</v>
       </c>
       <c r="B82" s="20" t="s">
+        <v>1430</v>
+      </c>
+      <c r="C82" s="21" t="s">
         <v>1431</v>
       </c>
-      <c r="C82" s="21" t="s">
+      <c r="D82" s="20" t="s">
         <v>1432</v>
-      </c>
-      <c r="D82" s="20" t="s">
-        <v>1433</v>
       </c>
       <c r="E82" s="14"/>
       <c r="F82" s="14"/>
@@ -25006,13 +24997,13 @@
         <v>5079</v>
       </c>
       <c r="B83" s="20" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C83" s="21" t="s">
         <v>1434</v>
       </c>
-      <c r="C83" s="21" t="s">
+      <c r="D83" s="20" t="s">
         <v>1435</v>
-      </c>
-      <c r="D83" s="20" t="s">
-        <v>1436</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -25021,13 +25012,13 @@
         <v>5080</v>
       </c>
       <c r="B84" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C84" t="s">
         <v>1437</v>
       </c>
-      <c r="C84" t="s">
+      <c r="D84" s="20" t="s">
         <v>1438</v>
-      </c>
-      <c r="D84" s="20" t="s">
-        <v>1439</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -25036,13 +25027,13 @@
         <v>5081</v>
       </c>
       <c r="B85" s="11" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C85" s="11" t="s">
         <v>1440</v>
       </c>
-      <c r="C85" s="11" t="s">
+      <c r="D85" s="11" t="s">
         <v>1441</v>
-      </c>
-      <c r="D85" s="11" t="s">
-        <v>1442</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -25051,13 +25042,13 @@
         <v>5082</v>
       </c>
       <c r="B86" s="11" t="s">
+        <v>1442</v>
+      </c>
+      <c r="C86" s="11" t="s">
         <v>1443</v>
       </c>
-      <c r="C86" s="11" t="s">
+      <c r="D86" s="11" t="s">
         <v>1444</v>
-      </c>
-      <c r="D86" s="11" t="s">
-        <v>1445</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -25066,13 +25057,13 @@
         <v>5083</v>
       </c>
       <c r="B87" s="11" t="s">
+        <v>1445</v>
+      </c>
+      <c r="C87" s="11" t="s">
         <v>1446</v>
       </c>
-      <c r="C87" s="11" t="s">
+      <c r="D87" s="11" t="s">
         <v>1447</v>
-      </c>
-      <c r="D87" s="11" t="s">
-        <v>1448</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -25081,13 +25072,13 @@
         <v>5084</v>
       </c>
       <c r="B88" s="11" t="s">
+        <v>1448</v>
+      </c>
+      <c r="C88" s="11" t="s">
         <v>1449</v>
       </c>
-      <c r="C88" s="11" t="s">
+      <c r="D88" s="11" t="s">
         <v>1450</v>
-      </c>
-      <c r="D88" s="11" t="s">
-        <v>1451</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -25096,13 +25087,13 @@
         <v>5085</v>
       </c>
       <c r="B89" s="11" t="s">
+        <v>1451</v>
+      </c>
+      <c r="C89" s="11" t="s">
         <v>1452</v>
       </c>
-      <c r="C89" s="11" t="s">
+      <c r="D89" s="11" t="s">
         <v>1453</v>
-      </c>
-      <c r="D89" s="11" t="s">
-        <v>1454</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -25111,13 +25102,13 @@
         <v>5086</v>
       </c>
       <c r="B90" s="11" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C90" s="11" t="s">
         <v>1455</v>
       </c>
-      <c r="C90" s="11" t="s">
+      <c r="D90" s="11" t="s">
         <v>1456</v>
-      </c>
-      <c r="D90" s="11" t="s">
-        <v>1457</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -25126,13 +25117,13 @@
         <v>5087</v>
       </c>
       <c r="B91" s="11" t="s">
+        <v>1457</v>
+      </c>
+      <c r="C91" s="11" t="s">
         <v>1458</v>
       </c>
-      <c r="C91" s="11" t="s">
+      <c r="D91" s="11" t="s">
         <v>1459</v>
-      </c>
-      <c r="D91" s="11" t="s">
-        <v>1460</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -25141,13 +25132,13 @@
         <v>5088</v>
       </c>
       <c r="B92" s="11" t="s">
+        <v>1460</v>
+      </c>
+      <c r="C92" s="11" t="s">
         <v>1461</v>
       </c>
-      <c r="C92" s="11" t="s">
+      <c r="D92" s="11" t="s">
         <v>1462</v>
-      </c>
-      <c r="D92" s="11" t="s">
-        <v>1463</v>
       </c>
     </row>
     <row r="93" spans="1:1">
@@ -25242,10 +25233,10 @@
         <v>6001</v>
       </c>
       <c r="B5" t="s">
+        <v>1463</v>
+      </c>
+      <c r="C5" t="s">
         <v>1464</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1465</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" ref="D5:D27" si="0">$C$1&amp;B5&amp;$D$1</f>
@@ -25258,10 +25249,10 @@
         <v>6002</v>
       </c>
       <c r="B6" t="s">
+        <v>1465</v>
+      </c>
+      <c r="C6" t="s">
         <v>1466</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1467</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
@@ -25274,10 +25265,10 @@
         <v>6003</v>
       </c>
       <c r="B7" t="s">
+        <v>1467</v>
+      </c>
+      <c r="C7" t="s">
         <v>1468</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1469</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
@@ -25290,10 +25281,10 @@
         <v>6004</v>
       </c>
       <c r="B8" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C8" t="s">
         <v>1470</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1471</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
@@ -25306,10 +25297,10 @@
         <v>6005</v>
       </c>
       <c r="B9" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C9" t="s">
         <v>1472</v>
-      </c>
-      <c r="C9" t="s">
-        <v>1473</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="0"/>
@@ -25322,10 +25313,10 @@
         <v>6006</v>
       </c>
       <c r="B10" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C10" t="s">
         <v>1474</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1475</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
@@ -25338,10 +25329,10 @@
         <v>6007</v>
       </c>
       <c r="B11" t="s">
+        <v>1475</v>
+      </c>
+      <c r="C11" t="s">
         <v>1476</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1477</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="0"/>
@@ -25354,10 +25345,10 @@
         <v>6008</v>
       </c>
       <c r="B12" t="s">
+        <v>1477</v>
+      </c>
+      <c r="C12" t="s">
         <v>1478</v>
-      </c>
-      <c r="C12" t="s">
-        <v>1479</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
@@ -25370,10 +25361,10 @@
         <v>6009</v>
       </c>
       <c r="B13" t="s">
+        <v>1479</v>
+      </c>
+      <c r="C13" t="s">
         <v>1480</v>
-      </c>
-      <c r="C13" t="s">
-        <v>1481</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="0"/>
@@ -25386,10 +25377,10 @@
         <v>6010</v>
       </c>
       <c r="B14" t="s">
+        <v>1481</v>
+      </c>
+      <c r="C14" t="s">
         <v>1482</v>
-      </c>
-      <c r="C14" t="s">
-        <v>1483</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
@@ -25402,10 +25393,10 @@
         <v>6011</v>
       </c>
       <c r="B15" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C15" t="s">
         <v>1484</v>
-      </c>
-      <c r="C15" t="s">
-        <v>1485</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="0"/>
@@ -25418,10 +25409,10 @@
         <v>6012</v>
       </c>
       <c r="B16" t="s">
+        <v>1485</v>
+      </c>
+      <c r="C16" t="s">
         <v>1486</v>
-      </c>
-      <c r="C16" t="s">
-        <v>1487</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="0"/>
@@ -25434,10 +25425,10 @@
         <v>6013</v>
       </c>
       <c r="B17" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C17" t="s">
         <v>1488</v>
-      </c>
-      <c r="C17" t="s">
-        <v>1489</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="0"/>
@@ -25450,10 +25441,10 @@
         <v>6014</v>
       </c>
       <c r="B18" t="s">
+        <v>1489</v>
+      </c>
+      <c r="C18" t="s">
         <v>1490</v>
-      </c>
-      <c r="C18" t="s">
-        <v>1491</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="0"/>
@@ -25466,10 +25457,10 @@
         <v>6015</v>
       </c>
       <c r="B19" t="s">
+        <v>1491</v>
+      </c>
+      <c r="C19" t="s">
         <v>1492</v>
-      </c>
-      <c r="C19" t="s">
-        <v>1493</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="0"/>
@@ -25482,10 +25473,10 @@
         <v>6016</v>
       </c>
       <c r="B20" t="s">
+        <v>1493</v>
+      </c>
+      <c r="C20" t="s">
         <v>1494</v>
-      </c>
-      <c r="C20" t="s">
-        <v>1495</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" si="0"/>
@@ -25498,10 +25489,10 @@
         <v>6017</v>
       </c>
       <c r="B21" t="s">
+        <v>1495</v>
+      </c>
+      <c r="C21" t="s">
         <v>1496</v>
-      </c>
-      <c r="C21" t="s">
-        <v>1497</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" si="0"/>
@@ -25514,10 +25505,10 @@
         <v>6018</v>
       </c>
       <c r="B22" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C22" t="s">
         <v>1498</v>
-      </c>
-      <c r="C22" t="s">
-        <v>1499</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" si="0"/>
@@ -25530,10 +25521,10 @@
         <v>6019</v>
       </c>
       <c r="B23" t="s">
+        <v>1499</v>
+      </c>
+      <c r="C23" t="s">
         <v>1500</v>
-      </c>
-      <c r="C23" t="s">
-        <v>1501</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" si="0"/>
@@ -25546,10 +25537,10 @@
         <v>6020</v>
       </c>
       <c r="B24" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C24" t="s">
         <v>1502</v>
-      </c>
-      <c r="C24" t="s">
-        <v>1503</v>
       </c>
       <c r="D24" t="str">
         <f t="shared" si="0"/>
@@ -25562,10 +25553,10 @@
         <v>6021</v>
       </c>
       <c r="B25" t="s">
+        <v>1503</v>
+      </c>
+      <c r="C25" t="s">
         <v>1504</v>
-      </c>
-      <c r="C25" t="s">
-        <v>1505</v>
       </c>
       <c r="D25" t="str">
         <f t="shared" si="0"/>
@@ -25578,10 +25569,10 @@
         <v>6022</v>
       </c>
       <c r="B26" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="C26" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="D26" t="str">
         <f t="shared" si="0"/>
@@ -25594,10 +25585,10 @@
         <v>6023</v>
       </c>
       <c r="B27" t="s">
+        <v>1506</v>
+      </c>
+      <c r="C27" t="s">
         <v>1507</v>
-      </c>
-      <c r="C27" t="s">
-        <v>1508</v>
       </c>
       <c r="D27" t="str">
         <f t="shared" si="0"/>
@@ -25610,10 +25601,10 @@
         <v>6024</v>
       </c>
       <c r="B28" t="s">
+        <v>1508</v>
+      </c>
+      <c r="C28" t="s">
         <v>1509</v>
-      </c>
-      <c r="C28" t="s">
-        <v>1510</v>
       </c>
       <c r="D28" t="str">
         <f t="shared" ref="D28:D33" si="3">$C$1&amp;B28&amp;$D$1</f>
@@ -25626,10 +25617,10 @@
         <v>6025</v>
       </c>
       <c r="B29" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C29" t="s">
         <v>1511</v>
-      </c>
-      <c r="C29" t="s">
-        <v>1512</v>
       </c>
       <c r="D29" t="str">
         <f t="shared" si="3"/>
@@ -25642,10 +25633,10 @@
         <v>6026</v>
       </c>
       <c r="B30" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="C30" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="D30" t="str">
         <f t="shared" si="3"/>
@@ -25658,10 +25649,10 @@
         <v>6027</v>
       </c>
       <c r="B31" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C31" t="s">
         <v>1514</v>
-      </c>
-      <c r="C31" t="s">
-        <v>1515</v>
       </c>
       <c r="D31" t="str">
         <f t="shared" si="3"/>
@@ -25674,10 +25665,10 @@
         <v>6028</v>
       </c>
       <c r="B32" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="C32" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="D32" t="str">
         <f t="shared" si="3"/>
@@ -25690,10 +25681,10 @@
         <v>6029</v>
       </c>
       <c r="B33" t="s">
+        <v>1516</v>
+      </c>
+      <c r="C33" t="s">
         <v>1517</v>
-      </c>
-      <c r="C33" t="s">
-        <v>1518</v>
       </c>
       <c r="D33" t="str">
         <f t="shared" si="3"/>
@@ -25706,10 +25697,10 @@
         <v>6030</v>
       </c>
       <c r="B34" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="C34" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="D34" t="str">
         <f>$C$1&amp;B34&amp;$D$1</f>
@@ -25722,10 +25713,10 @@
         <v>6031</v>
       </c>
       <c r="B35" t="s">
+        <v>1519</v>
+      </c>
+      <c r="C35" t="s">
         <v>1520</v>
-      </c>
-      <c r="C35" t="s">
-        <v>1521</v>
       </c>
       <c r="D35" t="str">
         <f t="shared" ref="D35:D48" si="4">$C$1&amp;B35&amp;$D$1</f>
@@ -25738,10 +25729,10 @@
         <v>6032</v>
       </c>
       <c r="B36" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="C36" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="D36" t="str">
         <f t="shared" si="4"/>
@@ -25754,10 +25745,10 @@
         <v>6033</v>
       </c>
       <c r="B37" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C37" t="s">
         <v>1523</v>
-      </c>
-      <c r="C37" t="s">
-        <v>1524</v>
       </c>
       <c r="D37" t="str">
         <f t="shared" si="4"/>
@@ -25770,10 +25761,10 @@
         <v>6034</v>
       </c>
       <c r="B38" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="C38" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="D38" t="str">
         <f t="shared" si="4"/>
@@ -25786,10 +25777,10 @@
         <v>6035</v>
       </c>
       <c r="B39" t="s">
+        <v>1525</v>
+      </c>
+      <c r="C39" t="s">
         <v>1526</v>
-      </c>
-      <c r="C39" t="s">
-        <v>1527</v>
       </c>
       <c r="D39" t="str">
         <f t="shared" si="4"/>
@@ -25802,10 +25793,10 @@
         <v>6036</v>
       </c>
       <c r="B40" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="C40" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="D40" t="str">
         <f t="shared" si="4"/>
@@ -25818,10 +25809,10 @@
         <v>6037</v>
       </c>
       <c r="B41" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C41" t="s">
         <v>1529</v>
-      </c>
-      <c r="C41" t="s">
-        <v>1530</v>
       </c>
       <c r="D41" t="str">
         <f t="shared" si="4"/>
@@ -25834,10 +25825,10 @@
         <v>6038</v>
       </c>
       <c r="B42" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="C42" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="D42" t="str">
         <f t="shared" si="4"/>
@@ -25850,10 +25841,10 @@
         <v>6039</v>
       </c>
       <c r="B43" t="s">
+        <v>1531</v>
+      </c>
+      <c r="C43" t="s">
         <v>1532</v>
-      </c>
-      <c r="C43" t="s">
-        <v>1533</v>
       </c>
       <c r="D43" t="str">
         <f t="shared" si="4"/>
@@ -25866,10 +25857,10 @@
         <v>6040</v>
       </c>
       <c r="B44" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="C44" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="D44" t="str">
         <f t="shared" si="4"/>
@@ -25882,10 +25873,10 @@
         <v>6041</v>
       </c>
       <c r="B45" t="s">
+        <v>1534</v>
+      </c>
+      <c r="C45" t="s">
         <v>1535</v>
-      </c>
-      <c r="C45" t="s">
-        <v>1536</v>
       </c>
       <c r="D45" t="str">
         <f t="shared" si="4"/>
@@ -25898,10 +25889,10 @@
         <v>6042</v>
       </c>
       <c r="B46" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="C46" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="D46" t="str">
         <f t="shared" si="4"/>
@@ -25914,10 +25905,10 @@
         <v>6043</v>
       </c>
       <c r="B47" t="s">
+        <v>1537</v>
+      </c>
+      <c r="C47" t="s">
         <v>1538</v>
-      </c>
-      <c r="C47" t="s">
-        <v>1539</v>
       </c>
       <c r="D47" t="str">
         <f t="shared" si="4"/>
@@ -25930,10 +25921,10 @@
         <v>6044</v>
       </c>
       <c r="B48" t="s">
+        <v>1539</v>
+      </c>
+      <c r="C48" t="s">
         <v>1540</v>
-      </c>
-      <c r="C48" t="s">
-        <v>1541</v>
       </c>
       <c r="D48" t="str">
         <f t="shared" si="4"/>
@@ -25946,13 +25937,13 @@
         <v>6045</v>
       </c>
       <c r="B49" s="11" t="s">
+        <v>1541</v>
+      </c>
+      <c r="C49" s="11" t="s">
         <v>1542</v>
       </c>
-      <c r="C49" s="11" t="s">
+      <c r="D49" s="11" t="s">
         <v>1543</v>
-      </c>
-      <c r="D49" s="11" t="s">
-        <v>1544</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -25961,13 +25952,13 @@
         <v>6046</v>
       </c>
       <c r="B50" s="11" t="s">
+        <v>1544</v>
+      </c>
+      <c r="C50" s="11" t="s">
         <v>1545</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="D50" s="11" t="s">
         <v>1546</v>
-      </c>
-      <c r="D50" s="11" t="s">
-        <v>1547</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -25976,13 +25967,13 @@
         <v>6047</v>
       </c>
       <c r="B51" s="11" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C51" s="11" t="s">
         <v>1548</v>
       </c>
-      <c r="C51" s="11" t="s">
+      <c r="D51" s="11" t="s">
         <v>1549</v>
-      </c>
-      <c r="D51" s="11" t="s">
-        <v>1550</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -25991,13 +25982,13 @@
         <v>6048</v>
       </c>
       <c r="B52" s="11" t="s">
+        <v>1550</v>
+      </c>
+      <c r="C52" s="11" t="s">
         <v>1551</v>
       </c>
-      <c r="C52" s="11" t="s">
+      <c r="D52" s="11" t="s">
         <v>1552</v>
-      </c>
-      <c r="D52" s="11" t="s">
-        <v>1553</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -26006,13 +25997,13 @@
         <v>6049</v>
       </c>
       <c r="B53" s="11" t="s">
+        <v>1553</v>
+      </c>
+      <c r="C53" s="11" t="s">
         <v>1554</v>
       </c>
-      <c r="C53" s="11" t="s">
+      <c r="D53" s="11" t="s">
         <v>1555</v>
-      </c>
-      <c r="D53" s="11" t="s">
-        <v>1556</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -26021,13 +26012,13 @@
         <v>6050</v>
       </c>
       <c r="B54" s="11" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C54" s="11" t="s">
         <v>1557</v>
       </c>
-      <c r="C54" s="11" t="s">
+      <c r="D54" s="11" t="s">
         <v>1558</v>
-      </c>
-      <c r="D54" s="11" t="s">
-        <v>1559</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -26036,13 +26027,13 @@
         <v>6051</v>
       </c>
       <c r="B55" s="11" t="s">
+        <v>1559</v>
+      </c>
+      <c r="C55" s="11" t="s">
         <v>1560</v>
       </c>
-      <c r="C55" s="11" t="s">
+      <c r="D55" s="11" t="s">
         <v>1561</v>
-      </c>
-      <c r="D55" s="11" t="s">
-        <v>1562</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -26051,13 +26042,13 @@
         <v>6052</v>
       </c>
       <c r="B56" s="11" t="s">
+        <v>1562</v>
+      </c>
+      <c r="C56" s="11" t="s">
         <v>1563</v>
       </c>
-      <c r="C56" s="11" t="s">
+      <c r="D56" s="11" t="s">
         <v>1564</v>
-      </c>
-      <c r="D56" s="11" t="s">
-        <v>1565</v>
       </c>
     </row>
   </sheetData>
@@ -26073,7 +26064,7 @@
   <dimension ref="A1:I83"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -26146,10 +26137,10 @@
         <v>8001</v>
       </c>
       <c r="B5" t="s">
+        <v>1565</v>
+      </c>
+      <c r="C5" t="s">
         <v>1566</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1567</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" ref="D5:D12" si="0">$C$1&amp;B5&amp;$D$1</f>
@@ -26162,10 +26153,10 @@
         <v>8002</v>
       </c>
       <c r="B6" t="s">
+        <v>1567</v>
+      </c>
+      <c r="C6" t="s">
         <v>1568</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1569</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
@@ -26178,10 +26169,10 @@
         <v>8003</v>
       </c>
       <c r="B7" s="14" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C7" t="s">
         <v>1570</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1571</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
@@ -26194,10 +26185,10 @@
         <v>8004</v>
       </c>
       <c r="B8" s="14" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C8" t="s">
         <v>1572</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1573</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
@@ -26211,10 +26202,10 @@
         <v>8005</v>
       </c>
       <c r="B9" s="16" t="s">
+        <v>1573</v>
+      </c>
+      <c r="C9" s="16" t="s">
         <v>1574</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>1575</v>
       </c>
       <c r="D9" s="16" t="str">
         <f t="shared" si="0"/>
@@ -26227,10 +26218,10 @@
         <v>8006</v>
       </c>
       <c r="B10" t="s">
+        <v>1575</v>
+      </c>
+      <c r="C10" t="s">
         <v>1576</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1577</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
@@ -26244,10 +26235,10 @@
         <v>8007</v>
       </c>
       <c r="B11" s="14" t="s">
+        <v>1577</v>
+      </c>
+      <c r="C11" t="s">
         <v>1578</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1579</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="0"/>
@@ -26261,10 +26252,10 @@
         <v>8008</v>
       </c>
       <c r="B12" s="16" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C12" s="16" t="s">
         <v>1580</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>1581</v>
       </c>
       <c r="D12" s="16" t="str">
         <f t="shared" si="0"/>
@@ -26277,10 +26268,10 @@
         <v>8009</v>
       </c>
       <c r="B13" s="14" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C13" t="s">
         <v>1582</v>
-      </c>
-      <c r="C13" t="s">
-        <v>1583</v>
       </c>
       <c r="D13" t="str">
         <f>$C$1&amp;B13&amp;$D$1</f>
@@ -26294,10 +26285,10 @@
         <v>8010</v>
       </c>
       <c r="B14" s="14" t="s">
+        <v>1583</v>
+      </c>
+      <c r="C14" t="s">
         <v>1584</v>
-      </c>
-      <c r="C14" t="s">
-        <v>1585</v>
       </c>
       <c r="D14" t="str">
         <f>$C$1&amp;B14&amp;$D$1</f>
@@ -26311,10 +26302,10 @@
         <v>8011</v>
       </c>
       <c r="B15" s="14" t="s">
+        <v>1585</v>
+      </c>
+      <c r="C15" t="s">
         <v>1586</v>
-      </c>
-      <c r="C15" t="s">
-        <v>1587</v>
       </c>
       <c r="D15" t="str">
         <f>$C$1&amp;B15&amp;$D$1</f>
@@ -26328,10 +26319,10 @@
         <v>8012</v>
       </c>
       <c r="B16" s="14" t="s">
+        <v>1587</v>
+      </c>
+      <c r="C16" t="s">
         <v>1588</v>
-      </c>
-      <c r="C16" t="s">
-        <v>1589</v>
       </c>
       <c r="D16" t="str">
         <f>$C$1&amp;B16&amp;$D$1</f>
@@ -26345,10 +26336,10 @@
         <v>8013</v>
       </c>
       <c r="B17" s="14" t="s">
+        <v>1589</v>
+      </c>
+      <c r="C17" t="s">
         <v>1590</v>
-      </c>
-      <c r="C17" t="s">
-        <v>1591</v>
       </c>
       <c r="D17" t="str">
         <f>$C$1&amp;B17&amp;$D$1</f>
@@ -26362,10 +26353,10 @@
         <v>8014</v>
       </c>
       <c r="B18" s="14" t="s">
+        <v>1591</v>
+      </c>
+      <c r="C18" t="s">
         <v>1592</v>
-      </c>
-      <c r="C18" t="s">
-        <v>1593</v>
       </c>
       <c r="D18" t="str">
         <f>$C$1&amp;B18&amp;$D$1</f>
@@ -26379,10 +26370,10 @@
         <v>8015</v>
       </c>
       <c r="B19" s="14" t="s">
+        <v>1593</v>
+      </c>
+      <c r="C19" t="s">
         <v>1594</v>
-      </c>
-      <c r="C19" t="s">
-        <v>1595</v>
       </c>
       <c r="D19" t="str">
         <f>$C$1&amp;B19&amp;$D$1</f>
@@ -26411,10 +26402,10 @@
         <v>8018</v>
       </c>
       <c r="B22" t="s">
+        <v>1595</v>
+      </c>
+      <c r="C22" t="s">
         <v>1596</v>
-      </c>
-      <c r="C22" t="s">
-        <v>1597</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" ref="D22:D28" si="1">$C$1&amp;B22&amp;$D$1</f>
@@ -26428,10 +26419,10 @@
         <v>8019</v>
       </c>
       <c r="B23" s="14" t="s">
+        <v>1597</v>
+      </c>
+      <c r="C23" t="s">
         <v>1598</v>
-      </c>
-      <c r="C23" t="s">
-        <v>1599</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" si="1"/>
@@ -26445,10 +26436,10 @@
         <v>8020</v>
       </c>
       <c r="B24" s="14" t="s">
+        <v>1599</v>
+      </c>
+      <c r="C24" t="s">
         <v>1600</v>
-      </c>
-      <c r="C24" t="s">
-        <v>1601</v>
       </c>
       <c r="D24" t="str">
         <f t="shared" si="1"/>
@@ -26462,10 +26453,10 @@
         <v>8021</v>
       </c>
       <c r="B25" s="16" t="s">
+        <v>1601</v>
+      </c>
+      <c r="C25" s="16" t="s">
         <v>1602</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>1603</v>
       </c>
       <c r="D25" s="16" t="str">
         <f t="shared" si="1"/>
@@ -26478,10 +26469,10 @@
         <v>8022</v>
       </c>
       <c r="B26" t="s">
+        <v>1603</v>
+      </c>
+      <c r="C26" t="s">
         <v>1604</v>
-      </c>
-      <c r="C26" t="s">
-        <v>1605</v>
       </c>
       <c r="D26" t="str">
         <f t="shared" si="1"/>
@@ -26495,10 +26486,10 @@
         <v>8023</v>
       </c>
       <c r="B27" s="14" t="s">
+        <v>1605</v>
+      </c>
+      <c r="C27" t="s">
         <v>1606</v>
-      </c>
-      <c r="C27" t="s">
-        <v>1607</v>
       </c>
       <c r="D27" t="str">
         <f t="shared" si="1"/>
@@ -26512,10 +26503,10 @@
         <v>8024</v>
       </c>
       <c r="B28" s="16" t="s">
+        <v>1607</v>
+      </c>
+      <c r="C28" s="16" t="s">
         <v>1608</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>1609</v>
       </c>
       <c r="D28" s="16" t="str">
         <f t="shared" si="1"/>
@@ -26528,10 +26519,10 @@
         <v>8025</v>
       </c>
       <c r="B29" s="14" t="s">
+        <v>1609</v>
+      </c>
+      <c r="C29" t="s">
         <v>1610</v>
-      </c>
-      <c r="C29" t="s">
-        <v>1611</v>
       </c>
       <c r="D29" t="str">
         <f>$C$1&amp;B29&amp;$D$1</f>
@@ -26545,10 +26536,10 @@
         <v>8026</v>
       </c>
       <c r="B30" s="14" t="s">
+        <v>1611</v>
+      </c>
+      <c r="C30" t="s">
         <v>1612</v>
-      </c>
-      <c r="C30" t="s">
-        <v>1613</v>
       </c>
       <c r="D30" t="str">
         <f>$C$1&amp;B30&amp;$D$1</f>
@@ -26562,10 +26553,10 @@
         <v>8027</v>
       </c>
       <c r="B31" s="14" t="s">
+        <v>1613</v>
+      </c>
+      <c r="C31" t="s">
         <v>1614</v>
-      </c>
-      <c r="C31" t="s">
-        <v>1615</v>
       </c>
       <c r="D31" t="str">
         <f>$C$1&amp;B31&amp;$D$1</f>
@@ -26579,10 +26570,10 @@
         <v>8028</v>
       </c>
       <c r="B32" s="14" t="s">
+        <v>1615</v>
+      </c>
+      <c r="C32" t="s">
         <v>1616</v>
-      </c>
-      <c r="C32" t="s">
-        <v>1617</v>
       </c>
       <c r="D32" t="str">
         <f>$C$1&amp;B32&amp;$D$1</f>
@@ -26596,10 +26587,10 @@
         <v>8029</v>
       </c>
       <c r="B33" s="14" t="s">
+        <v>1617</v>
+      </c>
+      <c r="C33" t="s">
         <v>1618</v>
-      </c>
-      <c r="C33" t="s">
-        <v>1619</v>
       </c>
       <c r="D33" t="str">
         <f>$C$1&amp;B33&amp;$D$1</f>
@@ -26613,10 +26604,10 @@
         <v>8030</v>
       </c>
       <c r="B34" s="14" t="s">
+        <v>1619</v>
+      </c>
+      <c r="C34" t="s">
         <v>1620</v>
-      </c>
-      <c r="C34" t="s">
-        <v>1621</v>
       </c>
       <c r="D34" t="str">
         <f>$C$1&amp;B34&amp;$D$1</f>
@@ -26630,10 +26621,10 @@
         <v>8031</v>
       </c>
       <c r="B35" s="14" t="s">
+        <v>1621</v>
+      </c>
+      <c r="C35" t="s">
         <v>1622</v>
-      </c>
-      <c r="C35" t="s">
-        <v>1623</v>
       </c>
       <c r="D35" t="str">
         <f>$C$1&amp;B35&amp;$D$1</f>
@@ -26654,10 +26645,10 @@
         <v>8033</v>
       </c>
       <c r="B37" s="14" t="s">
+        <v>1623</v>
+      </c>
+      <c r="C37" s="14" t="s">
         <v>1624</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>1625</v>
       </c>
       <c r="D37" t="str">
         <f>$C$1&amp;B37&amp;$D$1</f>
@@ -26670,10 +26661,10 @@
         <v>8034</v>
       </c>
       <c r="B38" t="s">
+        <v>1625</v>
+      </c>
+      <c r="C38" t="s">
         <v>1626</v>
-      </c>
-      <c r="C38" t="s">
-        <v>1627</v>
       </c>
       <c r="D38" t="str">
         <f>$C$1&amp;B38&amp;$D$1</f>
@@ -26686,10 +26677,10 @@
         <v>8035</v>
       </c>
       <c r="B39" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="C39" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="D39" t="str">
         <f>$C$1&amp;B39&amp;$D$1</f>
@@ -26702,10 +26693,10 @@
         <v>8036</v>
       </c>
       <c r="B40" s="14" t="s">
+        <v>1628</v>
+      </c>
+      <c r="C40" s="14" t="s">
         <v>1629</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>1630</v>
       </c>
       <c r="D40" s="14" t="str">
         <f>$C$1&amp;B40&amp;$D$1</f>
@@ -26718,10 +26709,10 @@
         <v>8037</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="D41" s="14" t="str">
         <f>$C$1&amp;B41&amp;$D$1</f>
@@ -26734,10 +26725,10 @@
         <v>8038</v>
       </c>
       <c r="B42" t="s">
+        <v>1631</v>
+      </c>
+      <c r="C42" t="s">
         <v>1632</v>
-      </c>
-      <c r="C42" t="s">
-        <v>1633</v>
       </c>
       <c r="D42" t="str">
         <f>$C$1&amp;B42&amp;$D$1</f>
@@ -26750,10 +26741,10 @@
         <v>8039</v>
       </c>
       <c r="B43" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="C43" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="D43" t="str">
         <f>$C$1&amp;B43&amp;$D$1</f>
@@ -26766,10 +26757,10 @@
         <v>8040</v>
       </c>
       <c r="B44" t="s">
+        <v>1634</v>
+      </c>
+      <c r="C44" t="s">
         <v>1635</v>
-      </c>
-      <c r="C44" t="s">
-        <v>1636</v>
       </c>
       <c r="D44" t="str">
         <f>$C$1&amp;B44&amp;$D$1</f>
@@ -26782,10 +26773,10 @@
         <v>8041</v>
       </c>
       <c r="B45" t="s">
+        <v>1636</v>
+      </c>
+      <c r="C45" t="s">
         <v>1637</v>
-      </c>
-      <c r="C45" t="s">
-        <v>1638</v>
       </c>
       <c r="D45" t="str">
         <f>$C$1&amp;B45&amp;$D$1</f>
@@ -26798,10 +26789,10 @@
         <v>8042</v>
       </c>
       <c r="B46" s="14" t="s">
+        <v>1638</v>
+      </c>
+      <c r="C46" s="14" t="s">
         <v>1639</v>
-      </c>
-      <c r="C46" s="14" t="s">
-        <v>1640</v>
       </c>
       <c r="D46" s="14" t="str">
         <f t="shared" ref="D46:D57" si="3">$C$1&amp;B46&amp;$D$1</f>
@@ -26814,10 +26805,10 @@
         <v>8043</v>
       </c>
       <c r="B47" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="C47" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="D47" t="str">
         <f t="shared" si="3"/>
@@ -26830,10 +26821,10 @@
         <v>8044</v>
       </c>
       <c r="B48" s="14" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C48" s="14" t="s">
         <v>1642</v>
-      </c>
-      <c r="C48" s="14" t="s">
-        <v>1643</v>
       </c>
       <c r="D48" s="14" t="str">
         <f t="shared" si="3"/>
@@ -26846,10 +26837,10 @@
         <v>8045</v>
       </c>
       <c r="B49" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="C49" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="D49" t="str">
         <f t="shared" si="3"/>
@@ -26862,10 +26853,10 @@
         <v>8046</v>
       </c>
       <c r="B50" t="s">
+        <v>1644</v>
+      </c>
+      <c r="C50" t="s">
         <v>1645</v>
-      </c>
-      <c r="C50" t="s">
-        <v>1646</v>
       </c>
       <c r="D50" t="str">
         <f t="shared" si="3"/>
@@ -26878,10 +26869,10 @@
         <v>8047</v>
       </c>
       <c r="B51" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="C51" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="D51" t="str">
         <f t="shared" si="3"/>
@@ -26894,10 +26885,10 @@
         <v>8048</v>
       </c>
       <c r="B52" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C52" s="14" t="s">
         <v>1648</v>
-      </c>
-      <c r="C52" s="14" t="s">
-        <v>1649</v>
       </c>
       <c r="D52" t="str">
         <f t="shared" si="3"/>
@@ -26910,10 +26901,10 @@
         <v>8049</v>
       </c>
       <c r="B53" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="C53" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="D53" t="str">
         <f t="shared" si="3"/>
@@ -26926,10 +26917,10 @@
         <v>8050</v>
       </c>
       <c r="B54" t="s">
+        <v>1650</v>
+      </c>
+      <c r="C54" t="s">
         <v>1651</v>
-      </c>
-      <c r="C54" t="s">
-        <v>1652</v>
       </c>
       <c r="D54" t="str">
         <f t="shared" si="3"/>
@@ -26942,10 +26933,10 @@
         <v>8051</v>
       </c>
       <c r="B55" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="C55" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="D55" t="str">
         <f t="shared" si="3"/>
@@ -26958,10 +26949,10 @@
         <v>8052</v>
       </c>
       <c r="B56" t="s">
+        <v>1653</v>
+      </c>
+      <c r="C56" t="s">
         <v>1654</v>
-      </c>
-      <c r="C56" t="s">
-        <v>1655</v>
       </c>
       <c r="D56" t="str">
         <f t="shared" si="3"/>
@@ -26974,10 +26965,10 @@
         <v>8053</v>
       </c>
       <c r="B57" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="C57" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="D57" t="str">
         <f t="shared" si="3"/>
@@ -26990,10 +26981,10 @@
         <v>8054</v>
       </c>
       <c r="B58" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="C58" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="D58" t="str">
         <f>$C$1&amp;B58&amp;$D$1</f>
@@ -27006,10 +26997,10 @@
         <v>8055</v>
       </c>
       <c r="B59" t="s">
+        <v>1657</v>
+      </c>
+      <c r="C59" s="14" t="s">
         <v>1658</v>
-      </c>
-      <c r="C59" s="14" t="s">
-        <v>1659</v>
       </c>
       <c r="D59" t="str">
         <f t="shared" ref="D59:D70" si="6">$C$1&amp;B59&amp;$D$1</f>
@@ -27022,10 +27013,10 @@
         <v>8056</v>
       </c>
       <c r="B60" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="C60" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="D60" t="str">
         <f t="shared" si="6"/>
@@ -27038,10 +27029,10 @@
         <v>8057</v>
       </c>
       <c r="B61" t="s">
+        <v>1660</v>
+      </c>
+      <c r="C61" s="14" t="s">
         <v>1661</v>
-      </c>
-      <c r="C61" s="14" t="s">
-        <v>1662</v>
       </c>
       <c r="D61" t="str">
         <f t="shared" si="6"/>
@@ -27054,10 +27045,10 @@
         <v>8058</v>
       </c>
       <c r="B62" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="C62" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="D62" t="str">
         <f t="shared" si="6"/>
@@ -27070,10 +27061,10 @@
         <v>8059</v>
       </c>
       <c r="B63" t="s">
+        <v>1663</v>
+      </c>
+      <c r="C63" s="14" t="s">
         <v>1664</v>
-      </c>
-      <c r="C63" s="14" t="s">
-        <v>1665</v>
       </c>
       <c r="D63" t="str">
         <f t="shared" si="6"/>
@@ -27086,10 +27077,10 @@
         <v>8060</v>
       </c>
       <c r="B64" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="C64" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="D64" t="str">
         <f t="shared" si="6"/>
@@ -27102,10 +27093,10 @@
         <v>8061</v>
       </c>
       <c r="B65" t="s">
+        <v>1666</v>
+      </c>
+      <c r="C65" s="14" t="s">
         <v>1667</v>
-      </c>
-      <c r="C65" s="14" t="s">
-        <v>1668</v>
       </c>
       <c r="D65" t="str">
         <f t="shared" si="6"/>
@@ -27118,10 +27109,10 @@
         <v>8062</v>
       </c>
       <c r="B66" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="C66" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="D66" t="str">
         <f t="shared" si="6"/>
@@ -27134,10 +27125,10 @@
         <v>8063</v>
       </c>
       <c r="B67" t="s">
+        <v>1669</v>
+      </c>
+      <c r="C67" s="14" t="s">
         <v>1670</v>
-      </c>
-      <c r="C67" s="14" t="s">
-        <v>1671</v>
       </c>
       <c r="D67" t="str">
         <f t="shared" si="6"/>
@@ -27150,10 +27141,10 @@
         <v>8064</v>
       </c>
       <c r="B68" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="C68" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="D68" t="str">
         <f t="shared" si="6"/>
@@ -27166,10 +27157,10 @@
         <v>8065</v>
       </c>
       <c r="B69" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C69" s="14" t="s">
         <v>1673</v>
-      </c>
-      <c r="C69" s="14" t="s">
-        <v>1674</v>
       </c>
       <c r="D69" t="str">
         <f t="shared" si="6"/>
@@ -27182,10 +27173,10 @@
         <v>8066</v>
       </c>
       <c r="B70" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="C70" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="D70" t="str">
         <f t="shared" si="6"/>
@@ -27198,10 +27189,10 @@
         <v>8067</v>
       </c>
       <c r="B71" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C71" t="s">
         <v>1676</v>
-      </c>
-      <c r="C71" t="s">
-        <v>1677</v>
       </c>
       <c r="D71" t="str">
         <f>$C$1&amp;B71&amp;$D$1</f>
@@ -27214,10 +27205,10 @@
         <v>8068</v>
       </c>
       <c r="B72" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="C72" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="D72" t="str">
         <f>$C$1&amp;B72&amp;$D$1</f>
@@ -27236,13 +27227,13 @@
         <v>8070</v>
       </c>
       <c r="B74" s="11" t="s">
+        <v>1678</v>
+      </c>
+      <c r="C74" s="11" t="s">
         <v>1679</v>
       </c>
-      <c r="C74" s="11" t="s">
+      <c r="D74" s="11" t="s">
         <v>1680</v>
-      </c>
-      <c r="D74" s="11" t="s">
-        <v>1681</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -27251,13 +27242,13 @@
         <v>8071</v>
       </c>
       <c r="B75" s="11" t="s">
+        <v>1681</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>1679</v>
+      </c>
+      <c r="D75" s="11" t="s">
         <v>1682</v>
-      </c>
-      <c r="C75" s="11" t="s">
-        <v>1680</v>
-      </c>
-      <c r="D75" s="11" t="s">
-        <v>1683</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -27266,13 +27257,13 @@
         <v>8072</v>
       </c>
       <c r="B76" s="11" t="s">
+        <v>1683</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>1679</v>
+      </c>
+      <c r="D76" s="11" t="s">
         <v>1684</v>
-      </c>
-      <c r="C76" s="11" t="s">
-        <v>1680</v>
-      </c>
-      <c r="D76" s="11" t="s">
-        <v>1685</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -27281,13 +27272,13 @@
         <v>8073</v>
       </c>
       <c r="B77" s="11" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>1679</v>
+      </c>
+      <c r="D77" s="11" t="s">
         <v>1686</v>
-      </c>
-      <c r="C77" s="11" t="s">
-        <v>1680</v>
-      </c>
-      <c r="D77" s="11" t="s">
-        <v>1687</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -27296,13 +27287,13 @@
         <v>8074</v>
       </c>
       <c r="B78" s="11" t="s">
+        <v>1687</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>1679</v>
+      </c>
+      <c r="D78" s="11" t="s">
         <v>1688</v>
-      </c>
-      <c r="C78" s="11" t="s">
-        <v>1680</v>
-      </c>
-      <c r="D78" s="11" t="s">
-        <v>1689</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -27311,13 +27302,13 @@
         <v>8075</v>
       </c>
       <c r="B79" s="11" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>1679</v>
+      </c>
+      <c r="D79" s="11" t="s">
         <v>1690</v>
-      </c>
-      <c r="C79" s="11" t="s">
-        <v>1680</v>
-      </c>
-      <c r="D79" s="11" t="s">
-        <v>1691</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -27326,13 +27317,13 @@
         <v>8076</v>
       </c>
       <c r="B80" s="11" t="s">
+        <v>1691</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>1679</v>
+      </c>
+      <c r="D80" s="11" t="s">
         <v>1692</v>
-      </c>
-      <c r="C80" s="11" t="s">
-        <v>1680</v>
-      </c>
-      <c r="D80" s="11" t="s">
-        <v>1693</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -27341,13 +27332,13 @@
         <v>8077</v>
       </c>
       <c r="B81" s="11" t="s">
+        <v>1693</v>
+      </c>
+      <c r="C81" s="11" t="s">
         <v>1694</v>
       </c>
-      <c r="C81" s="11" t="s">
+      <c r="D81" s="11" t="s">
         <v>1695</v>
-      </c>
-      <c r="D81" s="11" t="s">
-        <v>1696</v>
       </c>
     </row>
     <row r="82" spans="1:1">
@@ -27374,8 +27365,8 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:I95"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -27448,10 +27439,10 @@
         <v>9001</v>
       </c>
       <c r="B5" t="s">
+        <v>1696</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>1697</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>1698</v>
       </c>
       <c r="D5" t="str">
         <f>$C$1&amp;B5&amp;$D$1</f>
@@ -27464,10 +27455,10 @@
         <v>9002</v>
       </c>
       <c r="B6" t="s">
+        <v>1698</v>
+      </c>
+      <c r="C6" t="s">
         <v>1699</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1700</v>
       </c>
       <c r="D6" t="str">
         <f>$C$1&amp;B6&amp;$D$1</f>
@@ -27480,10 +27471,10 @@
         <v>9003</v>
       </c>
       <c r="B7" t="s">
+        <v>1700</v>
+      </c>
+      <c r="C7" t="s">
         <v>1701</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1702</v>
       </c>
       <c r="D7" t="str">
         <f>$C$1&amp;B7&amp;$D$1</f>
@@ -27503,10 +27494,10 @@
         <v>9005</v>
       </c>
       <c r="B9" t="s">
+        <v>1702</v>
+      </c>
+      <c r="C9" s="13" t="s">
         <v>1703</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>1704</v>
       </c>
       <c r="D9" t="str">
         <f>$C$1&amp;B9&amp;$D$1</f>
@@ -27520,10 +27511,10 @@
         <v>9006</v>
       </c>
       <c r="B10" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>1705</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>1706</v>
       </c>
       <c r="D10" t="str">
         <f>$C$1&amp;B10&amp;$D$1</f>
@@ -27537,10 +27528,10 @@
         <v>9007</v>
       </c>
       <c r="B11" t="s">
+        <v>1706</v>
+      </c>
+      <c r="C11" s="13" t="s">
         <v>1707</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>1708</v>
       </c>
       <c r="D11" t="str">
         <f>$C$1&amp;B11&amp;$D$1</f>
@@ -27561,10 +27552,10 @@
         <v>9009</v>
       </c>
       <c r="B13" t="s">
+        <v>1708</v>
+      </c>
+      <c r="C13" t="s">
         <v>1709</v>
-      </c>
-      <c r="C13" t="s">
-        <v>1710</v>
       </c>
       <c r="D13" t="str">
         <f>$C$1&amp;B13&amp;$D$1</f>
@@ -27578,10 +27569,10 @@
         <v>9010</v>
       </c>
       <c r="B14" t="s">
+        <v>1710</v>
+      </c>
+      <c r="C14" t="s">
         <v>1711</v>
-      </c>
-      <c r="C14" t="s">
-        <v>1712</v>
       </c>
       <c r="D14" t="str">
         <f>$C$1&amp;B14&amp;$D$1</f>
@@ -27595,10 +27586,10 @@
         <v>9011</v>
       </c>
       <c r="B15" t="s">
+        <v>1712</v>
+      </c>
+      <c r="C15" t="s">
         <v>1713</v>
-      </c>
-      <c r="C15" t="s">
-        <v>1714</v>
       </c>
       <c r="D15" t="str">
         <f>$C$1&amp;B15&amp;$D$1</f>
@@ -27619,10 +27610,10 @@
         <v>9013</v>
       </c>
       <c r="B17" t="s">
+        <v>1714</v>
+      </c>
+      <c r="C17" t="s">
         <v>1715</v>
-      </c>
-      <c r="C17" t="s">
-        <v>1716</v>
       </c>
       <c r="D17" t="str">
         <f>$C$1&amp;B17&amp;$D$1</f>
@@ -27636,10 +27627,10 @@
         <v>9014</v>
       </c>
       <c r="B18" t="s">
+        <v>1716</v>
+      </c>
+      <c r="C18" t="s">
         <v>1717</v>
-      </c>
-      <c r="C18" t="s">
-        <v>1718</v>
       </c>
       <c r="D18" t="str">
         <f>$C$1&amp;B18&amp;$D$1</f>
@@ -27653,10 +27644,10 @@
         <v>9015</v>
       </c>
       <c r="B19" t="s">
+        <v>1718</v>
+      </c>
+      <c r="C19" t="s">
         <v>1719</v>
-      </c>
-      <c r="C19" t="s">
-        <v>1720</v>
       </c>
       <c r="D19" t="str">
         <f>$C$1&amp;B19&amp;$D$1</f>
@@ -27677,10 +27668,10 @@
         <v>9017</v>
       </c>
       <c r="B21" t="s">
+        <v>1720</v>
+      </c>
+      <c r="C21" t="s">
         <v>1721</v>
-      </c>
-      <c r="C21" t="s">
-        <v>1722</v>
       </c>
       <c r="D21" t="str">
         <f>$C$1&amp;B21&amp;$D$1</f>
@@ -27694,10 +27685,10 @@
         <v>9018</v>
       </c>
       <c r="B22" t="s">
+        <v>1722</v>
+      </c>
+      <c r="C22" t="s">
         <v>1723</v>
-      </c>
-      <c r="C22" t="s">
-        <v>1724</v>
       </c>
       <c r="D22" t="str">
         <f>$C$1&amp;B22&amp;$D$1</f>
@@ -27711,10 +27702,10 @@
         <v>9019</v>
       </c>
       <c r="B23" t="s">
+        <v>1724</v>
+      </c>
+      <c r="C23" t="s">
         <v>1725</v>
-      </c>
-      <c r="C23" t="s">
-        <v>1726</v>
       </c>
       <c r="D23" t="str">
         <f>$C$1&amp;B23&amp;$D$1</f>
@@ -27735,10 +27726,10 @@
         <v>9021</v>
       </c>
       <c r="B25" t="s">
+        <v>1726</v>
+      </c>
+      <c r="C25" t="s">
         <v>1727</v>
-      </c>
-      <c r="C25" t="s">
-        <v>1728</v>
       </c>
       <c r="D25" t="str">
         <f>$C$1&amp;B25&amp;$D$1</f>
@@ -27752,10 +27743,10 @@
         <v>9022</v>
       </c>
       <c r="B26" t="s">
+        <v>1728</v>
+      </c>
+      <c r="C26" s="15" t="s">
         <v>1729</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>1730</v>
       </c>
       <c r="D26" t="str">
         <f>$C$1&amp;B26&amp;$D$1</f>
@@ -27769,10 +27760,10 @@
         <v>9023</v>
       </c>
       <c r="B27" t="s">
+        <v>1730</v>
+      </c>
+      <c r="C27" s="15" t="s">
         <v>1731</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>1732</v>
       </c>
       <c r="D27" t="str">
         <f>$C$1&amp;B27&amp;$D$1</f>
@@ -27792,10 +27783,10 @@
         <v>9025</v>
       </c>
       <c r="B29" t="s">
+        <v>1732</v>
+      </c>
+      <c r="C29" t="s">
         <v>1733</v>
-      </c>
-      <c r="C29" t="s">
-        <v>1734</v>
       </c>
       <c r="D29" t="str">
         <f>$C$1&amp;B29&amp;$D$1</f>
@@ -27808,10 +27799,10 @@
         <v>9026</v>
       </c>
       <c r="B30" t="s">
+        <v>1734</v>
+      </c>
+      <c r="C30" t="s">
         <v>1735</v>
-      </c>
-      <c r="C30" t="s">
-        <v>1736</v>
       </c>
       <c r="D30" t="str">
         <f>$C$1&amp;B30&amp;$D$1</f>
@@ -27830,10 +27821,10 @@
         <v>9028</v>
       </c>
       <c r="B32" t="s">
+        <v>1736</v>
+      </c>
+      <c r="C32" s="13" t="s">
         <v>1737</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>1738</v>
       </c>
       <c r="D32" t="str">
         <f>$C$1&amp;B32&amp;$D$1</f>
@@ -27846,10 +27837,10 @@
         <v>9029</v>
       </c>
       <c r="B33" t="s">
+        <v>1738</v>
+      </c>
+      <c r="C33" s="13" t="s">
         <v>1739</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>1740</v>
       </c>
       <c r="D33" t="str">
         <f>$C$1&amp;B33&amp;$D$1</f>
@@ -27868,10 +27859,10 @@
         <v>9031</v>
       </c>
       <c r="B35" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C35" t="s">
         <v>1741</v>
-      </c>
-      <c r="C35" t="s">
-        <v>1742</v>
       </c>
       <c r="D35" t="str">
         <f>$C$1&amp;B35&amp;$D$1</f>
@@ -27884,10 +27875,10 @@
         <v>9032</v>
       </c>
       <c r="B36" t="s">
+        <v>1742</v>
+      </c>
+      <c r="C36" t="s">
         <v>1743</v>
-      </c>
-      <c r="C36" t="s">
-        <v>1744</v>
       </c>
       <c r="D36" t="str">
         <f>$C$1&amp;B36&amp;$D$1</f>
@@ -27906,10 +27897,10 @@
         <v>9034</v>
       </c>
       <c r="B38" t="s">
+        <v>1744</v>
+      </c>
+      <c r="C38" t="s">
         <v>1745</v>
-      </c>
-      <c r="C38" t="s">
-        <v>1746</v>
       </c>
       <c r="D38" t="str">
         <f>$C$1&amp;B38&amp;$D$1</f>
@@ -27922,10 +27913,10 @@
         <v>9035</v>
       </c>
       <c r="B39" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C39" t="s">
         <v>1747</v>
-      </c>
-      <c r="C39" t="s">
-        <v>1748</v>
       </c>
       <c r="D39" t="str">
         <f>$C$1&amp;B39&amp;$D$1</f>
@@ -27938,10 +27929,10 @@
         <v>9036</v>
       </c>
       <c r="B40" t="s">
+        <v>1748</v>
+      </c>
+      <c r="C40" t="s">
         <v>1749</v>
-      </c>
-      <c r="C40" t="s">
-        <v>1750</v>
       </c>
       <c r="D40" t="str">
         <f>$C$1&amp;B40&amp;$D$1</f>
@@ -27954,10 +27945,10 @@
         <v>9037</v>
       </c>
       <c r="B41" t="s">
+        <v>1750</v>
+      </c>
+      <c r="C41" t="s">
         <v>1751</v>
-      </c>
-      <c r="C41" t="s">
-        <v>1752</v>
       </c>
       <c r="D41" t="str">
         <f>$C$1&amp;B41&amp;$D$1</f>
@@ -27970,10 +27961,10 @@
         <v>9038</v>
       </c>
       <c r="B42" t="s">
+        <v>1752</v>
+      </c>
+      <c r="C42" t="s">
         <v>1753</v>
-      </c>
-      <c r="C42" t="s">
-        <v>1754</v>
       </c>
       <c r="D42" t="str">
         <f>$C$1&amp;B42&amp;$D$1</f>
@@ -27986,10 +27977,10 @@
         <v>9039</v>
       </c>
       <c r="B43" t="s">
+        <v>1754</v>
+      </c>
+      <c r="C43" t="s">
         <v>1755</v>
-      </c>
-      <c r="C43" t="s">
-        <v>1756</v>
       </c>
       <c r="D43" t="str">
         <f>$C$1&amp;B43&amp;$D$1</f>
@@ -28014,10 +28005,10 @@
         <v>9042</v>
       </c>
       <c r="B46" t="s">
+        <v>1756</v>
+      </c>
+      <c r="C46" t="s">
         <v>1757</v>
-      </c>
-      <c r="C46" t="s">
-        <v>1758</v>
       </c>
       <c r="D46" t="str">
         <f>$C$1&amp;B46&amp;$D$1</f>
@@ -28030,10 +28021,10 @@
         <v>9043</v>
       </c>
       <c r="B47" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="C47" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="D47" t="str">
         <f>$C$1&amp;B47&amp;$D$1</f>
@@ -28046,10 +28037,10 @@
         <v>9044</v>
       </c>
       <c r="B48" t="s">
+        <v>1759</v>
+      </c>
+      <c r="C48" t="s">
         <v>1760</v>
-      </c>
-      <c r="C48" t="s">
-        <v>1761</v>
       </c>
       <c r="D48" t="str">
         <f>$C$1&amp;B48&amp;$D$1</f>
@@ -28062,10 +28053,10 @@
         <v>9045</v>
       </c>
       <c r="B49" t="s">
+        <v>1761</v>
+      </c>
+      <c r="C49" t="s">
         <v>1762</v>
-      </c>
-      <c r="C49" t="s">
-        <v>1763</v>
       </c>
       <c r="D49" t="str">
         <f>$C$1&amp;B49&amp;$D$1</f>
@@ -28078,10 +28069,10 @@
         <v>9046</v>
       </c>
       <c r="B50" t="s">
+        <v>1763</v>
+      </c>
+      <c r="C50" t="s">
         <v>1764</v>
-      </c>
-      <c r="C50" t="s">
-        <v>1765</v>
       </c>
       <c r="D50" t="str">
         <f>$C$1&amp;B50&amp;$D$1</f>
@@ -28106,10 +28097,10 @@
         <v>9049</v>
       </c>
       <c r="B53" t="s">
+        <v>1765</v>
+      </c>
+      <c r="C53" t="s">
         <v>1766</v>
-      </c>
-      <c r="C53" t="s">
-        <v>1767</v>
       </c>
       <c r="D53" t="str">
         <f>$C$1&amp;B53&amp;$D$1</f>
@@ -28122,10 +28113,10 @@
         <v>9050</v>
       </c>
       <c r="B54" t="s">
+        <v>1767</v>
+      </c>
+      <c r="C54" t="s">
         <v>1768</v>
-      </c>
-      <c r="C54" t="s">
-        <v>1769</v>
       </c>
       <c r="D54" t="str">
         <f>$C$1&amp;B54&amp;$D$1</f>
@@ -28138,10 +28129,10 @@
         <v>9051</v>
       </c>
       <c r="B55" t="s">
+        <v>1769</v>
+      </c>
+      <c r="C55" t="s">
         <v>1770</v>
-      </c>
-      <c r="C55" t="s">
-        <v>1771</v>
       </c>
       <c r="D55" t="str">
         <f>$C$1&amp;B55&amp;$D$1</f>
@@ -28154,10 +28145,10 @@
         <v>9052</v>
       </c>
       <c r="B56" t="s">
+        <v>1771</v>
+      </c>
+      <c r="C56" t="s">
         <v>1772</v>
-      </c>
-      <c r="C56" t="s">
-        <v>1773</v>
       </c>
       <c r="D56" t="str">
         <f>$C$1&amp;B56&amp;$D$1</f>
@@ -28170,10 +28161,10 @@
         <v>9053</v>
       </c>
       <c r="B57" t="s">
+        <v>1773</v>
+      </c>
+      <c r="C57" t="s">
         <v>1774</v>
-      </c>
-      <c r="C57" t="s">
-        <v>1775</v>
       </c>
       <c r="D57" t="str">
         <f>$C$1&amp;B57&amp;$D$1</f>
@@ -28186,10 +28177,10 @@
         <v>9054</v>
       </c>
       <c r="B58" t="s">
+        <v>1775</v>
+      </c>
+      <c r="C58" t="s">
         <v>1776</v>
-      </c>
-      <c r="C58" t="s">
-        <v>1777</v>
       </c>
       <c r="D58" t="str">
         <f>$C$1&amp;B58&amp;$D$1</f>
@@ -28214,10 +28205,10 @@
         <v>9057</v>
       </c>
       <c r="B61" t="s">
+        <v>1777</v>
+      </c>
+      <c r="C61" t="s">
         <v>1778</v>
-      </c>
-      <c r="C61" t="s">
-        <v>1779</v>
       </c>
       <c r="D61" t="str">
         <f>$C$1&amp;B61&amp;$D$1</f>
@@ -28230,10 +28221,10 @@
         <v>9058</v>
       </c>
       <c r="B62" t="s">
+        <v>1779</v>
+      </c>
+      <c r="C62" t="s">
         <v>1780</v>
-      </c>
-      <c r="C62" t="s">
-        <v>1781</v>
       </c>
       <c r="D62" t="str">
         <f>$C$1&amp;B62&amp;$D$1</f>
@@ -28246,10 +28237,10 @@
         <v>9059</v>
       </c>
       <c r="B63" t="s">
+        <v>1781</v>
+      </c>
+      <c r="C63" t="s">
         <v>1782</v>
-      </c>
-      <c r="C63" t="s">
-        <v>1783</v>
       </c>
       <c r="D63" t="str">
         <f>$C$1&amp;B63&amp;$D$1</f>
@@ -28262,10 +28253,10 @@
         <v>9060</v>
       </c>
       <c r="B64" t="s">
+        <v>1783</v>
+      </c>
+      <c r="C64" t="s">
         <v>1784</v>
-      </c>
-      <c r="C64" t="s">
-        <v>1785</v>
       </c>
       <c r="D64" t="str">
         <f>$C$1&amp;B64&amp;$D$1</f>
@@ -28278,10 +28269,10 @@
         <v>9061</v>
       </c>
       <c r="B65" t="s">
+        <v>1785</v>
+      </c>
+      <c r="C65" t="s">
         <v>1786</v>
-      </c>
-      <c r="C65" t="s">
-        <v>1787</v>
       </c>
       <c r="D65" t="str">
         <f>$C$1&amp;B65&amp;$D$1</f>
@@ -28294,10 +28285,10 @@
         <v>9062</v>
       </c>
       <c r="B66" t="s">
+        <v>1787</v>
+      </c>
+      <c r="C66" t="s">
         <v>1788</v>
-      </c>
-      <c r="C66" t="s">
-        <v>1789</v>
       </c>
       <c r="D66" t="str">
         <f>$C$1&amp;B66&amp;$D$1</f>
@@ -28322,10 +28313,10 @@
         <v>9065</v>
       </c>
       <c r="B69" t="s">
+        <v>1789</v>
+      </c>
+      <c r="C69" t="s">
         <v>1790</v>
-      </c>
-      <c r="C69" t="s">
-        <v>1791</v>
       </c>
       <c r="D69" t="str">
         <f>$C$1&amp;B69&amp;$D$1</f>
@@ -28338,10 +28329,10 @@
         <v>9066</v>
       </c>
       <c r="B70" t="s">
+        <v>1791</v>
+      </c>
+      <c r="C70" t="s">
         <v>1792</v>
-      </c>
-      <c r="C70" t="s">
-        <v>1793</v>
       </c>
       <c r="D70" t="str">
         <f>$C$1&amp;B70&amp;$D$1</f>
@@ -28354,10 +28345,10 @@
         <v>9067</v>
       </c>
       <c r="B71" t="s">
+        <v>1793</v>
+      </c>
+      <c r="C71" t="s">
         <v>1794</v>
-      </c>
-      <c r="C71" t="s">
-        <v>1795</v>
       </c>
       <c r="D71" t="str">
         <f>$C$1&amp;B71&amp;$D$1</f>
@@ -28370,10 +28361,10 @@
         <v>9068</v>
       </c>
       <c r="B72" t="s">
+        <v>1795</v>
+      </c>
+      <c r="C72" t="s">
         <v>1796</v>
-      </c>
-      <c r="C72" t="s">
-        <v>1797</v>
       </c>
       <c r="D72" t="str">
         <f>$C$1&amp;B72&amp;$D$1</f>
@@ -28386,10 +28377,10 @@
         <v>9069</v>
       </c>
       <c r="B73" t="s">
+        <v>1797</v>
+      </c>
+      <c r="C73" t="s">
         <v>1798</v>
-      </c>
-      <c r="C73" t="s">
-        <v>1799</v>
       </c>
       <c r="D73" t="str">
         <f>$C$1&amp;B73&amp;$D$1</f>
@@ -28414,10 +28405,10 @@
         <v>9072</v>
       </c>
       <c r="B76" t="s">
+        <v>1799</v>
+      </c>
+      <c r="C76" t="s">
         <v>1800</v>
-      </c>
-      <c r="C76" t="s">
-        <v>1801</v>
       </c>
       <c r="D76" t="str">
         <f>$C$1&amp;B76&amp;$D$1</f>
@@ -28430,10 +28421,10 @@
         <v>9073</v>
       </c>
       <c r="B77" t="s">
+        <v>1801</v>
+      </c>
+      <c r="C77" t="s">
         <v>1802</v>
-      </c>
-      <c r="C77" t="s">
-        <v>1803</v>
       </c>
       <c r="D77" t="str">
         <f>$C$1&amp;B77&amp;$D$1</f>
@@ -28446,10 +28437,10 @@
         <v>9074</v>
       </c>
       <c r="B78" t="s">
+        <v>1803</v>
+      </c>
+      <c r="C78" t="s">
         <v>1804</v>
-      </c>
-      <c r="C78" t="s">
-        <v>1805</v>
       </c>
       <c r="D78" t="str">
         <f>$C$1&amp;B78&amp;$D$1</f>
@@ -28462,10 +28453,10 @@
         <v>9075</v>
       </c>
       <c r="B79" t="s">
+        <v>1805</v>
+      </c>
+      <c r="C79" t="s">
         <v>1806</v>
-      </c>
-      <c r="C79" t="s">
-        <v>1807</v>
       </c>
       <c r="D79" t="str">
         <f>$C$1&amp;B79&amp;$D$1</f>
@@ -28478,10 +28469,10 @@
         <v>9076</v>
       </c>
       <c r="B80" t="s">
+        <v>1807</v>
+      </c>
+      <c r="C80" t="s">
         <v>1808</v>
-      </c>
-      <c r="C80" t="s">
-        <v>1809</v>
       </c>
       <c r="D80" t="str">
         <f>$C$1&amp;B80&amp;$D$1</f>
@@ -28494,10 +28485,10 @@
         <v>9077</v>
       </c>
       <c r="B81" t="s">
+        <v>1809</v>
+      </c>
+      <c r="C81" t="s">
         <v>1810</v>
-      </c>
-      <c r="C81" t="s">
-        <v>1811</v>
       </c>
       <c r="D81" t="str">
         <f>$C$1&amp;B81&amp;$D$1</f>
@@ -28530,10 +28521,10 @@
         <v>9080</v>
       </c>
       <c r="B84" t="s">
+        <v>1811</v>
+      </c>
+      <c r="C84" t="s">
         <v>1812</v>
-      </c>
-      <c r="C84" t="s">
-        <v>1813</v>
       </c>
       <c r="D84" t="str">
         <f t="shared" si="2"/>
@@ -28546,10 +28537,10 @@
         <v>9081</v>
       </c>
       <c r="B85" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="C85" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="D85" t="str">
         <f t="shared" si="2"/>
@@ -28562,10 +28553,10 @@
         <v>9082</v>
       </c>
       <c r="B86" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="C86" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="D86" t="str">
         <f t="shared" si="2"/>
@@ -28578,10 +28569,10 @@
         <v>9083</v>
       </c>
       <c r="B87" t="s">
+        <v>1815</v>
+      </c>
+      <c r="C87" t="s">
         <v>1816</v>
-      </c>
-      <c r="C87" t="s">
-        <v>1817</v>
       </c>
       <c r="D87" t="str">
         <f t="shared" si="2"/>
@@ -28594,10 +28585,10 @@
         <v>9084</v>
       </c>
       <c r="B88" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="C88" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="D88" t="str">
         <f t="shared" si="2"/>
@@ -28610,10 +28601,10 @@
         <v>9085</v>
       </c>
       <c r="B89" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="C89" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="D89" t="str">
         <f t="shared" si="2"/>
@@ -28626,10 +28617,10 @@
         <v>9086</v>
       </c>
       <c r="B90" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="C90" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="D90" t="str">
         <f t="shared" si="2"/>
@@ -28642,10 +28633,10 @@
         <v>9087</v>
       </c>
       <c r="B91" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="C91" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="D91" t="str">
         <f t="shared" si="2"/>
@@ -28658,7 +28649,7 @@
         <v>9088</v>
       </c>
       <c r="B92" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="D92" t="str">
         <f t="shared" si="2"/>

--- a/mobi_client/mobi_client/mobi_config/excel/998_文本宏.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/998_文本宏.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="19530" windowHeight="9615" tabRatio="703" firstSheet="7" activeTab="8"/>
+    <workbookView windowWidth="28125" windowHeight="12420" tabRatio="703"/>
   </bookViews>
   <sheets>
     <sheet name="DialogMacro|系统文本宏" sheetId="1" r:id="rId1"/>
@@ -761,7 +761,7 @@
     <t>闪红震punch</t>
   </si>
   <si>
-    <t>{shake=1}{特殊-闪红效果}{播放音效,voice_lightpunch}</t>
+    <t>{shake=1}{特殊-闪红效果}{播放音效,avg_Slightpunch}</t>
   </si>
   <si>
     <t>闪红ding</t>
@@ -7601,8 +7601,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H369"/>
   <sheetViews>
-    <sheetView topLeftCell="A318" workbookViewId="0">
-      <selection activeCell="C358" sqref="C358"/>
+    <sheetView tabSelected="1" topLeftCell="A329" workbookViewId="0">
+      <selection activeCell="B360" sqref="B360"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -13883,7 +13883,7 @@
         <v>244</v>
       </c>
       <c r="D357" t="str">
-        <f t="shared" si="96"/>
+        <f>$C$1&amp;B357&amp;$D$1</f>
         <v>{#闪红震punch}</v>
       </c>
     </row>
@@ -17568,8 +17568,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D115"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F61" sqref="F61"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -27365,8 +27365,8 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:I95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/mobi_client/mobi_client/mobi_config/excel/998_文本宏.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/998_文本宏.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12420" tabRatio="703"/>
+    <workbookView windowWidth="28125" windowHeight="12420" tabRatio="703" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="DialogMacro|系统文本宏" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2485" uniqueCount="2159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2489" uniqueCount="2163">
   <si>
     <t>说明</t>
   </si>
@@ -4199,7 +4199,7 @@
     <t>周易害羞表情</t>
   </si>
   <si>
-    <t>{角色表情,zhouyi,周易_害羞_上脸_结束_01;周易_害羞_下嘴_结束_01,0.25}</t>
+    <t>{角色表情,zhouyi,周易_害羞_上脸_开始_01;周易_害羞_下嘴_结束_01,0.25}</t>
   </si>
   <si>
     <t>周易害羞表情恢复</t>
@@ -4317,6 +4317,18 @@
   </si>
   <si>
     <t>{角色动作,zhouyi,周易_惊讶_动作_结束_01}</t>
+  </si>
+  <si>
+    <t>周易惊讶2动作</t>
+  </si>
+  <si>
+    <t>{角色动作,zhouyi,周易_惊讶_动作_开始_02}</t>
+  </si>
+  <si>
+    <t>周易惊讶2动作恢复</t>
+  </si>
+  <si>
+    <t>{角色动作,zhouyi,周易_惊讶_动作_结束_02}</t>
   </si>
   <si>
     <t>周易转头左极眨眼转眼</t>
@@ -7601,8 +7613,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H369"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A329" workbookViewId="0">
-      <selection activeCell="B360" sqref="B360"/>
+    <sheetView topLeftCell="A206" workbookViewId="0">
+      <selection activeCell="C359" sqref="C359"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -14169,10 +14181,10 @@
         <v>10001</v>
       </c>
       <c r="B5" t="s">
-        <v>1822</v>
+        <v>1826</v>
       </c>
       <c r="C5" t="s">
-        <v>1823</v>
+        <v>1827</v>
       </c>
       <c r="D5" t="str">
         <f>$C$1&amp;B5&amp;$D$1</f>
@@ -14185,10 +14197,10 @@
         <v>10002</v>
       </c>
       <c r="B6" t="s">
-        <v>1824</v>
+        <v>1828</v>
       </c>
       <c r="C6" t="s">
-        <v>1825</v>
+        <v>1829</v>
       </c>
       <c r="D6" t="str">
         <f>$C$1&amp;B6&amp;$D$1</f>
@@ -14201,10 +14213,10 @@
         <v>10003</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>1826</v>
+        <v>1830</v>
       </c>
       <c r="C7" t="s">
-        <v>1827</v>
+        <v>1831</v>
       </c>
       <c r="D7" t="str">
         <f>$C$1&amp;B7&amp;$D$1</f>
@@ -14217,10 +14229,10 @@
         <v>10004</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>1828</v>
+        <v>1832</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>1829</v>
+        <v>1833</v>
       </c>
       <c r="D8" s="14" t="str">
         <f>$C$1&amp;B8&amp;$D$1</f>
@@ -14234,10 +14246,10 @@
         <v>10005</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>1830</v>
+        <v>1834</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>1831</v>
+        <v>1835</v>
       </c>
       <c r="D9" s="14" t="str">
         <f>$C$1&amp;B9&amp;$D$1</f>
@@ -14250,10 +14262,10 @@
         <v>10006</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>1832</v>
+        <v>1836</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>1833</v>
+        <v>1837</v>
       </c>
       <c r="D10" s="14" t="str">
         <f>$C$1&amp;B10&amp;$D$1</f>
@@ -14266,10 +14278,10 @@
         <v>10007</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>1834</v>
+        <v>1838</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>1835</v>
+        <v>1839</v>
       </c>
       <c r="D11" s="14" t="str">
         <f>$C$1&amp;B11&amp;$D$1</f>
@@ -14282,10 +14294,10 @@
         <v>10008</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>1836</v>
+        <v>1840</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>1837</v>
+        <v>1841</v>
       </c>
       <c r="D12" s="14" t="str">
         <f>$C$1&amp;B12&amp;$D$1</f>
@@ -14298,10 +14310,10 @@
         <v>10009</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>1838</v>
+        <v>1842</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>1839</v>
+        <v>1843</v>
       </c>
       <c r="D13" s="14" t="str">
         <f>$C$1&amp;B13&amp;$D$1</f>
@@ -14326,10 +14338,10 @@
         <v>10012</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>1840</v>
+        <v>1844</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>1841</v>
+        <v>1845</v>
       </c>
       <c r="D16" s="14" t="str">
         <f>$C$1&amp;B16&amp;$D$1</f>
@@ -14342,10 +14354,10 @@
         <v>10013</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>1842</v>
+        <v>1846</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>1843</v>
+        <v>1847</v>
       </c>
       <c r="D17" s="14" t="str">
         <f>$C$1&amp;B17&amp;$D$1</f>
@@ -14358,10 +14370,10 @@
         <v>10014</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>1844</v>
+        <v>1848</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>1845</v>
+        <v>1849</v>
       </c>
       <c r="D18" s="14" t="str">
         <f>$C$1&amp;B18&amp;$D$1</f>
@@ -14374,10 +14386,10 @@
         <v>10015</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>1846</v>
+        <v>1850</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>1847</v>
+        <v>1851</v>
       </c>
       <c r="D19" s="14" t="str">
         <f>$C$1&amp;B19&amp;$D$1</f>
@@ -14390,10 +14402,10 @@
         <v>10016</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>1848</v>
+        <v>1852</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>1849</v>
+        <v>1853</v>
       </c>
       <c r="D20" s="14" t="str">
         <f>$C$1&amp;B20&amp;$D$1</f>
@@ -14406,10 +14418,10 @@
         <v>10017</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>1850</v>
+        <v>1854</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>1851</v>
+        <v>1855</v>
       </c>
       <c r="D21" s="14" t="str">
         <f>$C$1&amp;B21&amp;$D$1</f>
@@ -14422,10 +14434,10 @@
         <v>10018</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>1852</v>
+        <v>1856</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>1853</v>
+        <v>1857</v>
       </c>
       <c r="D22" s="14" t="str">
         <f>$C$1&amp;B22&amp;$D$1</f>
@@ -14438,10 +14450,10 @@
         <v>10019</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>1854</v>
+        <v>1858</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>1855</v>
+        <v>1859</v>
       </c>
       <c r="D23" s="14" t="str">
         <f>$C$1&amp;B23&amp;$D$1</f>
@@ -14466,10 +14478,10 @@
         <v>10022</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>1856</v>
+        <v>1860</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>1857</v>
+        <v>1861</v>
       </c>
       <c r="D26" t="str">
         <f>$C$1&amp;B26&amp;$D$1</f>
@@ -14483,10 +14495,10 @@
         <v>10023</v>
       </c>
       <c r="B27" t="s">
-        <v>1858</v>
+        <v>1862</v>
       </c>
       <c r="C27" t="s">
-        <v>1859</v>
+        <v>1863</v>
       </c>
       <c r="D27" t="str">
         <f>$C$1&amp;B27&amp;$D$1</f>
@@ -14500,10 +14512,10 @@
         <v>10024</v>
       </c>
       <c r="B28" t="s">
-        <v>1860</v>
+        <v>1864</v>
       </c>
       <c r="C28" t="s">
-        <v>1857</v>
+        <v>1861</v>
       </c>
       <c r="D28" t="str">
         <f>$C$1&amp;B28&amp;$D$1</f>
@@ -14517,10 +14529,10 @@
         <v>10025</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>1861</v>
+        <v>1865</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>1862</v>
+        <v>1866</v>
       </c>
       <c r="D29" s="14" t="str">
         <f>$C$1&amp;B29&amp;$D$1</f>
@@ -14533,10 +14545,10 @@
         <v>10026</v>
       </c>
       <c r="B30" t="s">
-        <v>1863</v>
+        <v>1867</v>
       </c>
       <c r="C30" t="s">
-        <v>1857</v>
+        <v>1861</v>
       </c>
       <c r="D30" t="str">
         <f>$C$1&amp;B30&amp;$D$1</f>
@@ -14549,10 +14561,10 @@
         <v>10027</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>1864</v>
+        <v>1868</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>1865</v>
+        <v>1869</v>
       </c>
       <c r="D31" s="14" t="str">
         <f>$C$1&amp;B31&amp;$D$1</f>
@@ -14566,10 +14578,10 @@
         <v>10028</v>
       </c>
       <c r="B32" t="s">
-        <v>1866</v>
+        <v>1870</v>
       </c>
       <c r="C32" t="s">
-        <v>1857</v>
+        <v>1861</v>
       </c>
       <c r="D32" t="str">
         <f>$C$1&amp;B32&amp;$D$1</f>
@@ -14583,10 +14595,10 @@
         <v>10029</v>
       </c>
       <c r="B33" t="s">
-        <v>1867</v>
+        <v>1871</v>
       </c>
       <c r="C33" t="s">
-        <v>1868</v>
+        <v>1872</v>
       </c>
       <c r="D33" t="str">
         <f>$C$1&amp;B33&amp;$D$1</f>
@@ -14601,10 +14613,10 @@
         <v>10030</v>
       </c>
       <c r="B34" t="s">
-        <v>1869</v>
+        <v>1873</v>
       </c>
       <c r="C34" t="s">
-        <v>1857</v>
+        <v>1861</v>
       </c>
       <c r="D34" t="str">
         <f>$C$1&amp;B34&amp;$D$1</f>
@@ -14618,10 +14630,10 @@
         <v>10031</v>
       </c>
       <c r="B35" t="s">
-        <v>1870</v>
+        <v>1874</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>1871</v>
+        <v>1875</v>
       </c>
       <c r="D35" t="str">
         <f>$C$1&amp;B35&amp;$D$1</f>
@@ -14636,10 +14648,10 @@
         <v>10032</v>
       </c>
       <c r="B36" t="s">
-        <v>1872</v>
+        <v>1876</v>
       </c>
       <c r="C36" t="s">
-        <v>1857</v>
+        <v>1861</v>
       </c>
       <c r="D36" t="str">
         <f>$C$1&amp;B36&amp;$D$1</f>
@@ -14653,10 +14665,10 @@
         <v>10033</v>
       </c>
       <c r="B37" t="s">
-        <v>1873</v>
+        <v>1877</v>
       </c>
       <c r="C37" t="s">
-        <v>1874</v>
+        <v>1878</v>
       </c>
       <c r="D37" t="str">
         <f>$C$1&amp;B37&amp;$D$1</f>
@@ -14670,10 +14682,10 @@
         <v>10034</v>
       </c>
       <c r="B38" t="s">
-        <v>1875</v>
+        <v>1879</v>
       </c>
       <c r="C38" t="s">
-        <v>1857</v>
+        <v>1861</v>
       </c>
       <c r="D38" t="str">
         <f>$C$1&amp;B38&amp;$D$1</f>
@@ -14686,10 +14698,10 @@
         <v>10035</v>
       </c>
       <c r="B39" t="s">
-        <v>1876</v>
+        <v>1880</v>
       </c>
       <c r="C39" t="s">
-        <v>1877</v>
+        <v>1881</v>
       </c>
       <c r="D39" t="str">
         <f>$C$1&amp;B39&amp;$D$1</f>
@@ -14702,10 +14714,10 @@
         <v>10036</v>
       </c>
       <c r="B40" t="s">
-        <v>1878</v>
+        <v>1882</v>
       </c>
       <c r="C40" t="s">
-        <v>1857</v>
+        <v>1861</v>
       </c>
       <c r="D40" t="str">
         <f>$C$1&amp;B40&amp;$D$1</f>
@@ -14718,10 +14730,10 @@
         <v>10037</v>
       </c>
       <c r="B41" t="s">
-        <v>1879</v>
+        <v>1883</v>
       </c>
       <c r="C41" t="s">
-        <v>1880</v>
+        <v>1884</v>
       </c>
       <c r="D41" t="str">
         <f>$C$1&amp;B41&amp;$D$1</f>
@@ -14735,10 +14747,10 @@
         <v>10038</v>
       </c>
       <c r="B42" t="s">
-        <v>1881</v>
+        <v>1885</v>
       </c>
       <c r="C42" t="s">
-        <v>1857</v>
+        <v>1861</v>
       </c>
       <c r="D42" t="str">
         <f>$C$1&amp;B42&amp;$D$1</f>
@@ -14764,13 +14776,13 @@
         <v>10041</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>1882</v>
+        <v>1886</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>1883</v>
+        <v>1887</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>1884</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -14779,13 +14791,13 @@
         <v>10042</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>1885</v>
+        <v>1889</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>1886</v>
+        <v>1890</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>1887</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="47" s="14" customFormat="1" spans="1:4">
@@ -14794,13 +14806,13 @@
         <v>10043</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>1888</v>
+        <v>1892</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>1889</v>
+        <v>1893</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>1890</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -14809,13 +14821,13 @@
         <v>10044</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>1891</v>
+        <v>1895</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>1892</v>
+        <v>1896</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>1893</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -14824,13 +14836,13 @@
         <v>10045</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>1894</v>
+        <v>1898</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>1895</v>
+        <v>1899</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>1896</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -14839,13 +14851,13 @@
         <v>10046</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>1897</v>
+        <v>1901</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>1898</v>
+        <v>1902</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>1899</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -14854,13 +14866,13 @@
         <v>10047</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>1900</v>
+        <v>1904</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>1901</v>
+        <v>1905</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>1902</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -14869,13 +14881,13 @@
         <v>10048</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>1903</v>
+        <v>1907</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>1904</v>
+        <v>1908</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>1905</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="53" spans="1:1">
@@ -14976,10 +14988,10 @@
         <v>11001</v>
       </c>
       <c r="B5" t="s">
-        <v>1906</v>
+        <v>1910</v>
       </c>
       <c r="C5" t="s">
-        <v>1907</v>
+        <v>1911</v>
       </c>
       <c r="D5" t="str">
         <f>$C$1&amp;B5&amp;$D$1</f>
@@ -14992,10 +15004,10 @@
         <v>11002</v>
       </c>
       <c r="B6" t="s">
-        <v>1908</v>
+        <v>1912</v>
       </c>
       <c r="C6" t="s">
-        <v>1909</v>
+        <v>1913</v>
       </c>
       <c r="D6" t="str">
         <f>$C$1&amp;B6&amp;$D$1</f>
@@ -15008,10 +15020,10 @@
         <v>11003</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>1910</v>
+        <v>1914</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>1907</v>
+        <v>1911</v>
       </c>
       <c r="D7" s="12" t="str">
         <f>$C$1&amp;B7&amp;$D$1</f>
@@ -15024,10 +15036,10 @@
         <v>11004</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>1911</v>
+        <v>1915</v>
       </c>
       <c r="C8" t="s">
-        <v>1912</v>
+        <v>1916</v>
       </c>
       <c r="D8" t="str">
         <f>$C$1&amp;B8&amp;$D$1</f>
@@ -15040,10 +15052,10 @@
         <v>11005</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>1913</v>
+        <v>1917</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>1914</v>
+        <v>1918</v>
       </c>
       <c r="D9" s="14" t="str">
         <f>$C$1&amp;B9&amp;$D$1</f>
@@ -15057,10 +15069,10 @@
         <v>11006</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>1915</v>
+        <v>1919</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>1907</v>
+        <v>1911</v>
       </c>
       <c r="D10" s="12" t="str">
         <f>$C$1&amp;B10&amp;$D$1</f>
@@ -15073,10 +15085,10 @@
         <v>11007</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>1916</v>
+        <v>1920</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>1917</v>
+        <v>1921</v>
       </c>
       <c r="D11" s="14" t="str">
         <f>$C$1&amp;B11&amp;$D$1</f>
@@ -15101,10 +15113,10 @@
         <v>11010</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>1918</v>
+        <v>1922</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>1919</v>
+        <v>1923</v>
       </c>
       <c r="D14" s="14" t="str">
         <f>$C$1&amp;B14&amp;$D$1</f>
@@ -15117,10 +15129,10 @@
         <v>11011</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>1920</v>
+        <v>1924</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>1921</v>
+        <v>1925</v>
       </c>
       <c r="D15" s="14" t="str">
         <f t="shared" ref="D15:D20" si="0">$C$1&amp;B15&amp;$D$1</f>
@@ -15133,10 +15145,10 @@
         <v>11012</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>1922</v>
+        <v>1926</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>1923</v>
+        <v>1927</v>
       </c>
       <c r="D16" s="14" t="str">
         <f t="shared" si="0"/>
@@ -15149,10 +15161,10 @@
         <v>11013</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>1924</v>
+        <v>1928</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>1925</v>
+        <v>1929</v>
       </c>
       <c r="D17" s="14" t="str">
         <f t="shared" si="0"/>
@@ -15165,10 +15177,10 @@
         <v>11014</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>1926</v>
+        <v>1930</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>1927</v>
+        <v>1931</v>
       </c>
       <c r="D18" s="14" t="str">
         <f t="shared" si="0"/>
@@ -15181,10 +15193,10 @@
         <v>11015</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>1928</v>
+        <v>1932</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>1929</v>
+        <v>1933</v>
       </c>
       <c r="D19" s="14" t="str">
         <f t="shared" si="0"/>
@@ -15197,10 +15209,10 @@
         <v>11016</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>1930</v>
+        <v>1934</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>1931</v>
+        <v>1935</v>
       </c>
       <c r="D20" s="14" t="str">
         <f t="shared" si="0"/>
@@ -15225,10 +15237,10 @@
         <v>11019</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>1932</v>
+        <v>1936</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>1933</v>
+        <v>1937</v>
       </c>
       <c r="D23" s="14" t="str">
         <f>$C$1&amp;B23&amp;$D$1</f>
@@ -15241,10 +15253,10 @@
         <v>11020</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>1934</v>
+        <v>1938</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>1907</v>
+        <v>1911</v>
       </c>
       <c r="D24" s="12" t="str">
         <f>$C$1&amp;B24&amp;$D$1</f>
@@ -15257,10 +15269,10 @@
         <v>11021</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>1935</v>
+        <v>1939</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>1936</v>
+        <v>1940</v>
       </c>
       <c r="D25" s="14" t="str">
         <f>$C$1&amp;B25&amp;$D$1</f>
@@ -15273,10 +15285,10 @@
         <v>11022</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>1937</v>
+        <v>1941</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>1938</v>
+        <v>1942</v>
       </c>
       <c r="D26" s="14" t="str">
         <f>$C$1&amp;B26&amp;$D$1</f>
@@ -15289,10 +15301,10 @@
         <v>11023</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>1939</v>
+        <v>1943</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>1907</v>
+        <v>1911</v>
       </c>
       <c r="D27" s="12" t="str">
         <f>$C$1&amp;B27&amp;$D$1</f>
@@ -15305,10 +15317,10 @@
         <v>11024</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>1940</v>
+        <v>1944</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>1941</v>
+        <v>1945</v>
       </c>
       <c r="D28" s="14" t="str">
         <f>$C$1&amp;B28&amp;$D$1</f>
@@ -15333,10 +15345,10 @@
         <v>11027</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>1942</v>
+        <v>1946</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>1919</v>
+        <v>1923</v>
       </c>
       <c r="D31" s="14" t="str">
         <f>$C$1&amp;B31&amp;$D$1</f>
@@ -15349,10 +15361,10 @@
         <v>11028</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>1943</v>
+        <v>1947</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>1944</v>
+        <v>1948</v>
       </c>
       <c r="D32" s="14" t="str">
         <f t="shared" ref="D32:D37" si="2">$C$1&amp;B32&amp;$D$1</f>
@@ -15365,10 +15377,10 @@
         <v>11029</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>1945</v>
+        <v>1949</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>1946</v>
+        <v>1950</v>
       </c>
       <c r="D33" s="14" t="str">
         <f t="shared" si="2"/>
@@ -15381,10 +15393,10 @@
         <v>11030</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>1947</v>
+        <v>1951</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>1948</v>
+        <v>1952</v>
       </c>
       <c r="D34" s="14" t="str">
         <f t="shared" si="2"/>
@@ -15397,10 +15409,10 @@
         <v>11031</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>1949</v>
+        <v>1953</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>1950</v>
+        <v>1954</v>
       </c>
       <c r="D35" s="14" t="str">
         <f t="shared" si="2"/>
@@ -15413,10 +15425,10 @@
         <v>11032</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>1951</v>
+        <v>1955</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>1952</v>
+        <v>1956</v>
       </c>
       <c r="D36" s="14" t="str">
         <f t="shared" si="2"/>
@@ -15429,10 +15441,10 @@
         <v>11033</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>1953</v>
+        <v>1957</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>1907</v>
+        <v>1911</v>
       </c>
       <c r="D37" s="14" t="str">
         <f t="shared" si="2"/>
@@ -15457,10 +15469,10 @@
         <v>11036</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>1954</v>
+        <v>1958</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>1955</v>
+        <v>1959</v>
       </c>
       <c r="D40" t="str">
         <f>$C$1&amp;B40&amp;$D$1</f>
@@ -15474,10 +15486,10 @@
         <v>11037</v>
       </c>
       <c r="B41" t="s">
-        <v>1956</v>
+        <v>1960</v>
       </c>
       <c r="C41" t="s">
-        <v>1957</v>
+        <v>1961</v>
       </c>
       <c r="D41" t="str">
         <f>$C$1&amp;B41&amp;$D$1</f>
@@ -15491,10 +15503,10 @@
         <v>11038</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>1958</v>
+        <v>1962</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>1955</v>
+        <v>1959</v>
       </c>
       <c r="D42" s="12" t="str">
         <f>$C$1&amp;B42&amp;$D$1</f>
@@ -15507,10 +15519,10 @@
         <v>11039</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>1959</v>
+        <v>1963</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>1960</v>
+        <v>1964</v>
       </c>
       <c r="D43" s="14" t="str">
         <f>$C$1&amp;B43&amp;$D$1</f>
@@ -15523,10 +15535,10 @@
         <v>11040</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>1961</v>
+        <v>1965</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>1962</v>
+        <v>1966</v>
       </c>
       <c r="D44" s="14" t="str">
         <f>$C$1&amp;B44&amp;$D$1</f>
@@ -15540,10 +15552,10 @@
         <v>11041</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>1963</v>
+        <v>1967</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>1955</v>
+        <v>1959</v>
       </c>
       <c r="D45" s="12" t="str">
         <f>$C$1&amp;B45&amp;$D$1</f>
@@ -15556,10 +15568,10 @@
         <v>11042</v>
       </c>
       <c r="B46" t="s">
-        <v>1964</v>
+        <v>1968</v>
       </c>
       <c r="C46" t="s">
-        <v>1965</v>
+        <v>1969</v>
       </c>
       <c r="D46" t="str">
         <f>$C$1&amp;B46&amp;$D$1</f>
@@ -15574,10 +15586,10 @@
         <v>11043</v>
       </c>
       <c r="B47" t="s">
-        <v>1966</v>
+        <v>1970</v>
       </c>
       <c r="C47" t="s">
-        <v>1955</v>
+        <v>1959</v>
       </c>
       <c r="D47" t="str">
         <f>$C$1&amp;B47&amp;$D$1</f>
@@ -15712,10 +15724,10 @@
         <v>12001</v>
       </c>
       <c r="B5" t="s">
-        <v>1967</v>
+        <v>1971</v>
       </c>
       <c r="C5" t="s">
-        <v>1968</v>
+        <v>1972</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" ref="D5:D16" si="0">$C$1&amp;B5&amp;$D$1</f>
@@ -15727,10 +15739,10 @@
         <v>12002</v>
       </c>
       <c r="B6" t="s">
-        <v>1969</v>
+        <v>1973</v>
       </c>
       <c r="C6" t="s">
-        <v>1970</v>
+        <v>1974</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
@@ -15742,10 +15754,10 @@
         <v>12003</v>
       </c>
       <c r="B7" t="s">
-        <v>1971</v>
+        <v>1975</v>
       </c>
       <c r="C7" t="s">
-        <v>1972</v>
+        <v>1976</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
@@ -15757,10 +15769,10 @@
         <v>12004</v>
       </c>
       <c r="B8" t="s">
-        <v>1973</v>
+        <v>1977</v>
       </c>
       <c r="C8" t="s">
-        <v>1974</v>
+        <v>1978</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
@@ -15773,10 +15785,10 @@
         <v>12005</v>
       </c>
       <c r="B9" t="s">
-        <v>1975</v>
+        <v>1979</v>
       </c>
       <c r="C9" t="s">
-        <v>1976</v>
+        <v>1980</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="0"/>
@@ -15789,10 +15801,10 @@
         <v>12006</v>
       </c>
       <c r="B10" t="s">
-        <v>1977</v>
+        <v>1981</v>
       </c>
       <c r="C10" t="s">
-        <v>1978</v>
+        <v>1982</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
@@ -15804,10 +15816,10 @@
         <v>12007</v>
       </c>
       <c r="B11" t="s">
-        <v>1979</v>
+        <v>1983</v>
       </c>
       <c r="C11" t="s">
-        <v>1980</v>
+        <v>1984</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="0"/>
@@ -15819,10 +15831,10 @@
         <v>12008</v>
       </c>
       <c r="B12" t="s">
-        <v>1981</v>
+        <v>1985</v>
       </c>
       <c r="C12" t="s">
-        <v>1982</v>
+        <v>1986</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
@@ -15834,10 +15846,10 @@
         <v>12009</v>
       </c>
       <c r="B13" t="s">
-        <v>1983</v>
+        <v>1987</v>
       </c>
       <c r="C13" t="s">
-        <v>1984</v>
+        <v>1988</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="0"/>
@@ -15849,10 +15861,10 @@
         <v>12010</v>
       </c>
       <c r="B14" t="s">
-        <v>1985</v>
+        <v>1989</v>
       </c>
       <c r="C14" t="s">
-        <v>1986</v>
+        <v>1990</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
@@ -15864,10 +15876,10 @@
         <v>12011</v>
       </c>
       <c r="B15" t="s">
-        <v>1987</v>
+        <v>1991</v>
       </c>
       <c r="C15" t="s">
-        <v>1988</v>
+        <v>1992</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="0"/>
@@ -15879,10 +15891,10 @@
         <v>12012</v>
       </c>
       <c r="B16" t="s">
-        <v>1989</v>
+        <v>1993</v>
       </c>
       <c r="C16" t="s">
-        <v>1990</v>
+        <v>1994</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="0"/>
@@ -15894,10 +15906,10 @@
         <v>12013</v>
       </c>
       <c r="B17" t="s">
-        <v>1991</v>
+        <v>1995</v>
       </c>
       <c r="C17" t="s">
-        <v>1992</v>
+        <v>1996</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" ref="D17:D26" si="1">$C$1&amp;B17&amp;$D$1</f>
@@ -15909,10 +15921,10 @@
         <v>12014</v>
       </c>
       <c r="B18" t="s">
-        <v>1993</v>
+        <v>1997</v>
       </c>
       <c r="C18" t="s">
-        <v>1994</v>
+        <v>1998</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="1"/>
@@ -15925,10 +15937,10 @@
         <v>12015</v>
       </c>
       <c r="B19" t="s">
-        <v>1995</v>
+        <v>1999</v>
       </c>
       <c r="C19" t="s">
-        <v>1996</v>
+        <v>2000</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="1"/>
@@ -15941,10 +15953,10 @@
         <v>12016</v>
       </c>
       <c r="B20" t="s">
-        <v>1997</v>
+        <v>2001</v>
       </c>
       <c r="C20" t="s">
-        <v>1998</v>
+        <v>2002</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" si="1"/>
@@ -15957,10 +15969,10 @@
         <v>12017</v>
       </c>
       <c r="B21" t="s">
-        <v>1999</v>
+        <v>2003</v>
       </c>
       <c r="C21" t="s">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" si="1"/>
@@ -15973,10 +15985,10 @@
         <v>12018</v>
       </c>
       <c r="B22" t="s">
-        <v>2001</v>
+        <v>2005</v>
       </c>
       <c r="C22" t="s">
-        <v>2002</v>
+        <v>2006</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" si="1"/>
@@ -15989,10 +16001,10 @@
         <v>12019</v>
       </c>
       <c r="B23" t="s">
-        <v>2003</v>
+        <v>2007</v>
       </c>
       <c r="C23" t="s">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" si="1"/>
@@ -16005,10 +16017,10 @@
         <v>12020</v>
       </c>
       <c r="B24" t="s">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="C24" t="s">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="D24" t="str">
         <f t="shared" si="1"/>
@@ -16021,10 +16033,10 @@
         <v>12021</v>
       </c>
       <c r="B25" t="s">
-        <v>2007</v>
+        <v>2011</v>
       </c>
       <c r="C25" t="s">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="D25" t="str">
         <f t="shared" si="1"/>
@@ -16037,10 +16049,10 @@
         <v>12022</v>
       </c>
       <c r="B26" t="s">
-        <v>2009</v>
+        <v>2013</v>
       </c>
       <c r="C26" t="s">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="D26" t="str">
         <f t="shared" si="1"/>
@@ -16059,10 +16071,10 @@
         <v>12024</v>
       </c>
       <c r="B28" t="s">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="C28" t="s">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="D28" t="str">
         <f t="shared" ref="D28:D44" si="2">$C$1&amp;B28&amp;$D$1</f>
@@ -16074,10 +16086,10 @@
         <v>12025</v>
       </c>
       <c r="B29" t="s">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="C29" t="s">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="D29" t="str">
         <f t="shared" si="2"/>
@@ -16089,10 +16101,10 @@
         <v>12026</v>
       </c>
       <c r="B30" t="s">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="C30" t="s">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="D30" t="str">
         <f t="shared" si="2"/>
@@ -16104,10 +16116,10 @@
         <v>12027</v>
       </c>
       <c r="B31" t="s">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="C31" t="s">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="D31" t="str">
         <f t="shared" si="2"/>
@@ -16119,10 +16131,10 @@
         <v>12028</v>
       </c>
       <c r="B32" t="s">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="C32" t="s">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="D32" t="str">
         <f t="shared" si="2"/>
@@ -16134,10 +16146,10 @@
         <v>12029</v>
       </c>
       <c r="B33" t="s">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="C33" t="s">
-        <v>2021</v>
+        <v>2025</v>
       </c>
       <c r="D33" t="str">
         <f t="shared" si="2"/>
@@ -16149,10 +16161,10 @@
         <v>12030</v>
       </c>
       <c r="B34" t="s">
-        <v>2022</v>
+        <v>2026</v>
       </c>
       <c r="C34" t="s">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="D34" t="str">
         <f t="shared" si="2"/>
@@ -16164,10 +16176,10 @@
         <v>12031</v>
       </c>
       <c r="B35" t="s">
-        <v>2023</v>
+        <v>2027</v>
       </c>
       <c r="C35" t="s">
-        <v>2024</v>
+        <v>2028</v>
       </c>
       <c r="D35" t="str">
         <f t="shared" si="2"/>
@@ -16179,10 +16191,10 @@
         <v>12032</v>
       </c>
       <c r="B36" t="s">
-        <v>2025</v>
+        <v>2029</v>
       </c>
       <c r="C36" t="s">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="D36" t="str">
         <f t="shared" si="2"/>
@@ -16194,10 +16206,10 @@
         <v>12033</v>
       </c>
       <c r="B37" t="s">
-        <v>2026</v>
+        <v>2030</v>
       </c>
       <c r="C37" t="s">
-        <v>2027</v>
+        <v>2031</v>
       </c>
       <c r="D37" t="str">
         <f t="shared" si="2"/>
@@ -16209,10 +16221,10 @@
         <v>12034</v>
       </c>
       <c r="B38" t="s">
-        <v>2028</v>
+        <v>2032</v>
       </c>
       <c r="C38" t="s">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="D38" t="str">
         <f t="shared" si="2"/>
@@ -16224,10 +16236,10 @@
         <v>12035</v>
       </c>
       <c r="B39" t="s">
-        <v>2029</v>
+        <v>2033</v>
       </c>
       <c r="C39" t="s">
-        <v>2030</v>
+        <v>2034</v>
       </c>
       <c r="D39" t="str">
         <f t="shared" si="2"/>
@@ -16239,10 +16251,10 @@
         <v>12036</v>
       </c>
       <c r="B40" t="s">
-        <v>2031</v>
+        <v>2035</v>
       </c>
       <c r="C40" t="s">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="D40" t="str">
         <f t="shared" si="2"/>
@@ -16254,10 +16266,10 @@
         <v>12037</v>
       </c>
       <c r="B41" t="s">
-        <v>2032</v>
+        <v>2036</v>
       </c>
       <c r="C41" t="s">
-        <v>2033</v>
+        <v>2037</v>
       </c>
       <c r="D41" t="str">
         <f t="shared" si="2"/>
@@ -16269,10 +16281,10 @@
         <v>12038</v>
       </c>
       <c r="B42" t="s">
-        <v>2034</v>
+        <v>2038</v>
       </c>
       <c r="C42" t="s">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="D42" t="str">
         <f t="shared" si="2"/>
@@ -16284,10 +16296,10 @@
         <v>12039</v>
       </c>
       <c r="B43" t="s">
-        <v>2035</v>
+        <v>2039</v>
       </c>
       <c r="C43" t="s">
-        <v>2036</v>
+        <v>2040</v>
       </c>
       <c r="D43" t="str">
         <f t="shared" si="2"/>
@@ -16299,10 +16311,10 @@
         <v>12040</v>
       </c>
       <c r="B44" t="s">
-        <v>2037</v>
+        <v>2041</v>
       </c>
       <c r="C44" t="s">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="D44" t="str">
         <f t="shared" si="2"/>
@@ -16319,10 +16331,10 @@
         <v>12042</v>
       </c>
       <c r="B46" t="s">
-        <v>2038</v>
+        <v>2042</v>
       </c>
       <c r="C46" t="s">
-        <v>2039</v>
+        <v>2043</v>
       </c>
       <c r="D46" t="str">
         <f>$C$1&amp;B46&amp;$D$1</f>
@@ -16334,10 +16346,10 @@
         <v>12043</v>
       </c>
       <c r="B47" t="s">
-        <v>2040</v>
+        <v>2044</v>
       </c>
       <c r="C47" t="s">
-        <v>2041</v>
+        <v>2045</v>
       </c>
       <c r="D47" t="str">
         <f>$C$1&amp;B47&amp;$D$1</f>
@@ -16354,13 +16366,13 @@
         <v>12045</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>2042</v>
+        <v>2046</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>2043</v>
+        <v>2047</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>2044</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -16368,13 +16380,13 @@
         <v>12046</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>2045</v>
+        <v>2049</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>2046</v>
+        <v>2050</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>2047</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -16382,13 +16394,13 @@
         <v>12047</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>2048</v>
+        <v>2052</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>2049</v>
+        <v>2053</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>2050</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -16396,13 +16408,13 @@
         <v>12048</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>2051</v>
+        <v>2055</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>2052</v>
+        <v>2056</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>2053</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -16410,13 +16422,13 @@
         <v>12049</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>2054</v>
+        <v>2058</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>2055</v>
+        <v>2059</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>2056</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -16424,13 +16436,13 @@
         <v>12050</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>2057</v>
+        <v>2061</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>2058</v>
+        <v>2062</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>2059</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -16438,13 +16450,13 @@
         <v>12051</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>2060</v>
+        <v>2064</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>2061</v>
+        <v>2065</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>2062</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -16452,13 +16464,13 @@
         <v>12052</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>2063</v>
+        <v>2067</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>2064</v>
+        <v>2068</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>2065</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="57" spans="1:1">
@@ -16552,10 +16564,10 @@
         <v>13001</v>
       </c>
       <c r="B5" t="s">
-        <v>2066</v>
+        <v>2070</v>
       </c>
       <c r="C5" t="s">
-        <v>2067</v>
+        <v>2071</v>
       </c>
       <c r="D5" t="str">
         <f>$C$1&amp;B5&amp;$D$1</f>
@@ -16568,10 +16580,10 @@
         <v>13002</v>
       </c>
       <c r="B6" t="s">
-        <v>2068</v>
+        <v>2072</v>
       </c>
       <c r="C6" t="s">
-        <v>2069</v>
+        <v>2073</v>
       </c>
       <c r="D6" t="str">
         <f>$C$1&amp;B6&amp;$D$1</f>
@@ -16584,10 +16596,10 @@
         <v>13003</v>
       </c>
       <c r="B7" t="s">
-        <v>2070</v>
+        <v>2074</v>
       </c>
       <c r="C7" t="s">
-        <v>2071</v>
+        <v>2075</v>
       </c>
       <c r="D7" t="str">
         <f>$C$1&amp;B7&amp;$D$1</f>
@@ -16600,10 +16612,10 @@
         <v>13004</v>
       </c>
       <c r="B8" t="s">
-        <v>2072</v>
+        <v>2076</v>
       </c>
       <c r="C8" t="s">
-        <v>2073</v>
+        <v>2077</v>
       </c>
       <c r="D8" t="str">
         <f>$C$1&amp;B8&amp;$D$1</f>
@@ -16617,10 +16629,10 @@
         <v>13005</v>
       </c>
       <c r="B9" t="s">
-        <v>2074</v>
+        <v>2078</v>
       </c>
       <c r="C9" t="s">
-        <v>2075</v>
+        <v>2079</v>
       </c>
       <c r="D9" t="str">
         <f>$C$1&amp;B9&amp;$D$1</f>
@@ -16634,10 +16646,10 @@
         <v>13006</v>
       </c>
       <c r="B10" t="s">
-        <v>2076</v>
+        <v>2080</v>
       </c>
       <c r="C10" t="s">
-        <v>2077</v>
+        <v>2081</v>
       </c>
       <c r="D10" t="str">
         <f>$C$1&amp;B10&amp;$D$1</f>
@@ -16650,10 +16662,10 @@
         <v>13007</v>
       </c>
       <c r="B11" t="s">
-        <v>2078</v>
+        <v>2082</v>
       </c>
       <c r="C11" t="s">
-        <v>2079</v>
+        <v>2083</v>
       </c>
       <c r="D11" t="str">
         <f>$C$1&amp;B11&amp;$D$1</f>
@@ -16666,10 +16678,10 @@
         <v>13008</v>
       </c>
       <c r="B12" t="s">
-        <v>2080</v>
+        <v>2084</v>
       </c>
       <c r="C12" t="s">
-        <v>2081</v>
+        <v>2085</v>
       </c>
       <c r="D12" t="str">
         <f>$C$1&amp;B12&amp;$D$1</f>
@@ -16682,10 +16694,10 @@
         <v>13009</v>
       </c>
       <c r="B13" t="s">
-        <v>2082</v>
+        <v>2086</v>
       </c>
       <c r="C13" t="s">
-        <v>2083</v>
+        <v>2087</v>
       </c>
       <c r="D13" t="str">
         <f>$C$1&amp;B13&amp;$D$1</f>
@@ -16698,10 +16710,10 @@
         <v>13010</v>
       </c>
       <c r="B14" t="s">
-        <v>2084</v>
+        <v>2088</v>
       </c>
       <c r="C14" t="s">
-        <v>2085</v>
+        <v>2089</v>
       </c>
       <c r="D14" t="str">
         <f>$C$1&amp;B14&amp;$D$1</f>
@@ -16714,10 +16726,10 @@
         <v>13011</v>
       </c>
       <c r="B15" t="s">
-        <v>2086</v>
+        <v>2090</v>
       </c>
       <c r="C15" t="s">
-        <v>2087</v>
+        <v>2091</v>
       </c>
       <c r="D15" t="str">
         <f>$C$1&amp;B15&amp;$D$1</f>
@@ -16730,10 +16742,10 @@
         <v>13012</v>
       </c>
       <c r="B16" t="s">
-        <v>2088</v>
+        <v>2092</v>
       </c>
       <c r="C16" t="s">
-        <v>2089</v>
+        <v>2093</v>
       </c>
       <c r="D16" t="str">
         <f>$C$1&amp;B16&amp;$D$1</f>
@@ -16746,10 +16758,10 @@
         <v>13013</v>
       </c>
       <c r="B17" t="s">
-        <v>2090</v>
+        <v>2094</v>
       </c>
       <c r="C17" t="s">
-        <v>2091</v>
+        <v>2095</v>
       </c>
       <c r="D17" t="str">
         <f>$C$1&amp;B17&amp;$D$1</f>
@@ -16762,10 +16774,10 @@
         <v>13014</v>
       </c>
       <c r="B18" t="s">
-        <v>2092</v>
+        <v>2096</v>
       </c>
       <c r="C18" t="s">
-        <v>2093</v>
+        <v>2097</v>
       </c>
       <c r="D18" t="str">
         <f>$C$1&amp;B18&amp;$D$1</f>
@@ -16779,10 +16791,10 @@
         <v>13015</v>
       </c>
       <c r="B19" t="s">
-        <v>2094</v>
+        <v>2098</v>
       </c>
       <c r="C19" t="s">
-        <v>2095</v>
+        <v>2099</v>
       </c>
       <c r="D19" t="str">
         <f>$C$1&amp;B19&amp;$D$1</f>
@@ -16796,10 +16808,10 @@
         <v>13016</v>
       </c>
       <c r="B20" t="s">
-        <v>2096</v>
+        <v>2100</v>
       </c>
       <c r="C20" t="s">
-        <v>2097</v>
+        <v>2101</v>
       </c>
       <c r="D20" t="str">
         <f>$C$1&amp;B20&amp;$D$1</f>
@@ -16813,10 +16825,10 @@
         <v>13017</v>
       </c>
       <c r="B21" t="s">
-        <v>2098</v>
+        <v>2102</v>
       </c>
       <c r="C21" t="s">
-        <v>2099</v>
+        <v>2103</v>
       </c>
       <c r="D21" t="str">
         <f>$C$1&amp;B21&amp;$D$1</f>
@@ -16830,10 +16842,10 @@
         <v>13018</v>
       </c>
       <c r="B22" t="s">
-        <v>2100</v>
+        <v>2104</v>
       </c>
       <c r="C22" t="s">
-        <v>2101</v>
+        <v>2105</v>
       </c>
       <c r="D22" t="str">
         <f>$C$1&amp;B22&amp;$D$1</f>
@@ -16847,10 +16859,10 @@
         <v>13019</v>
       </c>
       <c r="B23" t="s">
-        <v>2102</v>
+        <v>2106</v>
       </c>
       <c r="C23" t="s">
-        <v>2103</v>
+        <v>2107</v>
       </c>
       <c r="D23" t="str">
         <f>$C$1&amp;B23&amp;$D$1</f>
@@ -16864,10 +16876,10 @@
         <v>13020</v>
       </c>
       <c r="B24" t="s">
-        <v>2104</v>
+        <v>2108</v>
       </c>
       <c r="C24" t="s">
-        <v>2105</v>
+        <v>2109</v>
       </c>
       <c r="D24" t="str">
         <f>$C$1&amp;B24&amp;$D$1</f>
@@ -16881,10 +16893,10 @@
         <v>13021</v>
       </c>
       <c r="B25" t="s">
-        <v>2106</v>
+        <v>2110</v>
       </c>
       <c r="C25" t="s">
-        <v>2107</v>
+        <v>2111</v>
       </c>
       <c r="D25" t="str">
         <f>$C$1&amp;B25&amp;$D$1</f>
@@ -16898,10 +16910,10 @@
         <v>13022</v>
       </c>
       <c r="B26" t="s">
-        <v>2108</v>
+        <v>2112</v>
       </c>
       <c r="C26" t="s">
-        <v>2109</v>
+        <v>2113</v>
       </c>
       <c r="D26" t="str">
         <f>$C$1&amp;B26&amp;$D$1</f>
@@ -16922,10 +16934,10 @@
         <v>13024</v>
       </c>
       <c r="B28" t="s">
-        <v>2110</v>
+        <v>2114</v>
       </c>
       <c r="C28" t="s">
-        <v>2111</v>
+        <v>2115</v>
       </c>
       <c r="D28" t="str">
         <f>$C$1&amp;B28&amp;$D$1</f>
@@ -16938,10 +16950,10 @@
         <v>13025</v>
       </c>
       <c r="B29" t="s">
-        <v>2112</v>
+        <v>2116</v>
       </c>
       <c r="C29" t="s">
-        <v>2113</v>
+        <v>2117</v>
       </c>
       <c r="D29" t="str">
         <f>$C$1&amp;B29&amp;$D$1</f>
@@ -16954,10 +16966,10 @@
         <v>13026</v>
       </c>
       <c r="B30" t="s">
-        <v>2114</v>
+        <v>2118</v>
       </c>
       <c r="C30" t="s">
-        <v>2115</v>
+        <v>2119</v>
       </c>
       <c r="D30" t="str">
         <f>$C$1&amp;B30&amp;$D$1</f>
@@ -16970,10 +16982,10 @@
         <v>13027</v>
       </c>
       <c r="B31" t="s">
-        <v>2116</v>
+        <v>2120</v>
       </c>
       <c r="C31" t="s">
-        <v>2117</v>
+        <v>2121</v>
       </c>
       <c r="D31" t="str">
         <f>$C$1&amp;B31&amp;$D$1</f>
@@ -16986,10 +16998,10 @@
         <v>13028</v>
       </c>
       <c r="B32" t="s">
-        <v>2118</v>
+        <v>2122</v>
       </c>
       <c r="C32" t="s">
-        <v>2115</v>
+        <v>2119</v>
       </c>
       <c r="D32" t="str">
         <f>$C$1&amp;B32&amp;$D$1</f>
@@ -17002,10 +17014,10 @@
         <v>13029</v>
       </c>
       <c r="B33" t="s">
-        <v>2119</v>
+        <v>2123</v>
       </c>
       <c r="C33" t="s">
-        <v>2120</v>
+        <v>2124</v>
       </c>
       <c r="D33" t="str">
         <f>$C$1&amp;B33&amp;$D$1</f>
@@ -17018,10 +17030,10 @@
         <v>13030</v>
       </c>
       <c r="B34" t="s">
-        <v>2121</v>
+        <v>2125</v>
       </c>
       <c r="C34" t="s">
-        <v>2115</v>
+        <v>2119</v>
       </c>
       <c r="D34" t="str">
         <f>$C$1&amp;B34&amp;$D$1</f>
@@ -17034,10 +17046,10 @@
         <v>13031</v>
       </c>
       <c r="B35" t="s">
-        <v>2122</v>
+        <v>2126</v>
       </c>
       <c r="C35" t="s">
-        <v>2123</v>
+        <v>2127</v>
       </c>
       <c r="D35" t="str">
         <f>$C$1&amp;B35&amp;$D$1</f>
@@ -17050,10 +17062,10 @@
         <v>13032</v>
       </c>
       <c r="B36" t="s">
-        <v>2124</v>
+        <v>2128</v>
       </c>
       <c r="C36" t="s">
-        <v>2115</v>
+        <v>2119</v>
       </c>
       <c r="D36" t="str">
         <f>$C$1&amp;B36&amp;$D$1</f>
@@ -17066,10 +17078,10 @@
         <v>13033</v>
       </c>
       <c r="B37" t="s">
-        <v>2125</v>
+        <v>2129</v>
       </c>
       <c r="C37" t="s">
-        <v>2126</v>
+        <v>2130</v>
       </c>
       <c r="D37" t="str">
         <f>$C$1&amp;B37&amp;$D$1</f>
@@ -17082,10 +17094,10 @@
         <v>13034</v>
       </c>
       <c r="B38" t="s">
-        <v>2127</v>
+        <v>2131</v>
       </c>
       <c r="C38" t="s">
-        <v>2115</v>
+        <v>2119</v>
       </c>
       <c r="D38" t="str">
         <f>$C$1&amp;B38&amp;$D$1</f>
@@ -17098,10 +17110,10 @@
         <v>13035</v>
       </c>
       <c r="B39" t="s">
-        <v>2128</v>
+        <v>2132</v>
       </c>
       <c r="C39" t="s">
-        <v>2129</v>
+        <v>2133</v>
       </c>
       <c r="D39" t="str">
         <f>$C$1&amp;B39&amp;$D$1</f>
@@ -17114,10 +17126,10 @@
         <v>13036</v>
       </c>
       <c r="B40" t="s">
-        <v>2130</v>
+        <v>2134</v>
       </c>
       <c r="C40" t="s">
-        <v>2115</v>
+        <v>2119</v>
       </c>
       <c r="D40" t="str">
         <f>$C$1&amp;B40&amp;$D$1</f>
@@ -17130,10 +17142,10 @@
         <v>13037</v>
       </c>
       <c r="B41" t="s">
-        <v>2131</v>
+        <v>2135</v>
       </c>
       <c r="C41" t="s">
-        <v>2132</v>
+        <v>2136</v>
       </c>
       <c r="D41" t="str">
         <f>$C$1&amp;B41&amp;$D$1</f>
@@ -17146,10 +17158,10 @@
         <v>13038</v>
       </c>
       <c r="B42" t="s">
-        <v>2133</v>
+        <v>2137</v>
       </c>
       <c r="C42" t="s">
-        <v>2115</v>
+        <v>2119</v>
       </c>
       <c r="D42" t="str">
         <f>$C$1&amp;B42&amp;$D$1</f>
@@ -17162,10 +17174,10 @@
         <v>13039</v>
       </c>
       <c r="B43" t="s">
-        <v>2134</v>
+        <v>2138</v>
       </c>
       <c r="C43" t="s">
-        <v>2135</v>
+        <v>2139</v>
       </c>
       <c r="D43" t="str">
         <f>$C$1&amp;B43&amp;$D$1</f>
@@ -17178,10 +17190,10 @@
         <v>13040</v>
       </c>
       <c r="B44" t="s">
-        <v>2136</v>
+        <v>2140</v>
       </c>
       <c r="C44" t="s">
-        <v>2115</v>
+        <v>2119</v>
       </c>
       <c r="D44" t="str">
         <f>$C$1&amp;B44&amp;$D$1</f>
@@ -17200,10 +17212,10 @@
         <v>13042</v>
       </c>
       <c r="B46" t="s">
-        <v>2137</v>
+        <v>2141</v>
       </c>
       <c r="C46" t="s">
-        <v>2138</v>
+        <v>2142</v>
       </c>
       <c r="D46" t="str">
         <f>$C$1&amp;B46&amp;$D$1</f>
@@ -17216,10 +17228,10 @@
         <v>13043</v>
       </c>
       <c r="B47" t="s">
-        <v>2139</v>
+        <v>2143</v>
       </c>
       <c r="C47" t="s">
-        <v>2140</v>
+        <v>2144</v>
       </c>
       <c r="D47" t="str">
         <f>$C$1&amp;B47&amp;$D$1</f>
@@ -17238,13 +17250,13 @@
         <v>13045</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>2141</v>
+        <v>2145</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>2043</v>
+        <v>2047</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>2142</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -17253,13 +17265,13 @@
         <v>13046</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>2143</v>
+        <v>2147</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>2046</v>
+        <v>2050</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>2144</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -17268,13 +17280,13 @@
         <v>13047</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>2145</v>
+        <v>2149</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>2049</v>
+        <v>2053</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>2146</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -17283,13 +17295,13 @@
         <v>13048</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>2147</v>
+        <v>2151</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>2052</v>
+        <v>2056</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>2148</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -17298,13 +17310,13 @@
         <v>13049</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>2149</v>
+        <v>2153</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>2055</v>
+        <v>2059</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>2150</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -17313,13 +17325,13 @@
         <v>13050</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>2151</v>
+        <v>2155</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>2058</v>
+        <v>2062</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>2152</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -17328,13 +17340,13 @@
         <v>13051</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>2153</v>
+        <v>2157</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>2061</v>
+        <v>2065</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>2154</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -17343,13 +17355,13 @@
         <v>13052</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>2155</v>
+        <v>2159</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>2064</v>
+        <v>2068</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>2156</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="57" spans="1:1">
@@ -17444,10 +17456,10 @@
         <v>99001</v>
       </c>
       <c r="B5" t="s">
-        <v>2157</v>
+        <v>2161</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>2158</v>
+        <v>2162</v>
       </c>
       <c r="D5" t="str">
         <f>$C$1&amp;B5&amp;$D$1</f>
@@ -23673,10 +23685,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:F93"/>
+  <dimension ref="A1:F95"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -24975,110 +24987,116 @@
       </c>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="14">
+      <c r="A82">
         <f>$B$1+ROW()-4</f>
         <v>5078</v>
       </c>
-      <c r="B82" s="20" t="s">
+      <c r="B82" t="s">
         <v>1430</v>
       </c>
-      <c r="C82" s="21" t="s">
+      <c r="C82" t="s">
         <v>1431</v>
       </c>
-      <c r="D82" s="20" t="s">
-        <v>1432</v>
+      <c r="D82" t="str">
+        <f>$C$1&amp;B82&amp;$D$1</f>
+        <v>{#周易惊讶2动作}</v>
       </c>
       <c r="E82" s="14"/>
       <c r="F82" s="14"/>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:6">
       <c r="A83">
         <f>$B$1+ROW()-4</f>
         <v>5079</v>
       </c>
-      <c r="B83" s="20" t="s">
+      <c r="B83" t="s">
+        <v>1432</v>
+      </c>
+      <c r="C83" t="s">
         <v>1433</v>
       </c>
-      <c r="C83" s="21" t="s">
-        <v>1434</v>
-      </c>
-      <c r="D83" s="20" t="s">
-        <v>1435</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84">
+      <c r="D83" t="str">
+        <f>$C$1&amp;B83&amp;$D$1</f>
+        <v>{#周易惊讶2动作恢复}</v>
+      </c>
+      <c r="E83" s="14"/>
+      <c r="F83" s="14"/>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="14">
         <f>$B$1+ROW()-4</f>
         <v>5080</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="20" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C84" s="21" t="s">
+        <v>1435</v>
+      </c>
+      <c r="D84" s="20" t="s">
         <v>1436</v>
       </c>
-      <c r="C84" t="s">
-        <v>1437</v>
-      </c>
-      <c r="D84" s="20" t="s">
-        <v>1438</v>
-      </c>
+      <c r="E84" s="14"/>
+      <c r="F84" s="14"/>
     </row>
     <row r="85" spans="1:4">
       <c r="A85">
-        <f t="shared" ref="A85:A93" si="11">$B$1+ROW()-4</f>
+        <f>$B$1+ROW()-4</f>
         <v>5081</v>
       </c>
-      <c r="B85" s="11" t="s">
+      <c r="B85" s="20" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C85" s="21" t="s">
+        <v>1438</v>
+      </c>
+      <c r="D85" s="20" t="s">
         <v>1439</v>
-      </c>
-      <c r="C85" s="11" t="s">
-        <v>1440</v>
-      </c>
-      <c r="D85" s="11" t="s">
-        <v>1441</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86">
-        <f t="shared" si="11"/>
+        <f>$B$1+ROW()-4</f>
         <v>5082</v>
       </c>
-      <c r="B86" s="11" t="s">
+      <c r="B86" t="s">
+        <v>1440</v>
+      </c>
+      <c r="C86" t="s">
+        <v>1441</v>
+      </c>
+      <c r="D86" s="20" t="s">
         <v>1442</v>
-      </c>
-      <c r="C86" s="11" t="s">
-        <v>1443</v>
-      </c>
-      <c r="D86" s="11" t="s">
-        <v>1444</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="A87:A95" si="11">$B$1+ROW()-4</f>
         <v>5083</v>
       </c>
       <c r="B87" s="11" t="s">
+        <v>1443</v>
+      </c>
+      <c r="C87" s="11" t="s">
+        <v>1444</v>
+      </c>
+      <c r="D87" s="11" t="s">
         <v>1445</v>
       </c>
-      <c r="C87" s="11" t="s">
-        <v>1446</v>
-      </c>
-      <c r="D87" s="11" t="s">
-        <v>1447</v>
-      </c>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="14">
+      <c r="A88">
         <f t="shared" si="11"/>
         <v>5084</v>
       </c>
       <c r="B88" s="11" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C88" s="11" t="s">
+        <v>1447</v>
+      </c>
+      <c r="D88" s="11" t="s">
         <v>1448</v>
-      </c>
-      <c r="C88" s="11" t="s">
-        <v>1449</v>
-      </c>
-      <c r="D88" s="11" t="s">
-        <v>1450</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -25087,28 +25105,28 @@
         <v>5085</v>
       </c>
       <c r="B89" s="11" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C89" s="11" t="s">
+        <v>1450</v>
+      </c>
+      <c r="D89" s="11" t="s">
         <v>1451</v>
       </c>
-      <c r="C89" s="11" t="s">
-        <v>1452</v>
-      </c>
-      <c r="D89" s="11" t="s">
-        <v>1453</v>
-      </c>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90">
+      <c r="A90" s="14">
         <f t="shared" si="11"/>
         <v>5086</v>
       </c>
       <c r="B90" s="11" t="s">
+        <v>1452</v>
+      </c>
+      <c r="C90" s="11" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D90" s="11" t="s">
         <v>1454</v>
-      </c>
-      <c r="C90" s="11" t="s">
-        <v>1455</v>
-      </c>
-      <c r="D90" s="11" t="s">
-        <v>1456</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -25117,13 +25135,13 @@
         <v>5087</v>
       </c>
       <c r="B91" s="11" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C91" s="11" t="s">
+        <v>1456</v>
+      </c>
+      <c r="D91" s="11" t="s">
         <v>1457</v>
-      </c>
-      <c r="C91" s="11" t="s">
-        <v>1458</v>
-      </c>
-      <c r="D91" s="11" t="s">
-        <v>1459</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -25132,19 +25150,49 @@
         <v>5088</v>
       </c>
       <c r="B92" s="11" t="s">
+        <v>1458</v>
+      </c>
+      <c r="C92" s="11" t="s">
+        <v>1459</v>
+      </c>
+      <c r="D92" s="11" t="s">
         <v>1460</v>
       </c>
-      <c r="C92" s="11" t="s">
-        <v>1461</v>
-      </c>
-      <c r="D92" s="11" t="s">
-        <v>1462</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1">
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93">
         <f t="shared" si="11"/>
         <v>5089</v>
+      </c>
+      <c r="B93" s="11" t="s">
+        <v>1461</v>
+      </c>
+      <c r="C93" s="11" t="s">
+        <v>1462</v>
+      </c>
+      <c r="D93" s="11" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94">
+        <f t="shared" si="11"/>
+        <v>5090</v>
+      </c>
+      <c r="B94" s="11" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C94" s="11" t="s">
+        <v>1465</v>
+      </c>
+      <c r="D94" s="11" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95">
+        <f t="shared" si="11"/>
+        <v>5091</v>
       </c>
     </row>
   </sheetData>
@@ -25233,10 +25281,10 @@
         <v>6001</v>
       </c>
       <c r="B5" t="s">
-        <v>1463</v>
+        <v>1467</v>
       </c>
       <c r="C5" t="s">
-        <v>1464</v>
+        <v>1468</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" ref="D5:D27" si="0">$C$1&amp;B5&amp;$D$1</f>
@@ -25249,10 +25297,10 @@
         <v>6002</v>
       </c>
       <c r="B6" t="s">
-        <v>1465</v>
+        <v>1469</v>
       </c>
       <c r="C6" t="s">
-        <v>1466</v>
+        <v>1470</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
@@ -25265,10 +25313,10 @@
         <v>6003</v>
       </c>
       <c r="B7" t="s">
-        <v>1467</v>
+        <v>1471</v>
       </c>
       <c r="C7" t="s">
-        <v>1468</v>
+        <v>1472</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
@@ -25281,10 +25329,10 @@
         <v>6004</v>
       </c>
       <c r="B8" t="s">
-        <v>1469</v>
+        <v>1473</v>
       </c>
       <c r="C8" t="s">
-        <v>1470</v>
+        <v>1474</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
@@ -25297,10 +25345,10 @@
         <v>6005</v>
       </c>
       <c r="B9" t="s">
-        <v>1471</v>
+        <v>1475</v>
       </c>
       <c r="C9" t="s">
-        <v>1472</v>
+        <v>1476</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="0"/>
@@ -25313,10 +25361,10 @@
         <v>6006</v>
       </c>
       <c r="B10" t="s">
-        <v>1473</v>
+        <v>1477</v>
       </c>
       <c r="C10" t="s">
-        <v>1474</v>
+        <v>1478</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
@@ -25329,10 +25377,10 @@
         <v>6007</v>
       </c>
       <c r="B11" t="s">
-        <v>1475</v>
+        <v>1479</v>
       </c>
       <c r="C11" t="s">
-        <v>1476</v>
+        <v>1480</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="0"/>
@@ -25345,10 +25393,10 @@
         <v>6008</v>
       </c>
       <c r="B12" t="s">
-        <v>1477</v>
+        <v>1481</v>
       </c>
       <c r="C12" t="s">
-        <v>1478</v>
+        <v>1482</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
@@ -25361,10 +25409,10 @@
         <v>6009</v>
       </c>
       <c r="B13" t="s">
-        <v>1479</v>
+        <v>1483</v>
       </c>
       <c r="C13" t="s">
-        <v>1480</v>
+        <v>1484</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="0"/>
@@ -25377,10 +25425,10 @@
         <v>6010</v>
       </c>
       <c r="B14" t="s">
-        <v>1481</v>
+        <v>1485</v>
       </c>
       <c r="C14" t="s">
-        <v>1482</v>
+        <v>1486</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
@@ -25393,10 +25441,10 @@
         <v>6011</v>
       </c>
       <c r="B15" t="s">
-        <v>1483</v>
+        <v>1487</v>
       </c>
       <c r="C15" t="s">
-        <v>1484</v>
+        <v>1488</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="0"/>
@@ -25409,10 +25457,10 @@
         <v>6012</v>
       </c>
       <c r="B16" t="s">
-        <v>1485</v>
+        <v>1489</v>
       </c>
       <c r="C16" t="s">
-        <v>1486</v>
+        <v>1490</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="0"/>
@@ -25425,10 +25473,10 @@
         <v>6013</v>
       </c>
       <c r="B17" t="s">
-        <v>1487</v>
+        <v>1491</v>
       </c>
       <c r="C17" t="s">
-        <v>1488</v>
+        <v>1492</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="0"/>
@@ -25441,10 +25489,10 @@
         <v>6014</v>
       </c>
       <c r="B18" t="s">
-        <v>1489</v>
+        <v>1493</v>
       </c>
       <c r="C18" t="s">
-        <v>1490</v>
+        <v>1494</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="0"/>
@@ -25457,10 +25505,10 @@
         <v>6015</v>
       </c>
       <c r="B19" t="s">
-        <v>1491</v>
+        <v>1495</v>
       </c>
       <c r="C19" t="s">
-        <v>1492</v>
+        <v>1496</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="0"/>
@@ -25473,10 +25521,10 @@
         <v>6016</v>
       </c>
       <c r="B20" t="s">
-        <v>1493</v>
+        <v>1497</v>
       </c>
       <c r="C20" t="s">
-        <v>1494</v>
+        <v>1498</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" si="0"/>
@@ -25489,10 +25537,10 @@
         <v>6017</v>
       </c>
       <c r="B21" t="s">
-        <v>1495</v>
+        <v>1499</v>
       </c>
       <c r="C21" t="s">
-        <v>1496</v>
+        <v>1500</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" si="0"/>
@@ -25505,10 +25553,10 @@
         <v>6018</v>
       </c>
       <c r="B22" t="s">
-        <v>1497</v>
+        <v>1501</v>
       </c>
       <c r="C22" t="s">
-        <v>1498</v>
+        <v>1502</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" si="0"/>
@@ -25521,10 +25569,10 @@
         <v>6019</v>
       </c>
       <c r="B23" t="s">
-        <v>1499</v>
+        <v>1503</v>
       </c>
       <c r="C23" t="s">
-        <v>1500</v>
+        <v>1504</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" si="0"/>
@@ -25537,10 +25585,10 @@
         <v>6020</v>
       </c>
       <c r="B24" t="s">
-        <v>1501</v>
+        <v>1505</v>
       </c>
       <c r="C24" t="s">
-        <v>1502</v>
+        <v>1506</v>
       </c>
       <c r="D24" t="str">
         <f t="shared" si="0"/>
@@ -25553,10 +25601,10 @@
         <v>6021</v>
       </c>
       <c r="B25" t="s">
-        <v>1503</v>
+        <v>1507</v>
       </c>
       <c r="C25" t="s">
-        <v>1504</v>
+        <v>1508</v>
       </c>
       <c r="D25" t="str">
         <f t="shared" si="0"/>
@@ -25569,10 +25617,10 @@
         <v>6022</v>
       </c>
       <c r="B26" t="s">
-        <v>1505</v>
+        <v>1509</v>
       </c>
       <c r="C26" t="s">
-        <v>1464</v>
+        <v>1468</v>
       </c>
       <c r="D26" t="str">
         <f t="shared" si="0"/>
@@ -25585,10 +25633,10 @@
         <v>6023</v>
       </c>
       <c r="B27" t="s">
-        <v>1506</v>
+        <v>1510</v>
       </c>
       <c r="C27" t="s">
-        <v>1507</v>
+        <v>1511</v>
       </c>
       <c r="D27" t="str">
         <f t="shared" si="0"/>
@@ -25601,10 +25649,10 @@
         <v>6024</v>
       </c>
       <c r="B28" t="s">
-        <v>1508</v>
+        <v>1512</v>
       </c>
       <c r="C28" t="s">
-        <v>1509</v>
+        <v>1513</v>
       </c>
       <c r="D28" t="str">
         <f t="shared" ref="D28:D33" si="3">$C$1&amp;B28&amp;$D$1</f>
@@ -25617,10 +25665,10 @@
         <v>6025</v>
       </c>
       <c r="B29" t="s">
-        <v>1510</v>
+        <v>1514</v>
       </c>
       <c r="C29" t="s">
-        <v>1511</v>
+        <v>1515</v>
       </c>
       <c r="D29" t="str">
         <f t="shared" si="3"/>
@@ -25633,10 +25681,10 @@
         <v>6026</v>
       </c>
       <c r="B30" t="s">
-        <v>1512</v>
+        <v>1516</v>
       </c>
       <c r="C30" t="s">
-        <v>1509</v>
+        <v>1513</v>
       </c>
       <c r="D30" t="str">
         <f t="shared" si="3"/>
@@ -25649,10 +25697,10 @@
         <v>6027</v>
       </c>
       <c r="B31" t="s">
-        <v>1513</v>
+        <v>1517</v>
       </c>
       <c r="C31" t="s">
-        <v>1514</v>
+        <v>1518</v>
       </c>
       <c r="D31" t="str">
         <f t="shared" si="3"/>
@@ -25665,10 +25713,10 @@
         <v>6028</v>
       </c>
       <c r="B32" t="s">
-        <v>1515</v>
+        <v>1519</v>
       </c>
       <c r="C32" t="s">
-        <v>1509</v>
+        <v>1513</v>
       </c>
       <c r="D32" t="str">
         <f t="shared" si="3"/>
@@ -25681,10 +25729,10 @@
         <v>6029</v>
       </c>
       <c r="B33" t="s">
-        <v>1516</v>
+        <v>1520</v>
       </c>
       <c r="C33" t="s">
-        <v>1517</v>
+        <v>1521</v>
       </c>
       <c r="D33" t="str">
         <f t="shared" si="3"/>
@@ -25697,10 +25745,10 @@
         <v>6030</v>
       </c>
       <c r="B34" t="s">
-        <v>1518</v>
+        <v>1522</v>
       </c>
       <c r="C34" t="s">
-        <v>1509</v>
+        <v>1513</v>
       </c>
       <c r="D34" t="str">
         <f>$C$1&amp;B34&amp;$D$1</f>
@@ -25713,10 +25761,10 @@
         <v>6031</v>
       </c>
       <c r="B35" t="s">
-        <v>1519</v>
+        <v>1523</v>
       </c>
       <c r="C35" t="s">
-        <v>1520</v>
+        <v>1524</v>
       </c>
       <c r="D35" t="str">
         <f t="shared" ref="D35:D48" si="4">$C$1&amp;B35&amp;$D$1</f>
@@ -25729,10 +25777,10 @@
         <v>6032</v>
       </c>
       <c r="B36" t="s">
-        <v>1521</v>
+        <v>1525</v>
       </c>
       <c r="C36" t="s">
-        <v>1509</v>
+        <v>1513</v>
       </c>
       <c r="D36" t="str">
         <f t="shared" si="4"/>
@@ -25745,10 +25793,10 @@
         <v>6033</v>
       </c>
       <c r="B37" t="s">
-        <v>1522</v>
+        <v>1526</v>
       </c>
       <c r="C37" t="s">
-        <v>1523</v>
+        <v>1527</v>
       </c>
       <c r="D37" t="str">
         <f t="shared" si="4"/>
@@ -25761,10 +25809,10 @@
         <v>6034</v>
       </c>
       <c r="B38" t="s">
-        <v>1524</v>
+        <v>1528</v>
       </c>
       <c r="C38" t="s">
-        <v>1509</v>
+        <v>1513</v>
       </c>
       <c r="D38" t="str">
         <f t="shared" si="4"/>
@@ -25777,10 +25825,10 @@
         <v>6035</v>
       </c>
       <c r="B39" t="s">
-        <v>1525</v>
+        <v>1529</v>
       </c>
       <c r="C39" t="s">
-        <v>1526</v>
+        <v>1530</v>
       </c>
       <c r="D39" t="str">
         <f t="shared" si="4"/>
@@ -25793,10 +25841,10 @@
         <v>6036</v>
       </c>
       <c r="B40" t="s">
-        <v>1527</v>
+        <v>1531</v>
       </c>
       <c r="C40" t="s">
-        <v>1509</v>
+        <v>1513</v>
       </c>
       <c r="D40" t="str">
         <f t="shared" si="4"/>
@@ -25809,10 +25857,10 @@
         <v>6037</v>
       </c>
       <c r="B41" t="s">
-        <v>1528</v>
+        <v>1532</v>
       </c>
       <c r="C41" t="s">
-        <v>1529</v>
+        <v>1533</v>
       </c>
       <c r="D41" t="str">
         <f t="shared" si="4"/>
@@ -25825,10 +25873,10 @@
         <v>6038</v>
       </c>
       <c r="B42" t="s">
-        <v>1530</v>
+        <v>1534</v>
       </c>
       <c r="C42" t="s">
-        <v>1509</v>
+        <v>1513</v>
       </c>
       <c r="D42" t="str">
         <f t="shared" si="4"/>
@@ -25841,10 +25889,10 @@
         <v>6039</v>
       </c>
       <c r="B43" t="s">
-        <v>1531</v>
+        <v>1535</v>
       </c>
       <c r="C43" t="s">
-        <v>1532</v>
+        <v>1536</v>
       </c>
       <c r="D43" t="str">
         <f t="shared" si="4"/>
@@ -25857,10 +25905,10 @@
         <v>6040</v>
       </c>
       <c r="B44" t="s">
-        <v>1533</v>
+        <v>1537</v>
       </c>
       <c r="C44" t="s">
-        <v>1509</v>
+        <v>1513</v>
       </c>
       <c r="D44" t="str">
         <f t="shared" si="4"/>
@@ -25873,10 +25921,10 @@
         <v>6041</v>
       </c>
       <c r="B45" t="s">
-        <v>1534</v>
+        <v>1538</v>
       </c>
       <c r="C45" t="s">
-        <v>1535</v>
+        <v>1539</v>
       </c>
       <c r="D45" t="str">
         <f t="shared" si="4"/>
@@ -25889,10 +25937,10 @@
         <v>6042</v>
       </c>
       <c r="B46" t="s">
-        <v>1536</v>
+        <v>1540</v>
       </c>
       <c r="C46" t="s">
-        <v>1509</v>
+        <v>1513</v>
       </c>
       <c r="D46" t="str">
         <f t="shared" si="4"/>
@@ -25905,10 +25953,10 @@
         <v>6043</v>
       </c>
       <c r="B47" t="s">
-        <v>1537</v>
+        <v>1541</v>
       </c>
       <c r="C47" t="s">
-        <v>1538</v>
+        <v>1542</v>
       </c>
       <c r="D47" t="str">
         <f t="shared" si="4"/>
@@ -25921,10 +25969,10 @@
         <v>6044</v>
       </c>
       <c r="B48" t="s">
-        <v>1539</v>
+        <v>1543</v>
       </c>
       <c r="C48" t="s">
-        <v>1540</v>
+        <v>1544</v>
       </c>
       <c r="D48" t="str">
         <f t="shared" si="4"/>
@@ -25937,13 +25985,13 @@
         <v>6045</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>1541</v>
+        <v>1545</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>1542</v>
+        <v>1546</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>1543</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -25952,13 +26000,13 @@
         <v>6046</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>1544</v>
+        <v>1548</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>1545</v>
+        <v>1549</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>1546</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -25967,13 +26015,13 @@
         <v>6047</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>1547</v>
+        <v>1551</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>1548</v>
+        <v>1552</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>1549</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -25982,13 +26030,13 @@
         <v>6048</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>1550</v>
+        <v>1554</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>1551</v>
+        <v>1555</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>1552</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -25997,13 +26045,13 @@
         <v>6049</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>1553</v>
+        <v>1557</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>1554</v>
+        <v>1558</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>1555</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -26012,13 +26060,13 @@
         <v>6050</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>1556</v>
+        <v>1560</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>1557</v>
+        <v>1561</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -26027,13 +26075,13 @@
         <v>6051</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>1559</v>
+        <v>1563</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>1560</v>
+        <v>1564</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>1561</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -26042,13 +26090,13 @@
         <v>6052</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>1562</v>
+        <v>1566</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>1563</v>
+        <v>1567</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>1564</v>
+        <v>1568</v>
       </c>
     </row>
   </sheetData>
@@ -26137,10 +26185,10 @@
         <v>8001</v>
       </c>
       <c r="B5" t="s">
-        <v>1565</v>
+        <v>1569</v>
       </c>
       <c r="C5" t="s">
-        <v>1566</v>
+        <v>1570</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" ref="D5:D12" si="0">$C$1&amp;B5&amp;$D$1</f>
@@ -26153,10 +26201,10 @@
         <v>8002</v>
       </c>
       <c r="B6" t="s">
-        <v>1567</v>
+        <v>1571</v>
       </c>
       <c r="C6" t="s">
-        <v>1568</v>
+        <v>1572</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
@@ -26169,10 +26217,10 @@
         <v>8003</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>1569</v>
+        <v>1573</v>
       </c>
       <c r="C7" t="s">
-        <v>1570</v>
+        <v>1574</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
@@ -26185,10 +26233,10 @@
         <v>8004</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>1571</v>
+        <v>1575</v>
       </c>
       <c r="C8" t="s">
-        <v>1572</v>
+        <v>1576</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
@@ -26202,10 +26250,10 @@
         <v>8005</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>1573</v>
+        <v>1577</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>1574</v>
+        <v>1578</v>
       </c>
       <c r="D9" s="16" t="str">
         <f t="shared" si="0"/>
@@ -26218,10 +26266,10 @@
         <v>8006</v>
       </c>
       <c r="B10" t="s">
-        <v>1575</v>
+        <v>1579</v>
       </c>
       <c r="C10" t="s">
-        <v>1576</v>
+        <v>1580</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
@@ -26235,10 +26283,10 @@
         <v>8007</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>1577</v>
+        <v>1581</v>
       </c>
       <c r="C11" t="s">
-        <v>1578</v>
+        <v>1582</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="0"/>
@@ -26252,10 +26300,10 @@
         <v>8008</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>1579</v>
+        <v>1583</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>1580</v>
+        <v>1584</v>
       </c>
       <c r="D12" s="16" t="str">
         <f t="shared" si="0"/>
@@ -26268,10 +26316,10 @@
         <v>8009</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>1581</v>
+        <v>1585</v>
       </c>
       <c r="C13" t="s">
-        <v>1582</v>
+        <v>1586</v>
       </c>
       <c r="D13" t="str">
         <f>$C$1&amp;B13&amp;$D$1</f>
@@ -26285,10 +26333,10 @@
         <v>8010</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>1583</v>
+        <v>1587</v>
       </c>
       <c r="C14" t="s">
-        <v>1584</v>
+        <v>1588</v>
       </c>
       <c r="D14" t="str">
         <f>$C$1&amp;B14&amp;$D$1</f>
@@ -26302,10 +26350,10 @@
         <v>8011</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>1585</v>
+        <v>1589</v>
       </c>
       <c r="C15" t="s">
-        <v>1586</v>
+        <v>1590</v>
       </c>
       <c r="D15" t="str">
         <f>$C$1&amp;B15&amp;$D$1</f>
@@ -26319,10 +26367,10 @@
         <v>8012</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>1587</v>
+        <v>1591</v>
       </c>
       <c r="C16" t="s">
-        <v>1588</v>
+        <v>1592</v>
       </c>
       <c r="D16" t="str">
         <f>$C$1&amp;B16&amp;$D$1</f>
@@ -26336,10 +26384,10 @@
         <v>8013</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>1589</v>
+        <v>1593</v>
       </c>
       <c r="C17" t="s">
-        <v>1590</v>
+        <v>1594</v>
       </c>
       <c r="D17" t="str">
         <f>$C$1&amp;B17&amp;$D$1</f>
@@ -26353,10 +26401,10 @@
         <v>8014</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>1591</v>
+        <v>1595</v>
       </c>
       <c r="C18" t="s">
-        <v>1592</v>
+        <v>1596</v>
       </c>
       <c r="D18" t="str">
         <f>$C$1&amp;B18&amp;$D$1</f>
@@ -26370,10 +26418,10 @@
         <v>8015</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>1593</v>
+        <v>1597</v>
       </c>
       <c r="C19" t="s">
-        <v>1594</v>
+        <v>1598</v>
       </c>
       <c r="D19" t="str">
         <f>$C$1&amp;B19&amp;$D$1</f>
@@ -26402,10 +26450,10 @@
         <v>8018</v>
       </c>
       <c r="B22" t="s">
-        <v>1595</v>
+        <v>1599</v>
       </c>
       <c r="C22" t="s">
-        <v>1596</v>
+        <v>1600</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" ref="D22:D28" si="1">$C$1&amp;B22&amp;$D$1</f>
@@ -26419,10 +26467,10 @@
         <v>8019</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>1597</v>
+        <v>1601</v>
       </c>
       <c r="C23" t="s">
-        <v>1598</v>
+        <v>1602</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" si="1"/>
@@ -26436,10 +26484,10 @@
         <v>8020</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>1599</v>
+        <v>1603</v>
       </c>
       <c r="C24" t="s">
-        <v>1600</v>
+        <v>1604</v>
       </c>
       <c r="D24" t="str">
         <f t="shared" si="1"/>
@@ -26453,10 +26501,10 @@
         <v>8021</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>1601</v>
+        <v>1605</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>1602</v>
+        <v>1606</v>
       </c>
       <c r="D25" s="16" t="str">
         <f t="shared" si="1"/>
@@ -26469,10 +26517,10 @@
         <v>8022</v>
       </c>
       <c r="B26" t="s">
-        <v>1603</v>
+        <v>1607</v>
       </c>
       <c r="C26" t="s">
-        <v>1604</v>
+        <v>1608</v>
       </c>
       <c r="D26" t="str">
         <f t="shared" si="1"/>
@@ -26486,10 +26534,10 @@
         <v>8023</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>1605</v>
+        <v>1609</v>
       </c>
       <c r="C27" t="s">
-        <v>1606</v>
+        <v>1610</v>
       </c>
       <c r="D27" t="str">
         <f t="shared" si="1"/>
@@ -26503,10 +26551,10 @@
         <v>8024</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>1607</v>
+        <v>1611</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>1608</v>
+        <v>1612</v>
       </c>
       <c r="D28" s="16" t="str">
         <f t="shared" si="1"/>
@@ -26519,10 +26567,10 @@
         <v>8025</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>1609</v>
+        <v>1613</v>
       </c>
       <c r="C29" t="s">
-        <v>1610</v>
+        <v>1614</v>
       </c>
       <c r="D29" t="str">
         <f>$C$1&amp;B29&amp;$D$1</f>
@@ -26536,10 +26584,10 @@
         <v>8026</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>1611</v>
+        <v>1615</v>
       </c>
       <c r="C30" t="s">
-        <v>1612</v>
+        <v>1616</v>
       </c>
       <c r="D30" t="str">
         <f>$C$1&amp;B30&amp;$D$1</f>
@@ -26553,10 +26601,10 @@
         <v>8027</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>1613</v>
+        <v>1617</v>
       </c>
       <c r="C31" t="s">
-        <v>1614</v>
+        <v>1618</v>
       </c>
       <c r="D31" t="str">
         <f>$C$1&amp;B31&amp;$D$1</f>
@@ -26570,10 +26618,10 @@
         <v>8028</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>1615</v>
+        <v>1619</v>
       </c>
       <c r="C32" t="s">
-        <v>1616</v>
+        <v>1620</v>
       </c>
       <c r="D32" t="str">
         <f>$C$1&amp;B32&amp;$D$1</f>
@@ -26587,10 +26635,10 @@
         <v>8029</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>1617</v>
+        <v>1621</v>
       </c>
       <c r="C33" t="s">
-        <v>1618</v>
+        <v>1622</v>
       </c>
       <c r="D33" t="str">
         <f>$C$1&amp;B33&amp;$D$1</f>
@@ -26604,10 +26652,10 @@
         <v>8030</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>1619</v>
+        <v>1623</v>
       </c>
       <c r="C34" t="s">
-        <v>1620</v>
+        <v>1624</v>
       </c>
       <c r="D34" t="str">
         <f>$C$1&amp;B34&amp;$D$1</f>
@@ -26621,10 +26669,10 @@
         <v>8031</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>1621</v>
+        <v>1625</v>
       </c>
       <c r="C35" t="s">
-        <v>1622</v>
+        <v>1626</v>
       </c>
       <c r="D35" t="str">
         <f>$C$1&amp;B35&amp;$D$1</f>
@@ -26645,10 +26693,10 @@
         <v>8033</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>1623</v>
+        <v>1627</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>1624</v>
+        <v>1628</v>
       </c>
       <c r="D37" t="str">
         <f>$C$1&amp;B37&amp;$D$1</f>
@@ -26661,10 +26709,10 @@
         <v>8034</v>
       </c>
       <c r="B38" t="s">
-        <v>1625</v>
+        <v>1629</v>
       </c>
       <c r="C38" t="s">
-        <v>1626</v>
+        <v>1630</v>
       </c>
       <c r="D38" t="str">
         <f>$C$1&amp;B38&amp;$D$1</f>
@@ -26677,10 +26725,10 @@
         <v>8035</v>
       </c>
       <c r="B39" t="s">
-        <v>1627</v>
+        <v>1631</v>
       </c>
       <c r="C39" t="s">
-        <v>1624</v>
+        <v>1628</v>
       </c>
       <c r="D39" t="str">
         <f>$C$1&amp;B39&amp;$D$1</f>
@@ -26693,10 +26741,10 @@
         <v>8036</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>1628</v>
+        <v>1632</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>1629</v>
+        <v>1633</v>
       </c>
       <c r="D40" s="14" t="str">
         <f>$C$1&amp;B40&amp;$D$1</f>
@@ -26709,10 +26757,10 @@
         <v>8037</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>1630</v>
+        <v>1634</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>1624</v>
+        <v>1628</v>
       </c>
       <c r="D41" s="14" t="str">
         <f>$C$1&amp;B41&amp;$D$1</f>
@@ -26725,10 +26773,10 @@
         <v>8038</v>
       </c>
       <c r="B42" t="s">
-        <v>1631</v>
+        <v>1635</v>
       </c>
       <c r="C42" t="s">
-        <v>1632</v>
+        <v>1636</v>
       </c>
       <c r="D42" t="str">
         <f>$C$1&amp;B42&amp;$D$1</f>
@@ -26741,10 +26789,10 @@
         <v>8039</v>
       </c>
       <c r="B43" t="s">
-        <v>1633</v>
+        <v>1637</v>
       </c>
       <c r="C43" t="s">
-        <v>1624</v>
+        <v>1628</v>
       </c>
       <c r="D43" t="str">
         <f>$C$1&amp;B43&amp;$D$1</f>
@@ -26757,10 +26805,10 @@
         <v>8040</v>
       </c>
       <c r="B44" t="s">
-        <v>1634</v>
+        <v>1638</v>
       </c>
       <c r="C44" t="s">
-        <v>1635</v>
+        <v>1639</v>
       </c>
       <c r="D44" t="str">
         <f>$C$1&amp;B44&amp;$D$1</f>
@@ -26773,10 +26821,10 @@
         <v>8041</v>
       </c>
       <c r="B45" t="s">
-        <v>1636</v>
+        <v>1640</v>
       </c>
       <c r="C45" t="s">
-        <v>1637</v>
+        <v>1641</v>
       </c>
       <c r="D45" t="str">
         <f>$C$1&amp;B45&amp;$D$1</f>
@@ -26789,10 +26837,10 @@
         <v>8042</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>1638</v>
+        <v>1642</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>1639</v>
+        <v>1643</v>
       </c>
       <c r="D46" s="14" t="str">
         <f t="shared" ref="D46:D57" si="3">$C$1&amp;B46&amp;$D$1</f>
@@ -26805,10 +26853,10 @@
         <v>8043</v>
       </c>
       <c r="B47" t="s">
-        <v>1640</v>
+        <v>1644</v>
       </c>
       <c r="C47" t="s">
-        <v>1624</v>
+        <v>1628</v>
       </c>
       <c r="D47" t="str">
         <f t="shared" si="3"/>
@@ -26821,10 +26869,10 @@
         <v>8044</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>1641</v>
+        <v>1645</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>1642</v>
+        <v>1646</v>
       </c>
       <c r="D48" s="14" t="str">
         <f t="shared" si="3"/>
@@ -26837,10 +26885,10 @@
         <v>8045</v>
       </c>
       <c r="B49" t="s">
-        <v>1643</v>
+        <v>1647</v>
       </c>
       <c r="C49" t="s">
-        <v>1624</v>
+        <v>1628</v>
       </c>
       <c r="D49" t="str">
         <f t="shared" si="3"/>
@@ -26853,10 +26901,10 @@
         <v>8046</v>
       </c>
       <c r="B50" t="s">
-        <v>1644</v>
+        <v>1648</v>
       </c>
       <c r="C50" t="s">
-        <v>1645</v>
+        <v>1649</v>
       </c>
       <c r="D50" t="str">
         <f t="shared" si="3"/>
@@ -26869,10 +26917,10 @@
         <v>8047</v>
       </c>
       <c r="B51" t="s">
-        <v>1646</v>
+        <v>1650</v>
       </c>
       <c r="C51" t="s">
-        <v>1624</v>
+        <v>1628</v>
       </c>
       <c r="D51" t="str">
         <f t="shared" si="3"/>
@@ -26885,10 +26933,10 @@
         <v>8048</v>
       </c>
       <c r="B52" t="s">
-        <v>1647</v>
+        <v>1651</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>1648</v>
+        <v>1652</v>
       </c>
       <c r="D52" t="str">
         <f t="shared" si="3"/>
@@ -26901,10 +26949,10 @@
         <v>8049</v>
       </c>
       <c r="B53" t="s">
-        <v>1649</v>
+        <v>1653</v>
       </c>
       <c r="C53" t="s">
-        <v>1624</v>
+        <v>1628</v>
       </c>
       <c r="D53" t="str">
         <f t="shared" si="3"/>
@@ -26917,10 +26965,10 @@
         <v>8050</v>
       </c>
       <c r="B54" t="s">
-        <v>1650</v>
+        <v>1654</v>
       </c>
       <c r="C54" t="s">
-        <v>1651</v>
+        <v>1655</v>
       </c>
       <c r="D54" t="str">
         <f t="shared" si="3"/>
@@ -26933,10 +26981,10 @@
         <v>8051</v>
       </c>
       <c r="B55" t="s">
-        <v>1652</v>
+        <v>1656</v>
       </c>
       <c r="C55" t="s">
-        <v>1624</v>
+        <v>1628</v>
       </c>
       <c r="D55" t="str">
         <f t="shared" si="3"/>
@@ -26949,10 +26997,10 @@
         <v>8052</v>
       </c>
       <c r="B56" t="s">
-        <v>1653</v>
+        <v>1657</v>
       </c>
       <c r="C56" t="s">
-        <v>1654</v>
+        <v>1658</v>
       </c>
       <c r="D56" t="str">
         <f t="shared" si="3"/>
@@ -26965,10 +27013,10 @@
         <v>8053</v>
       </c>
       <c r="B57" t="s">
-        <v>1655</v>
+        <v>1659</v>
       </c>
       <c r="C57" t="s">
-        <v>1624</v>
+        <v>1628</v>
       </c>
       <c r="D57" t="str">
         <f t="shared" si="3"/>
@@ -26981,10 +27029,10 @@
         <v>8054</v>
       </c>
       <c r="B58" t="s">
-        <v>1656</v>
+        <v>1660</v>
       </c>
       <c r="C58" t="s">
-        <v>1637</v>
+        <v>1641</v>
       </c>
       <c r="D58" t="str">
         <f>$C$1&amp;B58&amp;$D$1</f>
@@ -26997,10 +27045,10 @@
         <v>8055</v>
       </c>
       <c r="B59" t="s">
-        <v>1657</v>
+        <v>1661</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>1658</v>
+        <v>1662</v>
       </c>
       <c r="D59" t="str">
         <f t="shared" ref="D59:D70" si="6">$C$1&amp;B59&amp;$D$1</f>
@@ -27013,10 +27061,10 @@
         <v>8056</v>
       </c>
       <c r="B60" t="s">
-        <v>1659</v>
+        <v>1663</v>
       </c>
       <c r="C60" t="s">
-        <v>1624</v>
+        <v>1628</v>
       </c>
       <c r="D60" t="str">
         <f t="shared" si="6"/>
@@ -27029,10 +27077,10 @@
         <v>8057</v>
       </c>
       <c r="B61" t="s">
-        <v>1660</v>
+        <v>1664</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>1661</v>
+        <v>1665</v>
       </c>
       <c r="D61" t="str">
         <f t="shared" si="6"/>
@@ -27045,10 +27093,10 @@
         <v>8058</v>
       </c>
       <c r="B62" t="s">
-        <v>1662</v>
+        <v>1666</v>
       </c>
       <c r="C62" t="s">
-        <v>1624</v>
+        <v>1628</v>
       </c>
       <c r="D62" t="str">
         <f t="shared" si="6"/>
@@ -27061,10 +27109,10 @@
         <v>8059</v>
       </c>
       <c r="B63" t="s">
-        <v>1663</v>
+        <v>1667</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>1664</v>
+        <v>1668</v>
       </c>
       <c r="D63" t="str">
         <f t="shared" si="6"/>
@@ -27077,10 +27125,10 @@
         <v>8060</v>
       </c>
       <c r="B64" t="s">
-        <v>1665</v>
+        <v>1669</v>
       </c>
       <c r="C64" t="s">
-        <v>1624</v>
+        <v>1628</v>
       </c>
       <c r="D64" t="str">
         <f t="shared" si="6"/>
@@ -27093,10 +27141,10 @@
         <v>8061</v>
       </c>
       <c r="B65" t="s">
-        <v>1666</v>
+        <v>1670</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>1667</v>
+        <v>1671</v>
       </c>
       <c r="D65" t="str">
         <f t="shared" si="6"/>
@@ -27109,10 +27157,10 @@
         <v>8062</v>
       </c>
       <c r="B66" t="s">
-        <v>1668</v>
+        <v>1672</v>
       </c>
       <c r="C66" t="s">
-        <v>1624</v>
+        <v>1628</v>
       </c>
       <c r="D66" t="str">
         <f t="shared" si="6"/>
@@ -27125,10 +27173,10 @@
         <v>8063</v>
       </c>
       <c r="B67" t="s">
-        <v>1669</v>
+        <v>1673</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>1670</v>
+        <v>1674</v>
       </c>
       <c r="D67" t="str">
         <f t="shared" si="6"/>
@@ -27141,10 +27189,10 @@
         <v>8064</v>
       </c>
       <c r="B68" t="s">
-        <v>1671</v>
+        <v>1675</v>
       </c>
       <c r="C68" t="s">
-        <v>1624</v>
+        <v>1628</v>
       </c>
       <c r="D68" t="str">
         <f t="shared" si="6"/>
@@ -27157,10 +27205,10 @@
         <v>8065</v>
       </c>
       <c r="B69" t="s">
-        <v>1672</v>
+        <v>1676</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>1673</v>
+        <v>1677</v>
       </c>
       <c r="D69" t="str">
         <f t="shared" si="6"/>
@@ -27173,10 +27221,10 @@
         <v>8066</v>
       </c>
       <c r="B70" t="s">
-        <v>1674</v>
+        <v>1678</v>
       </c>
       <c r="C70" t="s">
-        <v>1624</v>
+        <v>1628</v>
       </c>
       <c r="D70" t="str">
         <f t="shared" si="6"/>
@@ -27189,10 +27237,10 @@
         <v>8067</v>
       </c>
       <c r="B71" t="s">
-        <v>1675</v>
+        <v>1679</v>
       </c>
       <c r="C71" t="s">
-        <v>1676</v>
+        <v>1680</v>
       </c>
       <c r="D71" t="str">
         <f>$C$1&amp;B71&amp;$D$1</f>
@@ -27205,10 +27253,10 @@
         <v>8068</v>
       </c>
       <c r="B72" t="s">
-        <v>1677</v>
+        <v>1681</v>
       </c>
       <c r="C72" t="s">
-        <v>1637</v>
+        <v>1641</v>
       </c>
       <c r="D72" t="str">
         <f>$C$1&amp;B72&amp;$D$1</f>
@@ -27227,13 +27275,13 @@
         <v>8070</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>1678</v>
+        <v>1682</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>1679</v>
+        <v>1683</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>1680</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -27242,13 +27290,13 @@
         <v>8071</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>1681</v>
+        <v>1685</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>1679</v>
+        <v>1683</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>1682</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -27257,13 +27305,13 @@
         <v>8072</v>
       </c>
       <c r="B76" s="11" t="s">
+        <v>1687</v>
+      </c>
+      <c r="C76" s="11" t="s">
         <v>1683</v>
       </c>
-      <c r="C76" s="11" t="s">
-        <v>1679</v>
-      </c>
       <c r="D76" s="11" t="s">
-        <v>1684</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -27272,13 +27320,13 @@
         <v>8073</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>1685</v>
+        <v>1689</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>1679</v>
+        <v>1683</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>1686</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -27287,13 +27335,13 @@
         <v>8074</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>1687</v>
+        <v>1691</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>1679</v>
+        <v>1683</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>1688</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -27302,13 +27350,13 @@
         <v>8075</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>1689</v>
+        <v>1693</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>1679</v>
+        <v>1683</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>1690</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -27317,13 +27365,13 @@
         <v>8076</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>1691</v>
+        <v>1695</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>1679</v>
+        <v>1683</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>1692</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -27332,13 +27380,13 @@
         <v>8077</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>1693</v>
+        <v>1697</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>1694</v>
+        <v>1698</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>1695</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="82" spans="1:1">
@@ -27439,10 +27487,10 @@
         <v>9001</v>
       </c>
       <c r="B5" t="s">
-        <v>1696</v>
+        <v>1700</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>1697</v>
+        <v>1701</v>
       </c>
       <c r="D5" t="str">
         <f>$C$1&amp;B5&amp;$D$1</f>
@@ -27455,10 +27503,10 @@
         <v>9002</v>
       </c>
       <c r="B6" t="s">
-        <v>1698</v>
+        <v>1702</v>
       </c>
       <c r="C6" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D6" t="str">
         <f>$C$1&amp;B6&amp;$D$1</f>
@@ -27471,10 +27519,10 @@
         <v>9003</v>
       </c>
       <c r="B7" t="s">
-        <v>1700</v>
+        <v>1704</v>
       </c>
       <c r="C7" t="s">
-        <v>1701</v>
+        <v>1705</v>
       </c>
       <c r="D7" t="str">
         <f>$C$1&amp;B7&amp;$D$1</f>
@@ -27494,10 +27542,10 @@
         <v>9005</v>
       </c>
       <c r="B9" t="s">
-        <v>1702</v>
+        <v>1706</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>1703</v>
+        <v>1707</v>
       </c>
       <c r="D9" t="str">
         <f>$C$1&amp;B9&amp;$D$1</f>
@@ -27511,10 +27559,10 @@
         <v>9006</v>
       </c>
       <c r="B10" t="s">
-        <v>1704</v>
+        <v>1708</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>1705</v>
+        <v>1709</v>
       </c>
       <c r="D10" t="str">
         <f>$C$1&amp;B10&amp;$D$1</f>
@@ -27528,10 +27576,10 @@
         <v>9007</v>
       </c>
       <c r="B11" t="s">
-        <v>1706</v>
+        <v>1710</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>1707</v>
+        <v>1711</v>
       </c>
       <c r="D11" t="str">
         <f>$C$1&amp;B11&amp;$D$1</f>
@@ -27552,10 +27600,10 @@
         <v>9009</v>
       </c>
       <c r="B13" t="s">
-        <v>1708</v>
+        <v>1712</v>
       </c>
       <c r="C13" t="s">
-        <v>1709</v>
+        <v>1713</v>
       </c>
       <c r="D13" t="str">
         <f>$C$1&amp;B13&amp;$D$1</f>
@@ -27569,10 +27617,10 @@
         <v>9010</v>
       </c>
       <c r="B14" t="s">
-        <v>1710</v>
+        <v>1714</v>
       </c>
       <c r="C14" t="s">
-        <v>1711</v>
+        <v>1715</v>
       </c>
       <c r="D14" t="str">
         <f>$C$1&amp;B14&amp;$D$1</f>
@@ -27586,10 +27634,10 @@
         <v>9011</v>
       </c>
       <c r="B15" t="s">
-        <v>1712</v>
+        <v>1716</v>
       </c>
       <c r="C15" t="s">
-        <v>1713</v>
+        <v>1717</v>
       </c>
       <c r="D15" t="str">
         <f>$C$1&amp;B15&amp;$D$1</f>
@@ -27610,10 +27658,10 @@
         <v>9013</v>
       </c>
       <c r="B17" t="s">
-        <v>1714</v>
+        <v>1718</v>
       </c>
       <c r="C17" t="s">
-        <v>1715</v>
+        <v>1719</v>
       </c>
       <c r="D17" t="str">
         <f>$C$1&amp;B17&amp;$D$1</f>
@@ -27627,10 +27675,10 @@
         <v>9014</v>
       </c>
       <c r="B18" t="s">
-        <v>1716</v>
+        <v>1720</v>
       </c>
       <c r="C18" t="s">
-        <v>1717</v>
+        <v>1721</v>
       </c>
       <c r="D18" t="str">
         <f>$C$1&amp;B18&amp;$D$1</f>
@@ -27644,10 +27692,10 @@
         <v>9015</v>
       </c>
       <c r="B19" t="s">
-        <v>1718</v>
+        <v>1722</v>
       </c>
       <c r="C19" t="s">
-        <v>1719</v>
+        <v>1723</v>
       </c>
       <c r="D19" t="str">
         <f>$C$1&amp;B19&amp;$D$1</f>
@@ -27668,10 +27716,10 @@
         <v>9017</v>
       </c>
       <c r="B21" t="s">
-        <v>1720</v>
+        <v>1724</v>
       </c>
       <c r="C21" t="s">
-        <v>1721</v>
+        <v>1725</v>
       </c>
       <c r="D21" t="str">
         <f>$C$1&amp;B21&amp;$D$1</f>
@@ -27685,10 +27733,10 @@
         <v>9018</v>
       </c>
       <c r="B22" t="s">
-        <v>1722</v>
+        <v>1726</v>
       </c>
       <c r="C22" t="s">
-        <v>1723</v>
+        <v>1727</v>
       </c>
       <c r="D22" t="str">
         <f>$C$1&amp;B22&amp;$D$1</f>
@@ -27702,10 +27750,10 @@
         <v>9019</v>
       </c>
       <c r="B23" t="s">
-        <v>1724</v>
+        <v>1728</v>
       </c>
       <c r="C23" t="s">
-        <v>1725</v>
+        <v>1729</v>
       </c>
       <c r="D23" t="str">
         <f>$C$1&amp;B23&amp;$D$1</f>
@@ -27726,10 +27774,10 @@
         <v>9021</v>
       </c>
       <c r="B25" t="s">
-        <v>1726</v>
+        <v>1730</v>
       </c>
       <c r="C25" t="s">
-        <v>1727</v>
+        <v>1731</v>
       </c>
       <c r="D25" t="str">
         <f>$C$1&amp;B25&amp;$D$1</f>
@@ -27743,10 +27791,10 @@
         <v>9022</v>
       </c>
       <c r="B26" t="s">
-        <v>1728</v>
+        <v>1732</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>1729</v>
+        <v>1733</v>
       </c>
       <c r="D26" t="str">
         <f>$C$1&amp;B26&amp;$D$1</f>
@@ -27760,10 +27808,10 @@
         <v>9023</v>
       </c>
       <c r="B27" t="s">
-        <v>1730</v>
+        <v>1734</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>1731</v>
+        <v>1735</v>
       </c>
       <c r="D27" t="str">
         <f>$C$1&amp;B27&amp;$D$1</f>
@@ -27783,10 +27831,10 @@
         <v>9025</v>
       </c>
       <c r="B29" t="s">
-        <v>1732</v>
+        <v>1736</v>
       </c>
       <c r="C29" t="s">
-        <v>1733</v>
+        <v>1737</v>
       </c>
       <c r="D29" t="str">
         <f>$C$1&amp;B29&amp;$D$1</f>
@@ -27799,10 +27847,10 @@
         <v>9026</v>
       </c>
       <c r="B30" t="s">
-        <v>1734</v>
+        <v>1738</v>
       </c>
       <c r="C30" t="s">
-        <v>1735</v>
+        <v>1739</v>
       </c>
       <c r="D30" t="str">
         <f>$C$1&amp;B30&amp;$D$1</f>
@@ -27821,10 +27869,10 @@
         <v>9028</v>
       </c>
       <c r="B32" t="s">
-        <v>1736</v>
+        <v>1740</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>1737</v>
+        <v>1741</v>
       </c>
       <c r="D32" t="str">
         <f>$C$1&amp;B32&amp;$D$1</f>
@@ -27837,10 +27885,10 @@
         <v>9029</v>
       </c>
       <c r="B33" t="s">
-        <v>1738</v>
+        <v>1742</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>1739</v>
+        <v>1743</v>
       </c>
       <c r="D33" t="str">
         <f>$C$1&amp;B33&amp;$D$1</f>
@@ -27859,10 +27907,10 @@
         <v>9031</v>
       </c>
       <c r="B35" t="s">
-        <v>1740</v>
+        <v>1744</v>
       </c>
       <c r="C35" t="s">
-        <v>1741</v>
+        <v>1745</v>
       </c>
       <c r="D35" t="str">
         <f>$C$1&amp;B35&amp;$D$1</f>
@@ -27875,10 +27923,10 @@
         <v>9032</v>
       </c>
       <c r="B36" t="s">
-        <v>1742</v>
+        <v>1746</v>
       </c>
       <c r="C36" t="s">
-        <v>1743</v>
+        <v>1747</v>
       </c>
       <c r="D36" t="str">
         <f>$C$1&amp;B36&amp;$D$1</f>
@@ -27897,10 +27945,10 @@
         <v>9034</v>
       </c>
       <c r="B38" t="s">
-        <v>1744</v>
+        <v>1748</v>
       </c>
       <c r="C38" t="s">
-        <v>1745</v>
+        <v>1749</v>
       </c>
       <c r="D38" t="str">
         <f>$C$1&amp;B38&amp;$D$1</f>
@@ -27913,10 +27961,10 @@
         <v>9035</v>
       </c>
       <c r="B39" t="s">
-        <v>1746</v>
+        <v>1750</v>
       </c>
       <c r="C39" t="s">
-        <v>1747</v>
+        <v>1751</v>
       </c>
       <c r="D39" t="str">
         <f>$C$1&amp;B39&amp;$D$1</f>
@@ -27929,10 +27977,10 @@
         <v>9036</v>
       </c>
       <c r="B40" t="s">
-        <v>1748</v>
+        <v>1752</v>
       </c>
       <c r="C40" t="s">
-        <v>1749</v>
+        <v>1753</v>
       </c>
       <c r="D40" t="str">
         <f>$C$1&amp;B40&amp;$D$1</f>
@@ -27945,10 +27993,10 @@
         <v>9037</v>
       </c>
       <c r="B41" t="s">
-        <v>1750</v>
+        <v>1754</v>
       </c>
       <c r="C41" t="s">
-        <v>1751</v>
+        <v>1755</v>
       </c>
       <c r="D41" t="str">
         <f>$C$1&amp;B41&amp;$D$1</f>
@@ -27961,10 +28009,10 @@
         <v>9038</v>
       </c>
       <c r="B42" t="s">
-        <v>1752</v>
+        <v>1756</v>
       </c>
       <c r="C42" t="s">
-        <v>1753</v>
+        <v>1757</v>
       </c>
       <c r="D42" t="str">
         <f>$C$1&amp;B42&amp;$D$1</f>
@@ -27977,10 +28025,10 @@
         <v>9039</v>
       </c>
       <c r="B43" t="s">
-        <v>1754</v>
+        <v>1758</v>
       </c>
       <c r="C43" t="s">
-        <v>1755</v>
+        <v>1759</v>
       </c>
       <c r="D43" t="str">
         <f>$C$1&amp;B43&amp;$D$1</f>
@@ -28005,10 +28053,10 @@
         <v>9042</v>
       </c>
       <c r="B46" t="s">
-        <v>1756</v>
+        <v>1760</v>
       </c>
       <c r="C46" t="s">
-        <v>1757</v>
+        <v>1761</v>
       </c>
       <c r="D46" t="str">
         <f>$C$1&amp;B46&amp;$D$1</f>
@@ -28021,10 +28069,10 @@
         <v>9043</v>
       </c>
       <c r="B47" t="s">
-        <v>1758</v>
+        <v>1762</v>
       </c>
       <c r="C47" t="s">
-        <v>1757</v>
+        <v>1761</v>
       </c>
       <c r="D47" t="str">
         <f>$C$1&amp;B47&amp;$D$1</f>
@@ -28037,10 +28085,10 @@
         <v>9044</v>
       </c>
       <c r="B48" t="s">
-        <v>1759</v>
+        <v>1763</v>
       </c>
       <c r="C48" t="s">
-        <v>1760</v>
+        <v>1764</v>
       </c>
       <c r="D48" t="str">
         <f>$C$1&amp;B48&amp;$D$1</f>
@@ -28053,10 +28101,10 @@
         <v>9045</v>
       </c>
       <c r="B49" t="s">
-        <v>1761</v>
+        <v>1765</v>
       </c>
       <c r="C49" t="s">
-        <v>1762</v>
+        <v>1766</v>
       </c>
       <c r="D49" t="str">
         <f>$C$1&amp;B49&amp;$D$1</f>
@@ -28069,10 +28117,10 @@
         <v>9046</v>
       </c>
       <c r="B50" t="s">
-        <v>1763</v>
+        <v>1767</v>
       </c>
       <c r="C50" t="s">
-        <v>1764</v>
+        <v>1768</v>
       </c>
       <c r="D50" t="str">
         <f>$C$1&amp;B50&amp;$D$1</f>
@@ -28097,10 +28145,10 @@
         <v>9049</v>
       </c>
       <c r="B53" t="s">
-        <v>1765</v>
+        <v>1769</v>
       </c>
       <c r="C53" t="s">
-        <v>1766</v>
+        <v>1770</v>
       </c>
       <c r="D53" t="str">
         <f>$C$1&amp;B53&amp;$D$1</f>
@@ -28113,10 +28161,10 @@
         <v>9050</v>
       </c>
       <c r="B54" t="s">
-        <v>1767</v>
+        <v>1771</v>
       </c>
       <c r="C54" t="s">
-        <v>1768</v>
+        <v>1772</v>
       </c>
       <c r="D54" t="str">
         <f>$C$1&amp;B54&amp;$D$1</f>
@@ -28129,10 +28177,10 @@
         <v>9051</v>
       </c>
       <c r="B55" t="s">
-        <v>1769</v>
+        <v>1773</v>
       </c>
       <c r="C55" t="s">
-        <v>1770</v>
+        <v>1774</v>
       </c>
       <c r="D55" t="str">
         <f>$C$1&amp;B55&amp;$D$1</f>
@@ -28145,10 +28193,10 @@
         <v>9052</v>
       </c>
       <c r="B56" t="s">
-        <v>1771</v>
+        <v>1775</v>
       </c>
       <c r="C56" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="D56" t="str">
         <f>$C$1&amp;B56&amp;$D$1</f>
@@ -28161,10 +28209,10 @@
         <v>9053</v>
       </c>
       <c r="B57" t="s">
-        <v>1773</v>
+        <v>1777</v>
       </c>
       <c r="C57" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="D57" t="str">
         <f>$C$1&amp;B57&amp;$D$1</f>
@@ -28177,10 +28225,10 @@
         <v>9054</v>
       </c>
       <c r="B58" t="s">
-        <v>1775</v>
+        <v>1779</v>
       </c>
       <c r="C58" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="D58" t="str">
         <f>$C$1&amp;B58&amp;$D$1</f>
@@ -28205,10 +28253,10 @@
         <v>9057</v>
       </c>
       <c r="B61" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="C61" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="D61" t="str">
         <f>$C$1&amp;B61&amp;$D$1</f>
@@ -28221,10 +28269,10 @@
         <v>9058</v>
       </c>
       <c r="B62" t="s">
-        <v>1779</v>
+        <v>1783</v>
       </c>
       <c r="C62" t="s">
-        <v>1780</v>
+        <v>1784</v>
       </c>
       <c r="D62" t="str">
         <f>$C$1&amp;B62&amp;$D$1</f>
@@ -28237,10 +28285,10 @@
         <v>9059</v>
       </c>
       <c r="B63" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="C63" t="s">
-        <v>1782</v>
+        <v>1786</v>
       </c>
       <c r="D63" t="str">
         <f>$C$1&amp;B63&amp;$D$1</f>
@@ -28253,10 +28301,10 @@
         <v>9060</v>
       </c>
       <c r="B64" t="s">
-        <v>1783</v>
+        <v>1787</v>
       </c>
       <c r="C64" t="s">
-        <v>1784</v>
+        <v>1788</v>
       </c>
       <c r="D64" t="str">
         <f>$C$1&amp;B64&amp;$D$1</f>
@@ -28269,10 +28317,10 @@
         <v>9061</v>
       </c>
       <c r="B65" t="s">
-        <v>1785</v>
+        <v>1789</v>
       </c>
       <c r="C65" t="s">
-        <v>1786</v>
+        <v>1790</v>
       </c>
       <c r="D65" t="str">
         <f>$C$1&amp;B65&amp;$D$1</f>
@@ -28285,10 +28333,10 @@
         <v>9062</v>
       </c>
       <c r="B66" t="s">
-        <v>1787</v>
+        <v>1791</v>
       </c>
       <c r="C66" t="s">
-        <v>1788</v>
+        <v>1792</v>
       </c>
       <c r="D66" t="str">
         <f>$C$1&amp;B66&amp;$D$1</f>
@@ -28313,10 +28361,10 @@
         <v>9065</v>
       </c>
       <c r="B69" t="s">
-        <v>1789</v>
+        <v>1793</v>
       </c>
       <c r="C69" t="s">
-        <v>1790</v>
+        <v>1794</v>
       </c>
       <c r="D69" t="str">
         <f>$C$1&amp;B69&amp;$D$1</f>
@@ -28329,10 +28377,10 @@
         <v>9066</v>
       </c>
       <c r="B70" t="s">
-        <v>1791</v>
+        <v>1795</v>
       </c>
       <c r="C70" t="s">
-        <v>1792</v>
+        <v>1796</v>
       </c>
       <c r="D70" t="str">
         <f>$C$1&amp;B70&amp;$D$1</f>
@@ -28345,10 +28393,10 @@
         <v>9067</v>
       </c>
       <c r="B71" t="s">
-        <v>1793</v>
+        <v>1797</v>
       </c>
       <c r="C71" t="s">
-        <v>1794</v>
+        <v>1798</v>
       </c>
       <c r="D71" t="str">
         <f>$C$1&amp;B71&amp;$D$1</f>
@@ -28361,10 +28409,10 @@
         <v>9068</v>
       </c>
       <c r="B72" t="s">
-        <v>1795</v>
+        <v>1799</v>
       </c>
       <c r="C72" t="s">
-        <v>1796</v>
+        <v>1800</v>
       </c>
       <c r="D72" t="str">
         <f>$C$1&amp;B72&amp;$D$1</f>
@@ -28377,10 +28425,10 @@
         <v>9069</v>
       </c>
       <c r="B73" t="s">
-        <v>1797</v>
+        <v>1801</v>
       </c>
       <c r="C73" t="s">
-        <v>1798</v>
+        <v>1802</v>
       </c>
       <c r="D73" t="str">
         <f>$C$1&amp;B73&amp;$D$1</f>
@@ -28405,10 +28453,10 @@
         <v>9072</v>
       </c>
       <c r="B76" t="s">
-        <v>1799</v>
+        <v>1803</v>
       </c>
       <c r="C76" t="s">
-        <v>1800</v>
+        <v>1804</v>
       </c>
       <c r="D76" t="str">
         <f>$C$1&amp;B76&amp;$D$1</f>
@@ -28421,10 +28469,10 @@
         <v>9073</v>
       </c>
       <c r="B77" t="s">
-        <v>1801</v>
+        <v>1805</v>
       </c>
       <c r="C77" t="s">
-        <v>1802</v>
+        <v>1806</v>
       </c>
       <c r="D77" t="str">
         <f>$C$1&amp;B77&amp;$D$1</f>
@@ -28437,10 +28485,10 @@
         <v>9074</v>
       </c>
       <c r="B78" t="s">
-        <v>1803</v>
+        <v>1807</v>
       </c>
       <c r="C78" t="s">
-        <v>1804</v>
+        <v>1808</v>
       </c>
       <c r="D78" t="str">
         <f>$C$1&amp;B78&amp;$D$1</f>
@@ -28453,10 +28501,10 @@
         <v>9075</v>
       </c>
       <c r="B79" t="s">
-        <v>1805</v>
+        <v>1809</v>
       </c>
       <c r="C79" t="s">
-        <v>1806</v>
+        <v>1810</v>
       </c>
       <c r="D79" t="str">
         <f>$C$1&amp;B79&amp;$D$1</f>
@@ -28469,10 +28517,10 @@
         <v>9076</v>
       </c>
       <c r="B80" t="s">
-        <v>1807</v>
+        <v>1811</v>
       </c>
       <c r="C80" t="s">
-        <v>1808</v>
+        <v>1812</v>
       </c>
       <c r="D80" t="str">
         <f>$C$1&amp;B80&amp;$D$1</f>
@@ -28485,10 +28533,10 @@
         <v>9077</v>
       </c>
       <c r="B81" t="s">
-        <v>1809</v>
+        <v>1813</v>
       </c>
       <c r="C81" t="s">
-        <v>1810</v>
+        <v>1814</v>
       </c>
       <c r="D81" t="str">
         <f>$C$1&amp;B81&amp;$D$1</f>
@@ -28521,10 +28569,10 @@
         <v>9080</v>
       </c>
       <c r="B84" t="s">
-        <v>1811</v>
+        <v>1815</v>
       </c>
       <c r="C84" t="s">
-        <v>1812</v>
+        <v>1816</v>
       </c>
       <c r="D84" t="str">
         <f t="shared" si="2"/>
@@ -28537,10 +28585,10 @@
         <v>9081</v>
       </c>
       <c r="B85" t="s">
-        <v>1813</v>
+        <v>1817</v>
       </c>
       <c r="C85" t="s">
-        <v>1812</v>
+        <v>1816</v>
       </c>
       <c r="D85" t="str">
         <f t="shared" si="2"/>
@@ -28553,10 +28601,10 @@
         <v>9082</v>
       </c>
       <c r="B86" t="s">
-        <v>1814</v>
+        <v>1818</v>
       </c>
       <c r="C86" t="s">
-        <v>1812</v>
+        <v>1816</v>
       </c>
       <c r="D86" t="str">
         <f t="shared" si="2"/>
@@ -28569,10 +28617,10 @@
         <v>9083</v>
       </c>
       <c r="B87" t="s">
-        <v>1815</v>
+        <v>1819</v>
       </c>
       <c r="C87" t="s">
-        <v>1816</v>
+        <v>1820</v>
       </c>
       <c r="D87" t="str">
         <f t="shared" si="2"/>
@@ -28585,10 +28633,10 @@
         <v>9084</v>
       </c>
       <c r="B88" t="s">
-        <v>1817</v>
+        <v>1821</v>
       </c>
       <c r="C88" t="s">
-        <v>1812</v>
+        <v>1816</v>
       </c>
       <c r="D88" t="str">
         <f t="shared" si="2"/>
@@ -28601,10 +28649,10 @@
         <v>9085</v>
       </c>
       <c r="B89" t="s">
-        <v>1818</v>
+        <v>1822</v>
       </c>
       <c r="C89" t="s">
-        <v>1812</v>
+        <v>1816</v>
       </c>
       <c r="D89" t="str">
         <f t="shared" si="2"/>
@@ -28617,10 +28665,10 @@
         <v>9086</v>
       </c>
       <c r="B90" t="s">
-        <v>1819</v>
+        <v>1823</v>
       </c>
       <c r="C90" t="s">
-        <v>1812</v>
+        <v>1816</v>
       </c>
       <c r="D90" t="str">
         <f t="shared" si="2"/>
@@ -28633,10 +28681,10 @@
         <v>9087</v>
       </c>
       <c r="B91" t="s">
-        <v>1820</v>
+        <v>1824</v>
       </c>
       <c r="C91" t="s">
-        <v>1812</v>
+        <v>1816</v>
       </c>
       <c r="D91" t="str">
         <f t="shared" si="2"/>
@@ -28649,7 +28697,7 @@
         <v>9088</v>
       </c>
       <c r="B92" t="s">
-        <v>1821</v>
+        <v>1825</v>
       </c>
       <c r="D92" t="str">
         <f t="shared" si="2"/>

--- a/mobi_client/mobi_client/mobi_config/excel/998_文本宏.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/998_文本宏.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12420" tabRatio="703" firstSheet="2" activeTab="5"/>
+    <workbookView windowWidth="28125" windowHeight="12420" tabRatio="703" firstSheet="8" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="DialogMacro|系统文本宏" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2489" uniqueCount="2163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2545" uniqueCount="2218">
   <si>
     <t>说明</t>
   </si>
@@ -6020,6 +6020,18 @@
     <t>{角色动作,duheng,杜衡_看文件_动作_结束_01}</t>
   </si>
   <si>
+    <t>杜衡看文件2动作</t>
+  </si>
+  <si>
+    <t>{角色动作,duheng,杜衡_看文件_动作_开始_02}</t>
+  </si>
+  <si>
+    <t>杜衡看文件2动作恢复</t>
+  </si>
+  <si>
+    <t>{角色动作,duheng,杜衡_看文件_动作_结束_02}</t>
+  </si>
+  <si>
     <t>杜衡开心动作恢复</t>
   </si>
   <si>
@@ -6074,6 +6086,12 @@
     <t>{角色动作,duheng,杜衡_调戏_动作_结束_01}</t>
   </si>
   <si>
+    <t>杜衡送客动作结束</t>
+  </si>
+  <si>
+    <t>{角色动作,duheng,杜衡_送客_动作_结束_01}</t>
+  </si>
+  <si>
     <t>杜衡待机表情</t>
   </si>
   <si>
@@ -6155,16 +6173,13 @@
     <t>杜衡愤怒2表情恢复</t>
   </si>
   <si>
-    <t>杜衡看文件2动作</t>
-  </si>
-  <si>
-    <t>{角色动作,duheng,杜衡_看文件_动作_开始_02}</t>
-  </si>
-  <si>
-    <t>杜衡看文件2动作恢复</t>
-  </si>
-  <si>
-    <t>{角色动作,duheng,杜衡_看文件_动作_结束_02}</t>
+    <t>杜衡看文件表情</t>
+  </si>
+  <si>
+    <t>{角色表情,duheng,杜衡_看文件_上脸_开始_01;杜衡_思考_下嘴_开始_01,0.25}</t>
+  </si>
+  <si>
+    <t>杜衡看文件表情恢复</t>
   </si>
   <si>
     <t>杜衡动漫说话挂件</t>
@@ -6237,6 +6252,156 @@
   </si>
   <si>
     <t>{#关闭杜衡动漫挂件}</t>
+  </si>
+  <si>
+    <t>杜衡待机</t>
+  </si>
+  <si>
+    <t>{角色动作,duheng,杜衡_待机_动作_循环_01}{角色表情,duheng,杜衡_待机_上脸_循环_01;杜衡_待机_下嘴_开始_01,0.25}</t>
+  </si>
+  <si>
+    <t>杜衡开心</t>
+  </si>
+  <si>
+    <t>{角色动作,duheng,杜衡_开心_动作_开始_01}{角色表情,duheng,杜衡_开心_上脸_开始_01;杜衡_开心_下嘴_开始_01,0.25}</t>
+  </si>
+  <si>
+    <t>杜衡平静</t>
+  </si>
+  <si>
+    <t>{角色动作,duheng,杜衡_平静_动作_开始_01}{角色表情,duheng,杜衡_平静_上脸_开始_01;杜衡_平静_下嘴_开始_01,0.3}</t>
+  </si>
+  <si>
+    <t>杜衡忧伤</t>
+  </si>
+  <si>
+    <t>{角色动作,duheng,杜衡_忧伤_动作_开始_01}{角色表情,duheng,杜衡_忧伤_上脸_开始_01;杜衡_忧伤_下嘴_开始_01,0.25}</t>
+  </si>
+  <si>
+    <t>杜衡惊讶</t>
+  </si>
+  <si>
+    <t>{角色动作,duheng,杜衡_惊讶_动作_开始_01}{角色表情,duheng,杜衡_惊讶_上脸_开始_01;杜衡_惊讶_下嘴_开始_01,0.25}</t>
+  </si>
+  <si>
+    <t>杜衡紧张</t>
+  </si>
+  <si>
+    <t>{角色动作,duheng,杜衡_紧张_动作_开始_01}{角色表情,duheng,杜衡_紧张_上脸_开始_01;杜衡_紧张_下嘴_开始_01,0.3}</t>
+  </si>
+  <si>
+    <t>杜衡思考</t>
+  </si>
+  <si>
+    <t>{角色动作,duheng,杜衡_思考_动作_开始_01}{角色表情,duheng,杜衡_思考_上脸_开始_01;杜衡_思考_下嘴_开始_01,0.25}</t>
+  </si>
+  <si>
+    <t>杜衡愤怒</t>
+  </si>
+  <si>
+    <t>{角色动作,duheng,杜衡_愤怒_动作_开始_01}{角色表情,duheng,杜衡_愤怒_上脸_开始_01;杜衡_愤怒_下嘴_开始_01,0.25}</t>
+  </si>
+  <si>
+    <t>杜衡愤怒2</t>
+  </si>
+  <si>
+    <t>{角色动作,duheng,杜衡_愤怒_动作_开始_02}{角色表情,duheng,杜衡_愤怒_上脸_开始_02;杜衡_愤怒_下嘴_开始_02,0.25}</t>
+  </si>
+  <si>
+    <t>杜衡调戏</t>
+  </si>
+  <si>
+    <t>{角色动作,duheng,杜衡_调戏_动作_开始_01}{角色表情,duheng,杜衡_开心_上脸_开始_01;杜衡_开心_下嘴_开始_01,0.25}</t>
+  </si>
+  <si>
+    <t>杜衡送客</t>
+  </si>
+  <si>
+    <t>{角色动作,duheng,杜衡_送客_动作_开始_01}{角色表情,duheng,杜衡_思考_上脸_开始_01;杜衡_思考_下嘴_开始_01,0.25}</t>
+  </si>
+  <si>
+    <t>杜衡看文件</t>
+  </si>
+  <si>
+    <t>{角色动作,duheng,杜衡_看文件_动作_开始_01}{角色表情,duheng,杜衡_看文件_上脸_循环_01;杜衡_思考_下嘴_开始_01,0.25}</t>
+  </si>
+  <si>
+    <t>杜衡看文件2</t>
+  </si>
+  <si>
+    <t>{角色动作,duheng,杜衡_看文件_动作_开始_02}{角色表情,duheng,杜衡_看文件_上脸_循环_01;杜衡_思考_下嘴_开始_01,0.25}</t>
+  </si>
+  <si>
+    <t>杜衡开心恢复</t>
+  </si>
+  <si>
+    <t>{角色动作,duheng,杜衡_开心_动作_结束_01}{角色表情,duheng,杜衡_待机_上脸_循环_01;杜衡_待机_下嘴_开始_01,0.25}</t>
+  </si>
+  <si>
+    <t>杜衡平静恢复</t>
+  </si>
+  <si>
+    <t>{角色动作,duheng,杜衡_平静_动作_结束_01}{角色表情,duheng,杜衡_待机_上脸_循环_01;杜衡_待机_下嘴_开始_01,0.25}</t>
+  </si>
+  <si>
+    <t>杜衡忧伤恢复</t>
+  </si>
+  <si>
+    <t>{角色动作,duheng,杜衡_忧伤_动作_结束_01}{角色表情,duheng,杜衡_待机_上脸_循环_01;杜衡_待机_下嘴_开始_01,0.25}</t>
+  </si>
+  <si>
+    <t>杜衡惊讶恢复</t>
+  </si>
+  <si>
+    <t>{角色动作,duheng,杜衡_惊讶_动作_结束_01}{角色表情,duheng,杜衡_待机_上脸_循环_01;杜衡_待机_下嘴_开始_01,0.25}</t>
+  </si>
+  <si>
+    <t>杜衡紧张恢复</t>
+  </si>
+  <si>
+    <t>{角色动作,duheng,杜衡_紧张_动作_结束_01}{角色表情,duheng,杜衡_待机_上脸_循环_01;杜衡_待机_下嘴_开始_01,0.25}</t>
+  </si>
+  <si>
+    <t>杜衡思考恢复</t>
+  </si>
+  <si>
+    <t>{角色动作,duheng,杜衡_思考_动作_结束_01}{角色表情,duheng,杜衡_待机_上脸_循环_01;杜衡_待机_下嘴_开始_01,0.25}</t>
+  </si>
+  <si>
+    <t>杜衡愤怒恢复</t>
+  </si>
+  <si>
+    <t>{角色动作,duheng,杜衡_愤怒_动作_结束_01}{角色表情,duheng,杜衡_待机_上脸_循环_01;杜衡_待机_下嘴_开始_01,0.25}</t>
+  </si>
+  <si>
+    <t>杜衡愤怒2恢复</t>
+  </si>
+  <si>
+    <t>{角色动作,duheng,杜衡_愤怒_动作_结束_02}{角色表情,duheng,杜衡_待机_上脸_循环_01;杜衡_待机_下嘴_开始_01,0.25}</t>
+  </si>
+  <si>
+    <t>杜衡调戏恢复</t>
+  </si>
+  <si>
+    <t>{角色动作,duheng,杜衡_调戏_动作_结束_01}{角色表情,duheng,杜衡_待机_上脸_循环_01;杜衡_待机_下嘴_开始_01,0.25}</t>
+  </si>
+  <si>
+    <t>杜衡送客恢复</t>
+  </si>
+  <si>
+    <t>{角色动作,duheng,杜衡_送客_动作_结束_01}{角色表情,duheng,杜衡_待机_上脸_循环_01;杜衡_待机_下嘴_开始_01,0.25}</t>
+  </si>
+  <si>
+    <t>杜衡看文件恢复</t>
+  </si>
+  <si>
+    <t>{角色动作,duheng,杜衡_看文件_动作_结束_01}{角色表情,duheng,杜衡_待机_上脸_循环_01;杜衡_待机_下嘴_开始_01,0.25}</t>
+  </si>
+  <si>
+    <t>杜衡看文件2恢复</t>
+  </si>
+  <si>
+    <t>{角色动作,duheng,杜衡_看文件_动作_结束_02}{角色表情,duheng,杜衡_待机_上脸_循环_01;杜衡_待机_下嘴_开始_01,0.25}</t>
   </si>
   <si>
     <t>云倾待机动作</t>
@@ -15649,17 +15814,17 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:I57"/>
+  <dimension ref="A1:I85"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="8.5" customWidth="1"/>
     <col min="2" max="2" width="18.25" customWidth="1"/>
-    <col min="3" max="3" width="65.875" customWidth="1"/>
+    <col min="3" max="3" width="100.216666666667" customWidth="1"/>
     <col min="4" max="4" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -15721,6 +15886,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
+        <f>12000+ROW()-4</f>
         <v>12001</v>
       </c>
       <c r="B5" t="s">
@@ -15736,6 +15902,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
+        <f t="shared" ref="A6:A15" si="1">12000+ROW()-4</f>
         <v>12002</v>
       </c>
       <c r="B6" t="s">
@@ -15751,6 +15918,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
+        <f t="shared" si="1"/>
         <v>12003</v>
       </c>
       <c r="B7" t="s">
@@ -15766,6 +15934,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8">
+        <f t="shared" si="1"/>
         <v>12004</v>
       </c>
       <c r="B8" t="s">
@@ -15782,6 +15951,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9">
+        <f t="shared" si="1"/>
         <v>12005</v>
       </c>
       <c r="B9" t="s">
@@ -15798,6 +15968,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
+        <f t="shared" si="1"/>
         <v>12006</v>
       </c>
       <c r="B10" t="s">
@@ -15813,6 +15984,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
+        <f t="shared" si="1"/>
         <v>12007</v>
       </c>
       <c r="B11" t="s">
@@ -15828,6 +16000,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
+        <f t="shared" si="1"/>
         <v>12008</v>
       </c>
       <c r="B12" t="s">
@@ -15843,6 +16016,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
+        <f t="shared" si="1"/>
         <v>12009</v>
       </c>
       <c r="B13" t="s">
@@ -15858,6 +16032,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
+        <f t="shared" si="1"/>
         <v>12010</v>
       </c>
       <c r="B14" t="s">
@@ -15873,6 +16048,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
+        <f t="shared" si="1"/>
         <v>12011</v>
       </c>
       <c r="B15" t="s">
@@ -15888,6 +16064,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
+        <f>12000+ROW()-4</f>
         <v>12012</v>
       </c>
       <c r="B16" t="s">
@@ -15903,6 +16080,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
+        <f>12000+ROW()-4</f>
         <v>12013</v>
       </c>
       <c r="B17" t="s">
@@ -15912,12 +16090,13 @@
         <v>1996</v>
       </c>
       <c r="D17" t="str">
-        <f t="shared" ref="D17:D26" si="1">$C$1&amp;B17&amp;$D$1</f>
+        <f>$C$1&amp;B17&amp;$D$1</f>
         <v>{#杜衡看文件动作恢复}</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:4">
       <c r="A18">
+        <f>12000+ROW()-4</f>
         <v>12014</v>
       </c>
       <c r="B18" t="s">
@@ -15927,13 +16106,13 @@
         <v>1998</v>
       </c>
       <c r="D18" t="str">
-        <f t="shared" si="1"/>
-        <v>{#杜衡开心动作恢复}</v>
-      </c>
-      <c r="I18" s="13"/>
-    </row>
-    <row r="19" spans="1:9">
+        <f>$C$1&amp;B18&amp;$D$1</f>
+        <v>{#杜衡看文件2动作}</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19">
+        <f>12000+ROW()-4</f>
         <v>12015</v>
       </c>
       <c r="B19" t="s">
@@ -15943,131 +16122,139 @@
         <v>2000</v>
       </c>
       <c r="D19" t="str">
-        <f t="shared" si="1"/>
-        <v>{#杜衡平静动作恢复}</v>
-      </c>
-      <c r="I19" s="13"/>
+        <f>$C$1&amp;B19&amp;$D$1</f>
+        <v>{#杜衡看文件2动作恢复}</v>
+      </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20">
+        <f>12000+ROW()-4</f>
         <v>12016</v>
-      </c>
-      <c r="B20" t="s">
-        <v>2001</v>
-      </c>
-      <c r="C20" t="s">
-        <v>2002</v>
-      </c>
-      <c r="D20" t="str">
-        <f t="shared" si="1"/>
-        <v>{#杜衡忧伤动作恢复}</v>
       </c>
       <c r="I20" s="13"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21">
+        <f>12000+ROW()-4</f>
         <v>12017</v>
       </c>
       <c r="B21" t="s">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="C21" t="s">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="D21" t="str">
-        <f t="shared" si="1"/>
-        <v>{#杜衡惊讶动作恢复}</v>
+        <f t="shared" ref="D21:D29" si="2">$C$1&amp;B21&amp;$D$1</f>
+        <v>{#杜衡开心动作恢复}</v>
       </c>
       <c r="I21" s="13"/>
     </row>
     <row r="22" spans="1:9">
       <c r="A22">
+        <f t="shared" ref="A21:A27" si="3">12000+ROW()-4</f>
         <v>12018</v>
       </c>
       <c r="B22" t="s">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="C22" t="s">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="D22" t="str">
-        <f t="shared" si="1"/>
-        <v>{#杜衡紧张动作恢复}</v>
+        <f t="shared" si="2"/>
+        <v>{#杜衡平静动作恢复}</v>
       </c>
       <c r="I22" s="13"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23">
+        <f t="shared" si="3"/>
         <v>12019</v>
       </c>
       <c r="B23" t="s">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="C23" t="s">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="D23" t="str">
-        <f t="shared" si="1"/>
-        <v>{#杜衡思考动作恢复}</v>
+        <f t="shared" si="2"/>
+        <v>{#杜衡忧伤动作恢复}</v>
       </c>
       <c r="I23" s="13"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24">
+        <f t="shared" si="3"/>
         <v>12020</v>
       </c>
       <c r="B24" t="s">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="C24" t="s">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="D24" t="str">
-        <f t="shared" si="1"/>
-        <v>{#杜衡愤怒动作恢复}</v>
+        <f t="shared" si="2"/>
+        <v>{#杜衡惊讶动作恢复}</v>
       </c>
       <c r="I24" s="13"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25">
+        <f t="shared" si="3"/>
         <v>12021</v>
       </c>
       <c r="B25" t="s">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="C25" t="s">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="D25" t="str">
-        <f t="shared" si="1"/>
-        <v>{#杜衡愤怒2动作恢复}</v>
+        <f t="shared" si="2"/>
+        <v>{#杜衡紧张动作恢复}</v>
       </c>
       <c r="I25" s="13"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26">
+        <f t="shared" si="3"/>
         <v>12022</v>
       </c>
       <c r="B26" t="s">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="C26" t="s">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D26" t="str">
-        <f t="shared" si="1"/>
-        <v>{#杜衡调戏动作恢复}</v>
+        <f t="shared" si="2"/>
+        <v>{#杜衡思考动作恢复}</v>
       </c>
       <c r="I26" s="13"/>
     </row>
     <row r="27" spans="1:9">
       <c r="A27">
+        <f t="shared" si="3"/>
         <v>12023</v>
       </c>
-      <c r="I27" s="14"/>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="B27" t="s">
+        <v>2013</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2014</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="2"/>
+        <v>{#杜衡愤怒动作恢复}</v>
+      </c>
+      <c r="I27" s="13"/>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28">
+        <f t="shared" ref="A28:A37" si="4">12000+ROW()-4</f>
         <v>12024</v>
       </c>
       <c r="B28" t="s">
@@ -16077,12 +16264,14 @@
         <v>2016</v>
       </c>
       <c r="D28" t="str">
-        <f t="shared" ref="D28:D44" si="2">$C$1&amp;B28&amp;$D$1</f>
-        <v>{#杜衡待机表情}</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <f t="shared" si="2"/>
+        <v>{#杜衡愤怒2动作恢复}</v>
+      </c>
+      <c r="I28" s="13"/>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29">
+        <f t="shared" si="4"/>
         <v>12025</v>
       </c>
       <c r="B29" t="s">
@@ -16093,11 +16282,13 @@
       </c>
       <c r="D29" t="str">
         <f t="shared" si="2"/>
-        <v>{#杜衡开心表情}</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>{#杜衡调戏动作恢复}</v>
+      </c>
+      <c r="I29" s="13"/>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30">
+        <f t="shared" si="4"/>
         <v>12026</v>
       </c>
       <c r="B30" t="s">
@@ -16107,12 +16298,14 @@
         <v>2020</v>
       </c>
       <c r="D30" t="str">
-        <f t="shared" si="2"/>
-        <v>{#杜衡开心表情恢复}</v>
-      </c>
+        <f>$C$1&amp;B30&amp;$D$1</f>
+        <v>{#杜衡送客动作结束}</v>
+      </c>
+      <c r="I30" s="14"/>
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
+        <f t="shared" si="4"/>
         <v>12027</v>
       </c>
       <c r="B31" t="s">
@@ -16122,360 +16315,834 @@
         <v>2022</v>
       </c>
       <c r="D31" t="str">
-        <f t="shared" si="2"/>
-        <v>{#杜衡平静表情}</v>
+        <f t="shared" ref="D31:D47" si="5">$C$1&amp;B31&amp;$D$1</f>
+        <v>{#杜衡待机表情}</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
+        <f t="shared" si="4"/>
         <v>12028</v>
       </c>
       <c r="B32" t="s">
         <v>2023</v>
       </c>
       <c r="C32" t="s">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="D32" t="str">
-        <f t="shared" si="2"/>
-        <v>{#杜衡平静表情恢复}</v>
+        <f t="shared" si="5"/>
+        <v>{#杜衡开心表情}</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
+        <f t="shared" si="4"/>
         <v>12029</v>
       </c>
       <c r="B33" t="s">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="C33" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="D33" t="str">
-        <f t="shared" si="2"/>
-        <v>{#杜衡忧伤表情}</v>
+        <f t="shared" si="5"/>
+        <v>{#杜衡开心表情恢复}</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
+        <f t="shared" si="4"/>
         <v>12030</v>
       </c>
       <c r="B34" t="s">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="C34" t="s">
-        <v>2020</v>
+        <v>2028</v>
       </c>
       <c r="D34" t="str">
-        <f t="shared" si="2"/>
-        <v>{#杜衡忧伤表情恢复}</v>
+        <f t="shared" si="5"/>
+        <v>{#杜衡平静表情}</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
+        <f t="shared" si="4"/>
         <v>12031</v>
       </c>
       <c r="B35" t="s">
-        <v>2027</v>
+        <v>2029</v>
       </c>
       <c r="C35" t="s">
-        <v>2028</v>
+        <v>2026</v>
       </c>
       <c r="D35" t="str">
-        <f t="shared" si="2"/>
-        <v>{#杜衡惊讶表情}</v>
+        <f t="shared" si="5"/>
+        <v>{#杜衡平静表情恢复}</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
+        <f t="shared" si="4"/>
         <v>12032</v>
       </c>
       <c r="B36" t="s">
-        <v>2029</v>
+        <v>2030</v>
       </c>
       <c r="C36" t="s">
-        <v>2020</v>
+        <v>2031</v>
       </c>
       <c r="D36" t="str">
-        <f t="shared" si="2"/>
-        <v>{#杜衡惊讶表情恢复}</v>
+        <f t="shared" si="5"/>
+        <v>{#杜衡忧伤表情}</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
+        <f t="shared" si="4"/>
         <v>12033</v>
       </c>
       <c r="B37" t="s">
-        <v>2030</v>
+        <v>2032</v>
       </c>
       <c r="C37" t="s">
-        <v>2031</v>
+        <v>2026</v>
       </c>
       <c r="D37" t="str">
-        <f t="shared" si="2"/>
-        <v>{#杜衡紧张表情}</v>
+        <f t="shared" si="5"/>
+        <v>{#杜衡忧伤表情恢复}</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
+        <f t="shared" ref="A38:A47" si="6">12000+ROW()-4</f>
         <v>12034</v>
       </c>
       <c r="B38" t="s">
-        <v>2032</v>
+        <v>2033</v>
       </c>
       <c r="C38" t="s">
-        <v>2020</v>
+        <v>2034</v>
       </c>
       <c r="D38" t="str">
-        <f t="shared" si="2"/>
-        <v>{#杜衡紧张表情恢复}</v>
+        <f t="shared" si="5"/>
+        <v>{#杜衡惊讶表情}</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
+        <f t="shared" si="6"/>
         <v>12035</v>
       </c>
       <c r="B39" t="s">
-        <v>2033</v>
+        <v>2035</v>
       </c>
       <c r="C39" t="s">
-        <v>2034</v>
+        <v>2026</v>
       </c>
       <c r="D39" t="str">
-        <f t="shared" si="2"/>
-        <v>{#杜衡思考表情}</v>
+        <f t="shared" si="5"/>
+        <v>{#杜衡惊讶表情恢复}</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
+        <f t="shared" si="6"/>
         <v>12036</v>
       </c>
       <c r="B40" t="s">
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="C40" t="s">
-        <v>2020</v>
+        <v>2037</v>
       </c>
       <c r="D40" t="str">
-        <f t="shared" si="2"/>
-        <v>{#杜衡思考表情恢复}</v>
+        <f t="shared" si="5"/>
+        <v>{#杜衡紧张表情}</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
+        <f t="shared" si="6"/>
         <v>12037</v>
       </c>
       <c r="B41" t="s">
-        <v>2036</v>
+        <v>2038</v>
       </c>
       <c r="C41" t="s">
-        <v>2037</v>
+        <v>2026</v>
       </c>
       <c r="D41" t="str">
-        <f t="shared" si="2"/>
-        <v>{#杜衡愤怒表情}</v>
+        <f t="shared" si="5"/>
+        <v>{#杜衡紧张表情恢复}</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
+        <f t="shared" si="6"/>
         <v>12038</v>
       </c>
       <c r="B42" t="s">
-        <v>2038</v>
+        <v>2039</v>
       </c>
       <c r="C42" t="s">
-        <v>2020</v>
+        <v>2040</v>
       </c>
       <c r="D42" t="str">
-        <f t="shared" si="2"/>
-        <v>{#杜衡愤怒表情恢复}</v>
+        <f t="shared" si="5"/>
+        <v>{#杜衡思考表情}</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
+        <f t="shared" si="6"/>
         <v>12039</v>
       </c>
       <c r="B43" t="s">
-        <v>2039</v>
+        <v>2041</v>
       </c>
       <c r="C43" t="s">
-        <v>2040</v>
+        <v>2026</v>
       </c>
       <c r="D43" t="str">
-        <f t="shared" si="2"/>
-        <v>{#杜衡愤怒2表情}</v>
+        <f t="shared" si="5"/>
+        <v>{#杜衡思考表情恢复}</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
+        <f t="shared" si="6"/>
         <v>12040</v>
       </c>
       <c r="B44" t="s">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="C44" t="s">
-        <v>2020</v>
+        <v>2043</v>
       </c>
       <c r="D44" t="str">
-        <f t="shared" si="2"/>
-        <v>{#杜衡愤怒2表情恢复}</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
+        <f t="shared" si="5"/>
+        <v>{#杜衡愤怒表情}</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45">
+        <f t="shared" si="6"/>
         <v>12041</v>
+      </c>
+      <c r="B45" t="s">
+        <v>2044</v>
+      </c>
+      <c r="C45" t="s">
+        <v>2026</v>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" si="5"/>
+        <v>{#杜衡愤怒表情恢复}</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
+        <f t="shared" si="6"/>
         <v>12042</v>
       </c>
       <c r="B46" t="s">
-        <v>2042</v>
+        <v>2045</v>
       </c>
       <c r="C46" t="s">
-        <v>2043</v>
+        <v>2046</v>
       </c>
       <c r="D46" t="str">
-        <f>$C$1&amp;B46&amp;$D$1</f>
-        <v>{#杜衡看文件2动作}</v>
+        <f t="shared" si="5"/>
+        <v>{#杜衡愤怒2表情}</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
+        <f t="shared" si="6"/>
         <v>12043</v>
       </c>
       <c r="B47" t="s">
-        <v>2044</v>
+        <v>2047</v>
       </c>
       <c r="C47" t="s">
-        <v>2045</v>
+        <v>2026</v>
       </c>
       <c r="D47" t="str">
-        <f>$C$1&amp;B47&amp;$D$1</f>
-        <v>{#杜衡看文件2动作恢复}</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
+        <f t="shared" si="5"/>
+        <v>{#杜衡愤怒2表情恢复}</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48">
+        <f>12000+ROW()-4</f>
         <v>12044</v>
+      </c>
+      <c r="B48" t="s">
+        <v>2048</v>
+      </c>
+      <c r="C48" t="s">
+        <v>2049</v>
+      </c>
+      <c r="D48" t="str">
+        <f>$C$1&amp;B48&amp;$D$1</f>
+        <v>{#杜衡看文件表情}</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
+        <f>12000+ROW()-4</f>
         <v>12045</v>
       </c>
-      <c r="B49" s="11" t="s">
-        <v>2046</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>2047</v>
-      </c>
-      <c r="D49" s="11" t="s">
-        <v>2048</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="B49" t="s">
+        <v>2050</v>
+      </c>
+      <c r="C49" t="s">
+        <v>2026</v>
+      </c>
+      <c r="D49" t="str">
+        <f>$C$1&amp;B49&amp;$D$1</f>
+        <v>{#杜衡看文件表情恢复}</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
       <c r="A50">
+        <f t="shared" ref="A50:A56" si="7">12000+ROW()-4</f>
         <v>12046</v>
-      </c>
-      <c r="B50" s="11" t="s">
-        <v>2049</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>2050</v>
-      </c>
-      <c r="D50" s="11" t="s">
-        <v>2051</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
+        <f t="shared" si="7"/>
         <v>12047</v>
       </c>
       <c r="B51" s="11" t="s">
+        <v>2051</v>
+      </c>
+      <c r="C51" s="11" t="s">
         <v>2052</v>
       </c>
-      <c r="C51" s="11" t="s">
+      <c r="D51" s="11" t="s">
         <v>2053</v>
-      </c>
-      <c r="D51" s="11" t="s">
-        <v>2054</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52">
+        <f t="shared" si="7"/>
         <v>12048</v>
       </c>
       <c r="B52" s="11" t="s">
+        <v>2054</v>
+      </c>
+      <c r="C52" s="11" t="s">
         <v>2055</v>
       </c>
-      <c r="C52" s="11" t="s">
+      <c r="D52" s="11" t="s">
         <v>2056</v>
-      </c>
-      <c r="D52" s="11" t="s">
-        <v>2057</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53">
+        <f t="shared" si="7"/>
         <v>12049</v>
       </c>
       <c r="B53" s="11" t="s">
+        <v>2057</v>
+      </c>
+      <c r="C53" s="11" t="s">
         <v>2058</v>
       </c>
-      <c r="C53" s="11" t="s">
+      <c r="D53" s="11" t="s">
         <v>2059</v>
-      </c>
-      <c r="D53" s="11" t="s">
-        <v>2060</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54">
+        <f t="shared" si="7"/>
         <v>12050</v>
       </c>
       <c r="B54" s="11" t="s">
+        <v>2060</v>
+      </c>
+      <c r="C54" s="11" t="s">
         <v>2061</v>
       </c>
-      <c r="C54" s="11" t="s">
+      <c r="D54" s="11" t="s">
         <v>2062</v>
-      </c>
-      <c r="D54" s="11" t="s">
-        <v>2063</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55">
+        <f t="shared" si="7"/>
         <v>12051</v>
       </c>
       <c r="B55" s="11" t="s">
+        <v>2063</v>
+      </c>
+      <c r="C55" s="11" t="s">
         <v>2064</v>
       </c>
-      <c r="C55" s="11" t="s">
+      <c r="D55" s="11" t="s">
         <v>2065</v>
-      </c>
-      <c r="D55" s="11" t="s">
-        <v>2066</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56">
+        <f t="shared" si="7"/>
         <v>12052</v>
       </c>
       <c r="B56" s="11" t="s">
+        <v>2066</v>
+      </c>
+      <c r="C56" s="11" t="s">
         <v>2067</v>
       </c>
-      <c r="C56" s="11" t="s">
+      <c r="D56" s="11" t="s">
         <v>2068</v>
       </c>
-      <c r="D56" s="11" t="s">
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57">
+        <f t="shared" ref="A57:A66" si="8">12000+ROW()-4</f>
+        <v>12053</v>
+      </c>
+      <c r="B57" s="11" t="s">
         <v>2069</v>
       </c>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57">
-        <v>12053</v>
+      <c r="C57" s="11" t="s">
+        <v>2070</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58">
+        <f t="shared" si="8"/>
+        <v>12054</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>2072</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>2073</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>2074</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59">
+        <f t="shared" si="8"/>
+        <v>12055</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60">
+        <f t="shared" si="8"/>
+        <v>12056</v>
+      </c>
+      <c r="B60" t="s">
+        <v>2075</v>
+      </c>
+      <c r="C60" t="s">
+        <v>2076</v>
+      </c>
+      <c r="D60" t="str">
+        <f>$C$1&amp;B60&amp;$D$1</f>
+        <v>{#杜衡待机}</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61">
+        <f t="shared" si="8"/>
+        <v>12057</v>
+      </c>
+      <c r="B61" t="s">
+        <v>2077</v>
+      </c>
+      <c r="C61" t="s">
+        <v>2078</v>
+      </c>
+      <c r="D61" t="str">
+        <f>$C$1&amp;B61&amp;$D$1</f>
+        <v>{#杜衡开心}</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62">
+        <f t="shared" si="8"/>
+        <v>12058</v>
+      </c>
+      <c r="B62" t="s">
+        <v>2079</v>
+      </c>
+      <c r="C62" t="s">
+        <v>2080</v>
+      </c>
+      <c r="D62" t="str">
+        <f>$C$1&amp;B62&amp;$D$1</f>
+        <v>{#杜衡平静}</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63">
+        <f t="shared" si="8"/>
+        <v>12059</v>
+      </c>
+      <c r="B63" t="s">
+        <v>2081</v>
+      </c>
+      <c r="C63" t="s">
+        <v>2082</v>
+      </c>
+      <c r="D63" t="str">
+        <f>$C$1&amp;B63&amp;$D$1</f>
+        <v>{#杜衡忧伤}</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64">
+        <f t="shared" si="8"/>
+        <v>12060</v>
+      </c>
+      <c r="B64" t="s">
+        <v>2083</v>
+      </c>
+      <c r="C64" t="s">
+        <v>2084</v>
+      </c>
+      <c r="D64" t="str">
+        <f>$C$1&amp;B64&amp;$D$1</f>
+        <v>{#杜衡惊讶}</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65">
+        <f t="shared" si="8"/>
+        <v>12061</v>
+      </c>
+      <c r="B65" t="s">
+        <v>2085</v>
+      </c>
+      <c r="C65" t="s">
+        <v>2086</v>
+      </c>
+      <c r="D65" t="str">
+        <f t="shared" ref="D65:D72" si="9">$C$1&amp;B65&amp;$D$1</f>
+        <v>{#杜衡紧张}</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66">
+        <f t="shared" si="8"/>
+        <v>12062</v>
+      </c>
+      <c r="B66" t="s">
+        <v>2087</v>
+      </c>
+      <c r="C66" t="s">
+        <v>2088</v>
+      </c>
+      <c r="D66" t="str">
+        <f t="shared" si="9"/>
+        <v>{#杜衡思考}</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67">
+        <f t="shared" ref="A67:A76" si="10">12000+ROW()-4</f>
+        <v>12063</v>
+      </c>
+      <c r="B67" t="s">
+        <v>2089</v>
+      </c>
+      <c r="C67" t="s">
+        <v>2090</v>
+      </c>
+      <c r="D67" t="str">
+        <f t="shared" si="9"/>
+        <v>{#杜衡愤怒}</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68">
+        <f t="shared" si="10"/>
+        <v>12064</v>
+      </c>
+      <c r="B68" t="s">
+        <v>2091</v>
+      </c>
+      <c r="C68" t="s">
+        <v>2092</v>
+      </c>
+      <c r="D68" t="str">
+        <f t="shared" si="9"/>
+        <v>{#杜衡愤怒2}</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69">
+        <f t="shared" si="10"/>
+        <v>12065</v>
+      </c>
+      <c r="B69" t="s">
+        <v>2093</v>
+      </c>
+      <c r="C69" t="s">
+        <v>2094</v>
+      </c>
+      <c r="D69" t="str">
+        <f t="shared" si="9"/>
+        <v>{#杜衡调戏}</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70">
+        <f t="shared" si="10"/>
+        <v>12066</v>
+      </c>
+      <c r="B70" t="s">
+        <v>2095</v>
+      </c>
+      <c r="C70" t="s">
+        <v>2096</v>
+      </c>
+      <c r="D70" t="str">
+        <f t="shared" si="9"/>
+        <v>{#杜衡送客}</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71">
+        <f t="shared" si="10"/>
+        <v>12067</v>
+      </c>
+      <c r="B71" t="s">
+        <v>2097</v>
+      </c>
+      <c r="C71" t="s">
+        <v>2098</v>
+      </c>
+      <c r="D71" t="str">
+        <f t="shared" si="9"/>
+        <v>{#杜衡看文件}</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72">
+        <f t="shared" si="10"/>
+        <v>12068</v>
+      </c>
+      <c r="B72" t="s">
+        <v>2099</v>
+      </c>
+      <c r="C72" t="s">
+        <v>2100</v>
+      </c>
+      <c r="D72" t="str">
+        <f t="shared" si="9"/>
+        <v>{#杜衡看文件2}</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73">
+        <f t="shared" si="10"/>
+        <v>12069</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74">
+        <f t="shared" si="10"/>
+        <v>12070</v>
+      </c>
+      <c r="B74" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C74" t="s">
+        <v>2102</v>
+      </c>
+      <c r="D74" t="str">
+        <f t="shared" ref="D73:D85" si="11">$C$1&amp;B74&amp;$D$1</f>
+        <v>{#杜衡开心恢复}</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75">
+        <f t="shared" si="10"/>
+        <v>12071</v>
+      </c>
+      <c r="B75" t="s">
+        <v>2103</v>
+      </c>
+      <c r="C75" t="s">
+        <v>2104</v>
+      </c>
+      <c r="D75" t="str">
+        <f t="shared" si="11"/>
+        <v>{#杜衡平静恢复}</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76">
+        <f t="shared" si="10"/>
+        <v>12072</v>
+      </c>
+      <c r="B76" t="s">
+        <v>2105</v>
+      </c>
+      <c r="C76" t="s">
+        <v>2106</v>
+      </c>
+      <c r="D76" t="str">
+        <f t="shared" si="11"/>
+        <v>{#杜衡忧伤恢复}</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77">
+        <f t="shared" ref="A77:A85" si="12">12000+ROW()-4</f>
+        <v>12073</v>
+      </c>
+      <c r="B77" t="s">
+        <v>2107</v>
+      </c>
+      <c r="C77" t="s">
+        <v>2108</v>
+      </c>
+      <c r="D77" t="str">
+        <f t="shared" si="11"/>
+        <v>{#杜衡惊讶恢复}</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78">
+        <f t="shared" si="12"/>
+        <v>12074</v>
+      </c>
+      <c r="B78" t="s">
+        <v>2109</v>
+      </c>
+      <c r="C78" t="s">
+        <v>2110</v>
+      </c>
+      <c r="D78" t="str">
+        <f t="shared" si="11"/>
+        <v>{#杜衡紧张恢复}</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79">
+        <f t="shared" si="12"/>
+        <v>12075</v>
+      </c>
+      <c r="B79" t="s">
+        <v>2111</v>
+      </c>
+      <c r="C79" t="s">
+        <v>2112</v>
+      </c>
+      <c r="D79" t="str">
+        <f t="shared" si="11"/>
+        <v>{#杜衡思考恢复}</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80">
+        <f t="shared" si="12"/>
+        <v>12076</v>
+      </c>
+      <c r="B80" t="s">
+        <v>2113</v>
+      </c>
+      <c r="C80" t="s">
+        <v>2114</v>
+      </c>
+      <c r="D80" t="str">
+        <f t="shared" si="11"/>
+        <v>{#杜衡愤怒恢复}</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81">
+        <f t="shared" si="12"/>
+        <v>12077</v>
+      </c>
+      <c r="B81" t="s">
+        <v>2115</v>
+      </c>
+      <c r="C81" t="s">
+        <v>2116</v>
+      </c>
+      <c r="D81" t="str">
+        <f t="shared" si="11"/>
+        <v>{#杜衡愤怒2恢复}</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82">
+        <f t="shared" si="12"/>
+        <v>12078</v>
+      </c>
+      <c r="B82" t="s">
+        <v>2117</v>
+      </c>
+      <c r="C82" t="s">
+        <v>2118</v>
+      </c>
+      <c r="D82" t="str">
+        <f t="shared" si="11"/>
+        <v>{#杜衡调戏恢复}</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83">
+        <f t="shared" si="12"/>
+        <v>12079</v>
+      </c>
+      <c r="B83" t="s">
+        <v>2119</v>
+      </c>
+      <c r="C83" t="s">
+        <v>2120</v>
+      </c>
+      <c r="D83" t="str">
+        <f t="shared" si="11"/>
+        <v>{#杜衡送客恢复}</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84">
+        <f t="shared" si="12"/>
+        <v>12080</v>
+      </c>
+      <c r="B84" t="s">
+        <v>2121</v>
+      </c>
+      <c r="C84" t="s">
+        <v>2122</v>
+      </c>
+      <c r="D84" t="str">
+        <f t="shared" si="11"/>
+        <v>{#杜衡看文件恢复}</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85">
+        <f t="shared" si="12"/>
+        <v>12081</v>
+      </c>
+      <c r="B85" t="s">
+        <v>2123</v>
+      </c>
+      <c r="C85" t="s">
+        <v>2124</v>
+      </c>
+      <c r="D85" t="str">
+        <f t="shared" si="11"/>
+        <v>{#杜衡看文件2恢复}</v>
       </c>
     </row>
   </sheetData>
@@ -16564,10 +17231,10 @@
         <v>13001</v>
       </c>
       <c r="B5" t="s">
-        <v>2070</v>
+        <v>2125</v>
       </c>
       <c r="C5" t="s">
-        <v>2071</v>
+        <v>2126</v>
       </c>
       <c r="D5" t="str">
         <f>$C$1&amp;B5&amp;$D$1</f>
@@ -16580,10 +17247,10 @@
         <v>13002</v>
       </c>
       <c r="B6" t="s">
-        <v>2072</v>
+        <v>2127</v>
       </c>
       <c r="C6" t="s">
-        <v>2073</v>
+        <v>2128</v>
       </c>
       <c r="D6" t="str">
         <f>$C$1&amp;B6&amp;$D$1</f>
@@ -16596,10 +17263,10 @@
         <v>13003</v>
       </c>
       <c r="B7" t="s">
-        <v>2074</v>
+        <v>2129</v>
       </c>
       <c r="C7" t="s">
-        <v>2075</v>
+        <v>2130</v>
       </c>
       <c r="D7" t="str">
         <f>$C$1&amp;B7&amp;$D$1</f>
@@ -16612,10 +17279,10 @@
         <v>13004</v>
       </c>
       <c r="B8" t="s">
-        <v>2076</v>
+        <v>2131</v>
       </c>
       <c r="C8" t="s">
-        <v>2077</v>
+        <v>2132</v>
       </c>
       <c r="D8" t="str">
         <f>$C$1&amp;B8&amp;$D$1</f>
@@ -16629,10 +17296,10 @@
         <v>13005</v>
       </c>
       <c r="B9" t="s">
-        <v>2078</v>
+        <v>2133</v>
       </c>
       <c r="C9" t="s">
-        <v>2079</v>
+        <v>2134</v>
       </c>
       <c r="D9" t="str">
         <f>$C$1&amp;B9&amp;$D$1</f>
@@ -16646,10 +17313,10 @@
         <v>13006</v>
       </c>
       <c r="B10" t="s">
-        <v>2080</v>
+        <v>2135</v>
       </c>
       <c r="C10" t="s">
-        <v>2081</v>
+        <v>2136</v>
       </c>
       <c r="D10" t="str">
         <f>$C$1&amp;B10&amp;$D$1</f>
@@ -16662,10 +17329,10 @@
         <v>13007</v>
       </c>
       <c r="B11" t="s">
-        <v>2082</v>
+        <v>2137</v>
       </c>
       <c r="C11" t="s">
-        <v>2083</v>
+        <v>2138</v>
       </c>
       <c r="D11" t="str">
         <f>$C$1&amp;B11&amp;$D$1</f>
@@ -16678,10 +17345,10 @@
         <v>13008</v>
       </c>
       <c r="B12" t="s">
-        <v>2084</v>
+        <v>2139</v>
       </c>
       <c r="C12" t="s">
-        <v>2085</v>
+        <v>2140</v>
       </c>
       <c r="D12" t="str">
         <f>$C$1&amp;B12&amp;$D$1</f>
@@ -16694,10 +17361,10 @@
         <v>13009</v>
       </c>
       <c r="B13" t="s">
-        <v>2086</v>
+        <v>2141</v>
       </c>
       <c r="C13" t="s">
-        <v>2087</v>
+        <v>2142</v>
       </c>
       <c r="D13" t="str">
         <f>$C$1&amp;B13&amp;$D$1</f>
@@ -16710,10 +17377,10 @@
         <v>13010</v>
       </c>
       <c r="B14" t="s">
-        <v>2088</v>
+        <v>2143</v>
       </c>
       <c r="C14" t="s">
-        <v>2089</v>
+        <v>2144</v>
       </c>
       <c r="D14" t="str">
         <f>$C$1&amp;B14&amp;$D$1</f>
@@ -16726,10 +17393,10 @@
         <v>13011</v>
       </c>
       <c r="B15" t="s">
-        <v>2090</v>
+        <v>2145</v>
       </c>
       <c r="C15" t="s">
-        <v>2091</v>
+        <v>2146</v>
       </c>
       <c r="D15" t="str">
         <f>$C$1&amp;B15&amp;$D$1</f>
@@ -16742,10 +17409,10 @@
         <v>13012</v>
       </c>
       <c r="B16" t="s">
-        <v>2092</v>
+        <v>2147</v>
       </c>
       <c r="C16" t="s">
-        <v>2093</v>
+        <v>2148</v>
       </c>
       <c r="D16" t="str">
         <f>$C$1&amp;B16&amp;$D$1</f>
@@ -16758,10 +17425,10 @@
         <v>13013</v>
       </c>
       <c r="B17" t="s">
-        <v>2094</v>
+        <v>2149</v>
       </c>
       <c r="C17" t="s">
-        <v>2095</v>
+        <v>2150</v>
       </c>
       <c r="D17" t="str">
         <f>$C$1&amp;B17&amp;$D$1</f>
@@ -16774,10 +17441,10 @@
         <v>13014</v>
       </c>
       <c r="B18" t="s">
-        <v>2096</v>
+        <v>2151</v>
       </c>
       <c r="C18" t="s">
-        <v>2097</v>
+        <v>2152</v>
       </c>
       <c r="D18" t="str">
         <f>$C$1&amp;B18&amp;$D$1</f>
@@ -16791,10 +17458,10 @@
         <v>13015</v>
       </c>
       <c r="B19" t="s">
-        <v>2098</v>
+        <v>2153</v>
       </c>
       <c r="C19" t="s">
-        <v>2099</v>
+        <v>2154</v>
       </c>
       <c r="D19" t="str">
         <f>$C$1&amp;B19&amp;$D$1</f>
@@ -16808,10 +17475,10 @@
         <v>13016</v>
       </c>
       <c r="B20" t="s">
-        <v>2100</v>
+        <v>2155</v>
       </c>
       <c r="C20" t="s">
-        <v>2101</v>
+        <v>2156</v>
       </c>
       <c r="D20" t="str">
         <f>$C$1&amp;B20&amp;$D$1</f>
@@ -16825,10 +17492,10 @@
         <v>13017</v>
       </c>
       <c r="B21" t="s">
-        <v>2102</v>
+        <v>2157</v>
       </c>
       <c r="C21" t="s">
-        <v>2103</v>
+        <v>2158</v>
       </c>
       <c r="D21" t="str">
         <f>$C$1&amp;B21&amp;$D$1</f>
@@ -16842,10 +17509,10 @@
         <v>13018</v>
       </c>
       <c r="B22" t="s">
-        <v>2104</v>
+        <v>2159</v>
       </c>
       <c r="C22" t="s">
-        <v>2105</v>
+        <v>2160</v>
       </c>
       <c r="D22" t="str">
         <f>$C$1&amp;B22&amp;$D$1</f>
@@ -16859,10 +17526,10 @@
         <v>13019</v>
       </c>
       <c r="B23" t="s">
-        <v>2106</v>
+        <v>2161</v>
       </c>
       <c r="C23" t="s">
-        <v>2107</v>
+        <v>2162</v>
       </c>
       <c r="D23" t="str">
         <f>$C$1&amp;B23&amp;$D$1</f>
@@ -16876,10 +17543,10 @@
         <v>13020</v>
       </c>
       <c r="B24" t="s">
-        <v>2108</v>
+        <v>2163</v>
       </c>
       <c r="C24" t="s">
-        <v>2109</v>
+        <v>2164</v>
       </c>
       <c r="D24" t="str">
         <f>$C$1&amp;B24&amp;$D$1</f>
@@ -16893,10 +17560,10 @@
         <v>13021</v>
       </c>
       <c r="B25" t="s">
-        <v>2110</v>
+        <v>2165</v>
       </c>
       <c r="C25" t="s">
-        <v>2111</v>
+        <v>2166</v>
       </c>
       <c r="D25" t="str">
         <f>$C$1&amp;B25&amp;$D$1</f>
@@ -16910,10 +17577,10 @@
         <v>13022</v>
       </c>
       <c r="B26" t="s">
-        <v>2112</v>
+        <v>2167</v>
       </c>
       <c r="C26" t="s">
-        <v>2113</v>
+        <v>2168</v>
       </c>
       <c r="D26" t="str">
         <f>$C$1&amp;B26&amp;$D$1</f>
@@ -16934,10 +17601,10 @@
         <v>13024</v>
       </c>
       <c r="B28" t="s">
-        <v>2114</v>
+        <v>2169</v>
       </c>
       <c r="C28" t="s">
-        <v>2115</v>
+        <v>2170</v>
       </c>
       <c r="D28" t="str">
         <f>$C$1&amp;B28&amp;$D$1</f>
@@ -16950,10 +17617,10 @@
         <v>13025</v>
       </c>
       <c r="B29" t="s">
-        <v>2116</v>
+        <v>2171</v>
       </c>
       <c r="C29" t="s">
-        <v>2117</v>
+        <v>2172</v>
       </c>
       <c r="D29" t="str">
         <f>$C$1&amp;B29&amp;$D$1</f>
@@ -16966,10 +17633,10 @@
         <v>13026</v>
       </c>
       <c r="B30" t="s">
-        <v>2118</v>
+        <v>2173</v>
       </c>
       <c r="C30" t="s">
-        <v>2119</v>
+        <v>2174</v>
       </c>
       <c r="D30" t="str">
         <f>$C$1&amp;B30&amp;$D$1</f>
@@ -16982,10 +17649,10 @@
         <v>13027</v>
       </c>
       <c r="B31" t="s">
-        <v>2120</v>
+        <v>2175</v>
       </c>
       <c r="C31" t="s">
-        <v>2121</v>
+        <v>2176</v>
       </c>
       <c r="D31" t="str">
         <f>$C$1&amp;B31&amp;$D$1</f>
@@ -16998,10 +17665,10 @@
         <v>13028</v>
       </c>
       <c r="B32" t="s">
-        <v>2122</v>
+        <v>2177</v>
       </c>
       <c r="C32" t="s">
-        <v>2119</v>
+        <v>2174</v>
       </c>
       <c r="D32" t="str">
         <f>$C$1&amp;B32&amp;$D$1</f>
@@ -17014,10 +17681,10 @@
         <v>13029</v>
       </c>
       <c r="B33" t="s">
-        <v>2123</v>
+        <v>2178</v>
       </c>
       <c r="C33" t="s">
-        <v>2124</v>
+        <v>2179</v>
       </c>
       <c r="D33" t="str">
         <f>$C$1&amp;B33&amp;$D$1</f>
@@ -17030,10 +17697,10 @@
         <v>13030</v>
       </c>
       <c r="B34" t="s">
-        <v>2125</v>
+        <v>2180</v>
       </c>
       <c r="C34" t="s">
-        <v>2119</v>
+        <v>2174</v>
       </c>
       <c r="D34" t="str">
         <f>$C$1&amp;B34&amp;$D$1</f>
@@ -17046,10 +17713,10 @@
         <v>13031</v>
       </c>
       <c r="B35" t="s">
-        <v>2126</v>
+        <v>2181</v>
       </c>
       <c r="C35" t="s">
-        <v>2127</v>
+        <v>2182</v>
       </c>
       <c r="D35" t="str">
         <f>$C$1&amp;B35&amp;$D$1</f>
@@ -17062,10 +17729,10 @@
         <v>13032</v>
       </c>
       <c r="B36" t="s">
-        <v>2128</v>
+        <v>2183</v>
       </c>
       <c r="C36" t="s">
-        <v>2119</v>
+        <v>2174</v>
       </c>
       <c r="D36" t="str">
         <f>$C$1&amp;B36&amp;$D$1</f>
@@ -17078,10 +17745,10 @@
         <v>13033</v>
       </c>
       <c r="B37" t="s">
-        <v>2129</v>
+        <v>2184</v>
       </c>
       <c r="C37" t="s">
-        <v>2130</v>
+        <v>2185</v>
       </c>
       <c r="D37" t="str">
         <f>$C$1&amp;B37&amp;$D$1</f>
@@ -17094,10 +17761,10 @@
         <v>13034</v>
       </c>
       <c r="B38" t="s">
-        <v>2131</v>
+        <v>2186</v>
       </c>
       <c r="C38" t="s">
-        <v>2119</v>
+        <v>2174</v>
       </c>
       <c r="D38" t="str">
         <f>$C$1&amp;B38&amp;$D$1</f>
@@ -17110,10 +17777,10 @@
         <v>13035</v>
       </c>
       <c r="B39" t="s">
-        <v>2132</v>
+        <v>2187</v>
       </c>
       <c r="C39" t="s">
-        <v>2133</v>
+        <v>2188</v>
       </c>
       <c r="D39" t="str">
         <f>$C$1&amp;B39&amp;$D$1</f>
@@ -17126,10 +17793,10 @@
         <v>13036</v>
       </c>
       <c r="B40" t="s">
-        <v>2134</v>
+        <v>2189</v>
       </c>
       <c r="C40" t="s">
-        <v>2119</v>
+        <v>2174</v>
       </c>
       <c r="D40" t="str">
         <f>$C$1&amp;B40&amp;$D$1</f>
@@ -17142,10 +17809,10 @@
         <v>13037</v>
       </c>
       <c r="B41" t="s">
-        <v>2135</v>
+        <v>2190</v>
       </c>
       <c r="C41" t="s">
-        <v>2136</v>
+        <v>2191</v>
       </c>
       <c r="D41" t="str">
         <f>$C$1&amp;B41&amp;$D$1</f>
@@ -17158,10 +17825,10 @@
         <v>13038</v>
       </c>
       <c r="B42" t="s">
-        <v>2137</v>
+        <v>2192</v>
       </c>
       <c r="C42" t="s">
-        <v>2119</v>
+        <v>2174</v>
       </c>
       <c r="D42" t="str">
         <f>$C$1&amp;B42&amp;$D$1</f>
@@ -17174,10 +17841,10 @@
         <v>13039</v>
       </c>
       <c r="B43" t="s">
-        <v>2138</v>
+        <v>2193</v>
       </c>
       <c r="C43" t="s">
-        <v>2139</v>
+        <v>2194</v>
       </c>
       <c r="D43" t="str">
         <f>$C$1&amp;B43&amp;$D$1</f>
@@ -17190,10 +17857,10 @@
         <v>13040</v>
       </c>
       <c r="B44" t="s">
-        <v>2140</v>
+        <v>2195</v>
       </c>
       <c r="C44" t="s">
-        <v>2119</v>
+        <v>2174</v>
       </c>
       <c r="D44" t="str">
         <f>$C$1&amp;B44&amp;$D$1</f>
@@ -17212,10 +17879,10 @@
         <v>13042</v>
       </c>
       <c r="B46" t="s">
-        <v>2141</v>
+        <v>2196</v>
       </c>
       <c r="C46" t="s">
-        <v>2142</v>
+        <v>2197</v>
       </c>
       <c r="D46" t="str">
         <f>$C$1&amp;B46&amp;$D$1</f>
@@ -17228,10 +17895,10 @@
         <v>13043</v>
       </c>
       <c r="B47" t="s">
-        <v>2143</v>
+        <v>2198</v>
       </c>
       <c r="C47" t="s">
-        <v>2144</v>
+        <v>2199</v>
       </c>
       <c r="D47" t="str">
         <f>$C$1&amp;B47&amp;$D$1</f>
@@ -17250,13 +17917,13 @@
         <v>13045</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>2145</v>
+        <v>2200</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>2047</v>
+        <v>2052</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>2146</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -17265,13 +17932,13 @@
         <v>13046</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>2147</v>
+        <v>2202</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>2050</v>
+        <v>2055</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>2148</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -17280,13 +17947,13 @@
         <v>13047</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>2149</v>
+        <v>2204</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>2053</v>
+        <v>2058</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>2150</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -17295,13 +17962,13 @@
         <v>13048</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>2151</v>
+        <v>2206</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>2056</v>
+        <v>2061</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>2152</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -17310,13 +17977,13 @@
         <v>13049</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>2153</v>
+        <v>2208</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>2059</v>
+        <v>2064</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>2154</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -17325,13 +17992,13 @@
         <v>13050</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>2155</v>
+        <v>2210</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>2062</v>
+        <v>2067</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>2156</v>
+        <v>2211</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -17340,13 +18007,13 @@
         <v>13051</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>2157</v>
+        <v>2212</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>2065</v>
+        <v>2070</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>2158</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -17355,13 +18022,13 @@
         <v>13052</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>2159</v>
+        <v>2214</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>2068</v>
+        <v>2073</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>2160</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="57" spans="1:1">
@@ -17456,10 +18123,10 @@
         <v>99001</v>
       </c>
       <c r="B5" t="s">
-        <v>2161</v>
+        <v>2216</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>2162</v>
+        <v>2217</v>
       </c>
       <c r="D5" t="str">
         <f>$C$1&amp;B5&amp;$D$1</f>
@@ -21273,8 +21940,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="$A13:$XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -23687,7 +24354,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:F95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A28" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A28" workbookViewId="0">
       <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
